--- a/geography/basins_searchterms_tracking.xlsx
+++ b/geography/basins_searchterms_tracking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shared Waters Lab\geography\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shared Waters Lab\geography\geography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6F8BB-82C8-4DC2-9DB8-83F7FBBE83B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCC466-A63B-4A5E-A786-2345F86EBF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3180,10 +3180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3489,11 +3495,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M277" sqref="M277"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="87.07421875" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
@@ -3502,7 +3511,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3528,14 +3537,14 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3545,7 +3554,7 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
@@ -3565,7 +3574,7 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
@@ -3582,14 +3591,14 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3599,7 +3608,7 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F6" t="s">
@@ -3609,7 +3618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3619,14 +3628,14 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3636,7 +3645,7 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
@@ -3656,7 +3665,7 @@
       <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H9" t="s">
@@ -3673,7 +3682,7 @@
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H10" t="s">
@@ -3690,7 +3699,7 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F11" t="s">
@@ -3700,7 +3709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3710,7 +3719,7 @@
       <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H12" t="s">
@@ -3727,14 +3736,14 @@
       <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="204" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3744,7 +3753,7 @@
       <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F14" t="s">
@@ -3764,7 +3773,7 @@
       <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H15" t="s">
@@ -3781,7 +3790,7 @@
       <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H16" t="s">
@@ -3798,14 +3807,14 @@
       <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3815,7 +3824,7 @@
       <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F18" t="s">
@@ -3825,7 +3834,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3835,7 +3844,7 @@
       <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F19" t="s">
@@ -3845,7 +3854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="262.3" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3855,7 +3864,7 @@
       <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F20" t="s">
@@ -3865,7 +3874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3875,7 +3884,7 @@
       <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H21" t="s">
@@ -3892,7 +3901,7 @@
       <c r="C22" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H22" t="s">
@@ -3909,14 +3918,14 @@
       <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3926,7 +3935,7 @@
       <c r="C24" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F24" t="s">
@@ -3946,7 +3955,7 @@
       <c r="C25" t="s">
         <v>90</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F25" t="s">
@@ -3966,14 +3975,14 @@
       <c r="C26" t="s">
         <v>94</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3983,7 +3992,7 @@
       <c r="C27" t="s">
         <v>97</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F27" t="s">
@@ -4003,14 +4012,14 @@
       <c r="C28" t="s">
         <v>101</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>101</v>
       </c>
       <c r="H28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4020,7 +4029,7 @@
       <c r="C29" t="s">
         <v>104</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F29" t="s">
@@ -4040,14 +4049,14 @@
       <c r="C30" t="s">
         <v>108</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>108</v>
       </c>
       <c r="H30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4057,7 +4066,7 @@
       <c r="C31" t="s">
         <v>110</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F31" t="s">
@@ -4077,7 +4086,7 @@
       <c r="C32" t="s">
         <v>114</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F32" t="s">
@@ -4097,14 +4106,14 @@
       <c r="C33" t="s">
         <v>116</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>116</v>
       </c>
       <c r="H33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4114,7 +4123,7 @@
       <c r="C34" t="s">
         <v>119</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F34" t="s">
@@ -4134,7 +4143,7 @@
       <c r="C35" t="s">
         <v>123</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>123</v>
       </c>
       <c r="H35" t="s">
@@ -4151,7 +4160,7 @@
       <c r="C36" t="s">
         <v>125</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>126</v>
       </c>
       <c r="H36" t="s">
@@ -4168,7 +4177,7 @@
       <c r="C37" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F37" t="s">
@@ -4178,7 +4187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4188,7 +4197,7 @@
       <c r="C38" t="s">
         <v>133</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F38" t="s">
@@ -4208,7 +4217,7 @@
       <c r="C39" t="s">
         <v>137</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F39" t="s">
@@ -4218,7 +4227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4228,7 +4237,7 @@
       <c r="C40" t="s">
         <v>140</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>141</v>
       </c>
       <c r="F40" t="s">
@@ -4238,7 +4247,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4248,7 +4257,7 @@
       <c r="C41" t="s">
         <v>144</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F41" t="s">
@@ -4268,7 +4277,7 @@
       <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F42" t="s">
@@ -4278,7 +4287,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="291.45" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4288,7 +4297,7 @@
       <c r="C43" t="s">
         <v>152</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>153</v>
       </c>
       <c r="H43" t="s">
@@ -4305,14 +4314,14 @@
       <c r="C44" t="s">
         <v>156</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>156</v>
       </c>
       <c r="H44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4322,14 +4331,14 @@
       <c r="C45" t="s">
         <v>158</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>159</v>
       </c>
       <c r="H45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4339,7 +4348,7 @@
       <c r="C46" t="s">
         <v>161</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F46" t="s">
@@ -4349,7 +4358,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4359,7 +4368,7 @@
       <c r="C47" t="s">
         <v>165</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F47" t="s">
@@ -4379,14 +4388,14 @@
       <c r="C48" t="s">
         <v>169</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>169</v>
       </c>
       <c r="H48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4396,7 +4405,7 @@
       <c r="C49" t="s">
         <v>171</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F49" t="s">
@@ -4406,7 +4415,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4416,7 +4425,7 @@
       <c r="C50" t="s">
         <v>175</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>176</v>
       </c>
       <c r="F50" t="s">
@@ -4436,7 +4445,7 @@
       <c r="C51" t="s">
         <v>178</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>179</v>
       </c>
       <c r="F51" t="s">
@@ -4456,14 +4465,14 @@
       <c r="C52" t="s">
         <v>181</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>182</v>
       </c>
       <c r="H52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4473,7 +4482,7 @@
       <c r="C53" t="s">
         <v>184</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F53" t="s">
@@ -4483,7 +4492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4493,7 +4502,7 @@
       <c r="C54" t="s">
         <v>187</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>188</v>
       </c>
       <c r="F54" t="s">
@@ -4513,7 +4522,7 @@
       <c r="C55" t="s">
         <v>191</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>191</v>
       </c>
       <c r="H55" t="s">
@@ -4530,7 +4539,7 @@
       <c r="C56" t="s">
         <v>194</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>194</v>
       </c>
       <c r="H56" t="s">
@@ -4547,7 +4556,7 @@
       <c r="C57" t="s">
         <v>196</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>197</v>
       </c>
       <c r="F57" t="s">
@@ -4567,7 +4576,7 @@
       <c r="C58" t="s">
         <v>200</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>201</v>
       </c>
       <c r="F58" t="s">
@@ -4587,14 +4596,14 @@
       <c r="C59" t="s">
         <v>203</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>203</v>
       </c>
       <c r="H59" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4604,7 +4613,7 @@
       <c r="C60" t="s">
         <v>206</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>207</v>
       </c>
       <c r="F60" t="s">
@@ -4624,7 +4633,7 @@
       <c r="C61" t="s">
         <v>210</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>210</v>
       </c>
       <c r="F61" t="s">
@@ -4634,7 +4643,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4644,7 +4653,7 @@
       <c r="C62" t="s">
         <v>212</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>213</v>
       </c>
       <c r="F62" t="s">
@@ -4654,7 +4663,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4664,14 +4673,14 @@
       <c r="C63" t="s">
         <v>216</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>217</v>
       </c>
       <c r="H63" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4681,7 +4690,7 @@
       <c r="C64" t="s">
         <v>220</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F64" t="s">
@@ -4701,14 +4710,14 @@
       <c r="C65" t="s">
         <v>224</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>224</v>
       </c>
       <c r="H65" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4718,7 +4727,7 @@
       <c r="C66" t="s">
         <v>227</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>228</v>
       </c>
       <c r="H66" t="s">
@@ -4735,14 +4744,14 @@
       <c r="C67" t="s">
         <v>231</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>232</v>
       </c>
       <c r="H67" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4752,7 +4761,7 @@
       <c r="C68" t="s">
         <v>235</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>236</v>
       </c>
       <c r="H68" t="s">
@@ -4769,14 +4778,14 @@
       <c r="C69" t="s">
         <v>239</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>239</v>
       </c>
       <c r="H69" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4786,7 +4795,7 @@
       <c r="C70" t="s">
         <v>242</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>243</v>
       </c>
       <c r="F70" t="s">
@@ -4796,7 +4805,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4806,7 +4815,7 @@
       <c r="C71" t="s">
         <v>245</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H71" t="s">
@@ -4823,14 +4832,14 @@
       <c r="C72" t="s">
         <v>249</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>249</v>
       </c>
       <c r="H72" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4840,14 +4849,14 @@
       <c r="C73" t="s">
         <v>251</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>252</v>
       </c>
       <c r="H73" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4857,14 +4866,14 @@
       <c r="C74" t="s">
         <v>255</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H74" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4874,14 +4883,14 @@
       <c r="C75" t="s">
         <v>259</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>260</v>
       </c>
       <c r="H75" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4891,7 +4900,7 @@
       <c r="C76" t="s">
         <v>263</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>264</v>
       </c>
       <c r="H76" t="s">
@@ -4908,7 +4917,7 @@
       <c r="C77" t="s">
         <v>267</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>267</v>
       </c>
       <c r="H77" t="s">
@@ -4925,14 +4934,14 @@
       <c r="C78" t="s">
         <v>269</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>270</v>
       </c>
       <c r="H78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4942,7 +4951,7 @@
       <c r="C79" t="s">
         <v>272</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>273</v>
       </c>
       <c r="F79" t="s">
@@ -4952,7 +4961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4962,7 +4971,7 @@
       <c r="C80" t="s">
         <v>275</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>276</v>
       </c>
       <c r="F80" t="s">
@@ -4982,7 +4991,7 @@
       <c r="C81" t="s">
         <v>279</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>279</v>
       </c>
       <c r="H81" t="s">
@@ -4999,7 +5008,7 @@
       <c r="C82" t="s">
         <v>281</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>282</v>
       </c>
       <c r="H82" t="s">
@@ -5016,7 +5025,7 @@
       <c r="C83" t="s">
         <v>284</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>285</v>
       </c>
       <c r="H83" t="s">
@@ -5033,7 +5042,7 @@
       <c r="C84" t="s">
         <v>287</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>287</v>
       </c>
       <c r="H84" t="s">
@@ -5050,14 +5059,14 @@
       <c r="C85" t="s">
         <v>290</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>290</v>
       </c>
       <c r="H85" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5067,7 +5076,7 @@
       <c r="C86" t="s">
         <v>292</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>293</v>
       </c>
       <c r="H86" t="s">
@@ -5084,14 +5093,14 @@
       <c r="C87" t="s">
         <v>295</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>296</v>
       </c>
       <c r="H87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5101,7 +5110,7 @@
       <c r="C88" t="s">
         <v>298</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>299</v>
       </c>
       <c r="F88" t="s">
@@ -5111,7 +5120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5121,7 +5130,7 @@
       <c r="C89" t="s">
         <v>301</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>302</v>
       </c>
       <c r="F89" t="s">
@@ -5131,7 +5140,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5141,7 +5150,7 @@
       <c r="C90" t="s">
         <v>305</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>306</v>
       </c>
       <c r="H90" t="s">
@@ -5158,7 +5167,7 @@
       <c r="C91" t="s">
         <v>309</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>310</v>
       </c>
       <c r="F91" t="s">
@@ -5168,7 +5177,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5178,7 +5187,7 @@
       <c r="C92" t="s">
         <v>313</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>314</v>
       </c>
       <c r="F92" t="s">
@@ -5188,7 +5197,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5198,7 +5207,7 @@
       <c r="C93" t="s">
         <v>317</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>318</v>
       </c>
       <c r="F93" t="s">
@@ -5218,14 +5227,14 @@
       <c r="C94" t="s">
         <v>321</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>321</v>
       </c>
       <c r="H94" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5235,7 +5244,7 @@
       <c r="C95" t="s">
         <v>323</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>324</v>
       </c>
       <c r="F95" t="s">
@@ -5255,14 +5264,14 @@
       <c r="C96" t="s">
         <v>327</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>327</v>
       </c>
       <c r="H96" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5272,7 +5281,7 @@
       <c r="C97" t="s">
         <v>330</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>331</v>
       </c>
       <c r="F97" t="s">
@@ -5282,7 +5291,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5292,7 +5301,7 @@
       <c r="C98" t="s">
         <v>334</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>335</v>
       </c>
       <c r="H98" t="s">
@@ -5309,14 +5318,14 @@
       <c r="C99" t="s">
         <v>337</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>337</v>
       </c>
       <c r="H99" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5326,7 +5335,7 @@
       <c r="C100" t="s">
         <v>339</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>340</v>
       </c>
       <c r="F100" t="s">
@@ -5346,14 +5355,14 @@
       <c r="C101" t="s">
         <v>343</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>343</v>
       </c>
       <c r="H101" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5363,7 +5372,7 @@
       <c r="C102" t="s">
         <v>345</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>346</v>
       </c>
       <c r="F102" t="s">
@@ -5383,14 +5392,14 @@
       <c r="C103" t="s">
         <v>348</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>348</v>
       </c>
       <c r="H103" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5400,7 +5409,7 @@
       <c r="C104" t="s">
         <v>351</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>352</v>
       </c>
       <c r="H104" t="s">
@@ -5417,7 +5426,7 @@
       <c r="C105" t="s">
         <v>355</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>356</v>
       </c>
       <c r="H105" t="s">
@@ -5434,14 +5443,14 @@
       <c r="C106" t="s">
         <v>358</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>359</v>
       </c>
       <c r="H106" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5451,14 +5460,14 @@
       <c r="C107" t="s">
         <v>361</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>362</v>
       </c>
       <c r="H107" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5468,7 +5477,7 @@
       <c r="C108" t="s">
         <v>364</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>365</v>
       </c>
       <c r="F108" t="s">
@@ -5488,14 +5497,14 @@
       <c r="C109" t="s">
         <v>367</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>367</v>
       </c>
       <c r="H109" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5505,14 +5514,14 @@
       <c r="C110" t="s">
         <v>370</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>371</v>
       </c>
       <c r="H110" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5522,7 +5531,7 @@
       <c r="C111" t="s">
         <v>373</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>374</v>
       </c>
       <c r="F111" t="s">
@@ -5542,7 +5551,7 @@
       <c r="C112" t="s">
         <v>377</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>378</v>
       </c>
       <c r="H112" t="s">
@@ -5559,14 +5568,14 @@
       <c r="C113" t="s">
         <v>381</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>381</v>
       </c>
       <c r="H113" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5576,14 +5585,14 @@
       <c r="C114" t="s">
         <v>383</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>384</v>
       </c>
       <c r="H114" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5593,7 +5602,7 @@
       <c r="C115" t="s">
         <v>387</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>388</v>
       </c>
       <c r="H115" t="s">
@@ -5610,7 +5619,7 @@
       <c r="C116" t="s">
         <v>391</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>392</v>
       </c>
       <c r="H116" t="s">
@@ -5627,7 +5636,7 @@
       <c r="C117" t="s">
         <v>395</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>395</v>
       </c>
       <c r="H117" t="s">
@@ -5644,14 +5653,14 @@
       <c r="C118" t="s">
         <v>397</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>397</v>
       </c>
       <c r="H118" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5661,14 +5670,14 @@
       <c r="C119" t="s">
         <v>400</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>401</v>
       </c>
       <c r="H119" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5678,7 +5687,7 @@
       <c r="C120" t="s">
         <v>404</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>405</v>
       </c>
       <c r="F120" t="s">
@@ -5688,7 +5697,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5698,7 +5707,7 @@
       <c r="C121" t="s">
         <v>408</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>409</v>
       </c>
       <c r="F121" t="s">
@@ -5718,14 +5727,14 @@
       <c r="C122" t="s">
         <v>412</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>412</v>
       </c>
       <c r="H122" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5735,7 +5744,7 @@
       <c r="C123" t="s">
         <v>415</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>416</v>
       </c>
       <c r="H123" t="s">
@@ -5752,14 +5761,14 @@
       <c r="C124" t="s">
         <v>419</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>419</v>
       </c>
       <c r="H124" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5769,7 +5778,7 @@
       <c r="C125" t="s">
         <v>422</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>423</v>
       </c>
       <c r="F125" t="s">
@@ -5789,7 +5798,7 @@
       <c r="C126" t="s">
         <v>426</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>427</v>
       </c>
       <c r="H126" t="s">
@@ -5806,7 +5815,7 @@
       <c r="C127" t="s">
         <v>429</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>429</v>
       </c>
       <c r="H127" t="s">
@@ -5823,7 +5832,7 @@
       <c r="C128" t="s">
         <v>431</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>431</v>
       </c>
       <c r="H128" t="s">
@@ -5840,14 +5849,14 @@
       <c r="C129" t="s">
         <v>433</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>434</v>
       </c>
       <c r="H129" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5857,7 +5866,7 @@
       <c r="C130" t="s">
         <v>436</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>437</v>
       </c>
       <c r="F130" t="s">
@@ -5867,7 +5876,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5877,7 +5886,7 @@
       <c r="C131" t="s">
         <v>439</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>440</v>
       </c>
       <c r="H131" t="s">
@@ -5894,7 +5903,7 @@
       <c r="C132" t="s">
         <v>442</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>443</v>
       </c>
       <c r="H132" t="s">
@@ -5911,14 +5920,14 @@
       <c r="C133" t="s">
         <v>446</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>446</v>
       </c>
       <c r="H133" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5928,7 +5937,7 @@
       <c r="C134" t="s">
         <v>448</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>449</v>
       </c>
       <c r="F134" t="s">
@@ -5948,14 +5957,14 @@
       <c r="C135" t="s">
         <v>452</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>453</v>
       </c>
       <c r="H135" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5965,7 +5974,7 @@
       <c r="C136" t="s">
         <v>455</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>456</v>
       </c>
       <c r="F136" t="s">
@@ -5975,7 +5984,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5985,7 +5994,7 @@
       <c r="C137" t="s">
         <v>458</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>459</v>
       </c>
       <c r="F137" t="s">
@@ -5995,7 +6004,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6005,7 +6014,7 @@
       <c r="C138" t="s">
         <v>462</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>463</v>
       </c>
       <c r="F138" t="s">
@@ -6015,7 +6024,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6025,7 +6034,7 @@
       <c r="C139" t="s">
         <v>466</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>467</v>
       </c>
       <c r="F139" t="s">
@@ -6045,7 +6054,7 @@
       <c r="C140" t="s">
         <v>470</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>471</v>
       </c>
       <c r="F140" t="s">
@@ -6055,7 +6064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6065,7 +6074,7 @@
       <c r="C141" t="s">
         <v>473</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>474</v>
       </c>
       <c r="F141" t="s">
@@ -6075,7 +6084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6085,7 +6094,7 @@
       <c r="C142" t="s">
         <v>476</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>477</v>
       </c>
       <c r="F142" t="s">
@@ -6095,7 +6104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6105,7 +6114,7 @@
       <c r="C143" t="s">
         <v>479</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>480</v>
       </c>
       <c r="F143" t="s">
@@ -6115,7 +6124,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6125,14 +6134,14 @@
       <c r="C144" t="s">
         <v>482</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>483</v>
       </c>
       <c r="H144" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6142,7 +6151,7 @@
       <c r="C145" t="s">
         <v>486</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>487</v>
       </c>
       <c r="F145" t="s">
@@ -6162,14 +6171,14 @@
       <c r="C146" t="s">
         <v>490</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>490</v>
       </c>
       <c r="H146" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6179,7 +6188,7 @@
       <c r="C147" t="s">
         <v>493</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>494</v>
       </c>
       <c r="F147" t="s">
@@ -6189,7 +6198,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6199,7 +6208,7 @@
       <c r="C148" t="s">
         <v>497</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>498</v>
       </c>
       <c r="F148" t="s">
@@ -6219,14 +6228,14 @@
       <c r="C149" t="s">
         <v>500</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>501</v>
       </c>
       <c r="H149" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6236,7 +6245,7 @@
       <c r="C150" t="s">
         <v>503</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>504</v>
       </c>
       <c r="H150" t="s">
@@ -6253,14 +6262,14 @@
       <c r="C151" t="s">
         <v>506</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>506</v>
       </c>
       <c r="H151" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6270,7 +6279,7 @@
       <c r="C152" t="s">
         <v>508</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="3" t="s">
         <v>509</v>
       </c>
       <c r="F152" t="s">
@@ -6280,7 +6289,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6290,7 +6299,7 @@
       <c r="C153" t="s">
         <v>512</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>513</v>
       </c>
       <c r="F153" t="s">
@@ -6300,7 +6309,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6310,7 +6319,7 @@
       <c r="C154" t="s">
         <v>516</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="3" t="s">
         <v>517</v>
       </c>
       <c r="F154" t="s">
@@ -6330,14 +6339,14 @@
       <c r="C155" t="s">
         <v>519</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>519</v>
       </c>
       <c r="H155" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6347,7 +6356,7 @@
       <c r="C156" t="s">
         <v>522</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="3" t="s">
         <v>523</v>
       </c>
       <c r="F156" t="s">
@@ -6357,7 +6366,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6367,7 +6376,7 @@
       <c r="C157" t="s">
         <v>526</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>527</v>
       </c>
       <c r="F157" t="s">
@@ -6377,7 +6386,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6387,7 +6396,7 @@
       <c r="C158" t="s">
         <v>530</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>531</v>
       </c>
       <c r="F158" t="s">
@@ -6407,14 +6416,14 @@
       <c r="C159" t="s">
         <v>533</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H159" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6424,7 +6433,7 @@
       <c r="C160" t="s">
         <v>535</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="3" t="s">
         <v>536</v>
       </c>
       <c r="F160" t="s">
@@ -6444,7 +6453,7 @@
       <c r="C161" t="s">
         <v>539</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>539</v>
       </c>
       <c r="H161" t="s">
@@ -6461,7 +6470,7 @@
       <c r="C162" t="s">
         <v>541</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="3" t="s">
         <v>542</v>
       </c>
       <c r="F162" t="s">
@@ -6481,14 +6490,14 @@
       <c r="C163" t="s">
         <v>544</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>545</v>
       </c>
       <c r="H163" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6498,7 +6507,7 @@
       <c r="C164" t="s">
         <v>547</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>548</v>
       </c>
       <c r="F164" t="s">
@@ -6508,7 +6517,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6518,7 +6527,7 @@
       <c r="C165" t="s">
         <v>551</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="3" t="s">
         <v>552</v>
       </c>
       <c r="F165" t="s">
@@ -6528,7 +6537,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" ht="262.3" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6538,7 +6547,7 @@
       <c r="C166" t="s">
         <v>554</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>555</v>
       </c>
       <c r="H166" t="s">
@@ -6555,14 +6564,14 @@
       <c r="C167" t="s">
         <v>558</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>559</v>
       </c>
       <c r="H167" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6572,14 +6581,14 @@
       <c r="C168" t="s">
         <v>561</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="3" t="s">
         <v>562</v>
       </c>
       <c r="H168" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" ht="320.60000000000002" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6589,7 +6598,7 @@
       <c r="C169" t="s">
         <v>564</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="3" t="s">
         <v>565</v>
       </c>
       <c r="F169" t="s">
@@ -6599,7 +6608,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8" ht="204" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6609,7 +6618,7 @@
       <c r="C170" t="s">
         <v>568</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="3" t="s">
         <v>569</v>
       </c>
       <c r="H170" t="s">
@@ -6626,14 +6635,14 @@
       <c r="C171" t="s">
         <v>571</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="3" t="s">
         <v>571</v>
       </c>
       <c r="H171" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6643,7 +6652,7 @@
       <c r="C172" t="s">
         <v>573</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="3" t="s">
         <v>574</v>
       </c>
       <c r="F172" t="s">
@@ -6653,7 +6662,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6663,7 +6672,7 @@
       <c r="C173" t="s">
         <v>576</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="3" t="s">
         <v>577</v>
       </c>
       <c r="F173" t="s">
@@ -6673,7 +6682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6683,7 +6692,7 @@
       <c r="C174" t="s">
         <v>579</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="3" t="s">
         <v>580</v>
       </c>
       <c r="F174" t="s">
@@ -6693,7 +6702,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6703,7 +6712,7 @@
       <c r="C175" t="s">
         <v>583</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>584</v>
       </c>
       <c r="F175" t="s">
@@ -6713,7 +6722,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:8" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6723,7 +6732,7 @@
       <c r="C176" t="s">
         <v>587</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>588</v>
       </c>
       <c r="F176" t="s">
@@ -6743,14 +6752,14 @@
       <c r="C177" t="s">
         <v>590</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="3" t="s">
         <v>591</v>
       </c>
       <c r="H177" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" ht="320.60000000000002" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6760,7 +6769,7 @@
       <c r="C178" t="s">
         <v>594</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>595</v>
       </c>
       <c r="F178" t="s">
@@ -6780,14 +6789,14 @@
       <c r="C179" t="s">
         <v>598</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>599</v>
       </c>
       <c r="H179" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6797,7 +6806,7 @@
       <c r="C180" t="s">
         <v>602</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="3" t="s">
         <v>603</v>
       </c>
       <c r="F180" t="s">
@@ -6817,7 +6826,7 @@
       <c r="C181" t="s">
         <v>605</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="3" t="s">
         <v>606</v>
       </c>
       <c r="H181" t="s">
@@ -6834,7 +6843,7 @@
       <c r="C182" t="s">
         <v>609</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>609</v>
       </c>
       <c r="H182" t="s">
@@ -6851,14 +6860,14 @@
       <c r="C183" t="s">
         <v>612</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>612</v>
       </c>
       <c r="H183" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" ht="393.45" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6868,7 +6877,7 @@
       <c r="C184" t="s">
         <v>614</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>615</v>
       </c>
       <c r="F184" t="s">
@@ -6878,7 +6887,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6888,14 +6897,14 @@
       <c r="C185" t="s">
         <v>617</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>618</v>
       </c>
       <c r="H185" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6905,7 +6914,7 @@
       <c r="C186" t="s">
         <v>620</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="3" t="s">
         <v>621</v>
       </c>
       <c r="F186" t="s">
@@ -6925,14 +6934,14 @@
       <c r="C187" t="s">
         <v>624</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>624</v>
       </c>
       <c r="H187" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6942,7 +6951,7 @@
       <c r="C188" t="s">
         <v>627</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="3" t="s">
         <v>628</v>
       </c>
       <c r="F188" t="s">
@@ -6952,7 +6961,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:8" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6962,7 +6971,7 @@
       <c r="C189" t="s">
         <v>631</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="3" t="s">
         <v>632</v>
       </c>
       <c r="H189" t="s">
@@ -6979,14 +6988,14 @@
       <c r="C190" t="s">
         <v>635</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>635</v>
       </c>
       <c r="H190" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6996,7 +7005,7 @@
       <c r="C191" t="s">
         <v>637</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="3" t="s">
         <v>638</v>
       </c>
       <c r="H191" t="s">
@@ -7013,14 +7022,14 @@
       <c r="C192" t="s">
         <v>641</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="3" t="s">
         <v>642</v>
       </c>
       <c r="H192" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7030,7 +7039,7 @@
       <c r="C193" t="s">
         <v>645</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="3" t="s">
         <v>646</v>
       </c>
       <c r="F193" t="s">
@@ -7050,14 +7059,14 @@
       <c r="C194" t="s">
         <v>649</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="3" t="s">
         <v>649</v>
       </c>
       <c r="H194" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:8" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -7067,7 +7076,7 @@
       <c r="C195" t="s">
         <v>652</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="3" t="s">
         <v>653</v>
       </c>
       <c r="H195" t="s">
@@ -7084,7 +7093,7 @@
       <c r="C196" t="s">
         <v>656</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="3" t="s">
         <v>657</v>
       </c>
       <c r="F196" t="s">
@@ -7094,7 +7103,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7104,14 +7113,14 @@
       <c r="C197" t="s">
         <v>659</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="3" t="s">
         <v>660</v>
       </c>
       <c r="H197" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:8" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7121,7 +7130,7 @@
       <c r="C198" t="s">
         <v>663</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="3" t="s">
         <v>664</v>
       </c>
       <c r="F198" t="s">
@@ -7131,7 +7140,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:8" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7141,7 +7150,7 @@
       <c r="C199" t="s">
         <v>667</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>668</v>
       </c>
       <c r="F199" t="s">
@@ -7161,7 +7170,7 @@
       <c r="C200" t="s">
         <v>671</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="3" t="s">
         <v>672</v>
       </c>
       <c r="H200" t="s">
@@ -7178,14 +7187,14 @@
       <c r="C201" t="s">
         <v>674</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="3" t="s">
         <v>675</v>
       </c>
       <c r="H201" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7195,7 +7204,7 @@
       <c r="C202" t="s">
         <v>677</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="3" t="s">
         <v>678</v>
       </c>
       <c r="F202" t="s">
@@ -7205,7 +7214,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7215,7 +7224,7 @@
       <c r="C203" t="s">
         <v>681</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="3" t="s">
         <v>682</v>
       </c>
       <c r="F203" t="s">
@@ -7225,7 +7234,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7235,7 +7244,7 @@
       <c r="C204" t="s">
         <v>685</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="3" t="s">
         <v>686</v>
       </c>
       <c r="F204" t="s">
@@ -7255,14 +7264,14 @@
       <c r="C205" t="s">
         <v>689</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="3" t="s">
         <v>689</v>
       </c>
       <c r="H205" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8" ht="408" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7272,7 +7281,7 @@
       <c r="C206" t="s">
         <v>691</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="3" t="s">
         <v>692</v>
       </c>
       <c r="F206" t="s">
@@ -7282,7 +7291,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7292,7 +7301,7 @@
       <c r="C207" t="s">
         <v>695</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="3" t="s">
         <v>696</v>
       </c>
       <c r="F207" t="s">
@@ -7302,7 +7311,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:8" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7312,7 +7321,7 @@
       <c r="C208" t="s">
         <v>698</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="3" t="s">
         <v>699</v>
       </c>
       <c r="F208" t="s">
@@ -7332,7 +7341,7 @@
       <c r="C209" t="s">
         <v>702</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="3" t="s">
         <v>702</v>
       </c>
       <c r="H209" t="s">
@@ -7349,7 +7358,7 @@
       <c r="C210" t="s">
         <v>704</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="3" t="s">
         <v>705</v>
       </c>
       <c r="F210" t="s">
@@ -7369,7 +7378,7 @@
       <c r="C211" t="s">
         <v>707</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="3" t="s">
         <v>707</v>
       </c>
       <c r="H211" t="s">
@@ -7386,14 +7395,14 @@
       <c r="C212" t="s">
         <v>710</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="3" t="s">
         <v>710</v>
       </c>
       <c r="H212" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:8" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7403,7 +7412,7 @@
       <c r="C213" t="s">
         <v>712</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="3" t="s">
         <v>713</v>
       </c>
       <c r="F213" t="s">
@@ -7423,14 +7432,14 @@
       <c r="C214" t="s">
         <v>715</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="3" t="s">
         <v>715</v>
       </c>
       <c r="H214" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:8" ht="262.3" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7440,7 +7449,7 @@
       <c r="C215" t="s">
         <v>717</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="3" t="s">
         <v>718</v>
       </c>
       <c r="H215" t="s">
@@ -7457,7 +7466,7 @@
       <c r="C216" t="s">
         <v>721</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="3" t="s">
         <v>721</v>
       </c>
       <c r="H216" t="s">
@@ -7474,14 +7483,14 @@
       <c r="C217" t="s">
         <v>724</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="3" t="s">
         <v>724</v>
       </c>
       <c r="H217" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:8" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7491,7 +7500,7 @@
       <c r="C218" t="s">
         <v>726</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="3" t="s">
         <v>727</v>
       </c>
       <c r="F218" t="s">
@@ -7511,7 +7520,7 @@
       <c r="C219" t="s">
         <v>729</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="3" t="s">
         <v>729</v>
       </c>
       <c r="H219" t="s">
@@ -7528,14 +7537,14 @@
       <c r="C220" t="s">
         <v>732</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="3" t="s">
         <v>733</v>
       </c>
       <c r="H220" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:8" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7545,7 +7554,7 @@
       <c r="C221" t="s">
         <v>736</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="3" t="s">
         <v>737</v>
       </c>
       <c r="F221" t="s">
@@ -7555,7 +7564,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:8" ht="204" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7565,7 +7574,7 @@
       <c r="C222" t="s">
         <v>739</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="3" t="s">
         <v>740</v>
       </c>
       <c r="F222" t="s">
@@ -7585,14 +7594,14 @@
       <c r="C223" t="s">
         <v>742</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="3" t="s">
         <v>742</v>
       </c>
       <c r="H223" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:8" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7602,7 +7611,7 @@
       <c r="C224" t="s">
         <v>745</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="3" t="s">
         <v>746</v>
       </c>
       <c r="F224" t="s">
@@ -7622,14 +7631,14 @@
       <c r="C225" t="s">
         <v>748</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="3" t="s">
         <v>748</v>
       </c>
       <c r="H225" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7639,7 +7648,7 @@
       <c r="C226" t="s">
         <v>751</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="3" t="s">
         <v>752</v>
       </c>
       <c r="H226" t="s">
@@ -7656,14 +7665,14 @@
       <c r="C227" t="s">
         <v>755</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="3" t="s">
         <v>755</v>
       </c>
       <c r="H227" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:8" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7673,14 +7682,14 @@
       <c r="C228" t="s">
         <v>758</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="3" t="s">
         <v>759</v>
       </c>
       <c r="H228" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7690,7 +7699,7 @@
       <c r="C229" t="s">
         <v>761</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="3" t="s">
         <v>762</v>
       </c>
       <c r="F229" t="s">
@@ -7710,14 +7719,14 @@
       <c r="C230" t="s">
         <v>764</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="3" t="s">
         <v>764</v>
       </c>
       <c r="H230" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:8" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7727,14 +7736,14 @@
       <c r="C231" t="s">
         <v>767</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="3" t="s">
         <v>768</v>
       </c>
       <c r="H231" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:8" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7744,7 +7753,7 @@
       <c r="C232" t="s">
         <v>771</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="3" t="s">
         <v>772</v>
       </c>
       <c r="H232" t="s">
@@ -7761,14 +7770,14 @@
       <c r="C233" t="s">
         <v>775</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="3" t="s">
         <v>775</v>
       </c>
       <c r="H233" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7778,7 +7787,7 @@
       <c r="C234" t="s">
         <v>778</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>779</v>
       </c>
       <c r="F234" t="s">
@@ -7788,7 +7797,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:8" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7798,7 +7807,7 @@
       <c r="C235" t="s">
         <v>782</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="3" t="s">
         <v>783</v>
       </c>
       <c r="F235" t="s">
@@ -7818,7 +7827,7 @@
       <c r="C236" t="s">
         <v>785</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="3" t="s">
         <v>785</v>
       </c>
       <c r="H236" t="s">
@@ -7835,7 +7844,7 @@
       <c r="C237" t="s">
         <v>787</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="3" t="s">
         <v>788</v>
       </c>
       <c r="H237" t="s">
@@ -7852,14 +7861,14 @@
       <c r="C238" t="s">
         <v>790</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="3" t="s">
         <v>790</v>
       </c>
       <c r="H238" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7869,7 +7878,7 @@
       <c r="C239" t="s">
         <v>792</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="3" t="s">
         <v>793</v>
       </c>
       <c r="H239" t="s">
@@ -7886,14 +7895,14 @@
       <c r="C240" t="s">
         <v>796</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="3" t="s">
         <v>796</v>
       </c>
       <c r="H240" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7903,7 +7912,7 @@
       <c r="C241" t="s">
         <v>799</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="3" t="s">
         <v>800</v>
       </c>
       <c r="F241" t="s">
@@ -7913,7 +7922,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -7923,7 +7932,7 @@
       <c r="C242" t="s">
         <v>803</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="3" t="s">
         <v>804</v>
       </c>
       <c r="F242" t="s">
@@ -7943,7 +7952,7 @@
       <c r="C243" t="s">
         <v>807</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="3" t="s">
         <v>807</v>
       </c>
       <c r="H243" t="s">
@@ -7960,14 +7969,14 @@
       <c r="C244" t="s">
         <v>810</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="3" t="s">
         <v>811</v>
       </c>
       <c r="H244" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -7977,14 +7986,14 @@
       <c r="C245" t="s">
         <v>813</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="3" t="s">
         <v>814</v>
       </c>
       <c r="H245" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7994,7 +8003,7 @@
       <c r="C246" t="s">
         <v>817</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="3" t="s">
         <v>818</v>
       </c>
       <c r="F246" t="s">
@@ -8004,7 +8013,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:8" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -8014,7 +8023,7 @@
       <c r="C247" t="s">
         <v>821</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="3" t="s">
         <v>822</v>
       </c>
       <c r="F247" t="s">
@@ -8034,7 +8043,7 @@
       <c r="C248" t="s">
         <v>824</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="3" t="s">
         <v>824</v>
       </c>
       <c r="H248" t="s">
@@ -8051,7 +8060,7 @@
       <c r="C249" t="s">
         <v>826</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="3" t="s">
         <v>826</v>
       </c>
       <c r="H249" t="s">
@@ -8068,7 +8077,7 @@
       <c r="C250" t="s">
         <v>828</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="3" t="s">
         <v>829</v>
       </c>
       <c r="H250" t="s">
@@ -8085,14 +8094,14 @@
       <c r="C251" t="s">
         <v>832</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="3" t="s">
         <v>833</v>
       </c>
       <c r="H251" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -8102,7 +8111,7 @@
       <c r="C252" t="s">
         <v>836</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="3" t="s">
         <v>837</v>
       </c>
       <c r="F252" t="s">
@@ -8112,7 +8121,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -8122,7 +8131,7 @@
       <c r="C253" t="s">
         <v>839</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="3" t="s">
         <v>840</v>
       </c>
       <c r="F253" t="s">
@@ -8132,7 +8141,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -8142,14 +8151,14 @@
       <c r="C254" t="s">
         <v>842</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="3" t="s">
         <v>843</v>
       </c>
       <c r="H254" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8159,7 +8168,7 @@
       <c r="C255" t="s">
         <v>845</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="3" t="s">
         <v>846</v>
       </c>
       <c r="F255" t="s">
@@ -8179,14 +8188,14 @@
       <c r="C256" t="s">
         <v>849</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="3" t="s">
         <v>849</v>
       </c>
       <c r="H256" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:8" ht="320.60000000000002" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -8196,7 +8205,7 @@
       <c r="C257" t="s">
         <v>851</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="3" t="s">
         <v>852</v>
       </c>
       <c r="H257" t="s">
@@ -8213,7 +8222,7 @@
       <c r="C258" t="s">
         <v>854</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="3" t="s">
         <v>855</v>
       </c>
       <c r="F258" t="s">
@@ -8233,14 +8242,14 @@
       <c r="C259" t="s">
         <v>857</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="3" t="s">
         <v>857</v>
       </c>
       <c r="H259" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8250,7 +8259,7 @@
       <c r="C260" t="s">
         <v>859</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="3" t="s">
         <v>860</v>
       </c>
       <c r="F260" t="s">
@@ -8270,14 +8279,14 @@
       <c r="C261" t="s">
         <v>862</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="3" t="s">
         <v>862</v>
       </c>
       <c r="H261" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:8" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8287,7 +8296,7 @@
       <c r="C262" t="s">
         <v>864</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="3" t="s">
         <v>865</v>
       </c>
       <c r="F262" t="s">
@@ -8297,7 +8306,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8307,14 +8316,14 @@
       <c r="C263" t="s">
         <v>867</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="3" t="s">
         <v>868</v>
       </c>
       <c r="H263" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8324,7 +8333,7 @@
       <c r="C264" t="s">
         <v>870</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="3" t="s">
         <v>871</v>
       </c>
       <c r="H264" t="s">
@@ -8341,7 +8350,7 @@
       <c r="C265" t="s">
         <v>874</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="3" t="s">
         <v>875</v>
       </c>
       <c r="F265" t="s">
@@ -8361,7 +8370,7 @@
       <c r="C266" t="s">
         <v>877</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="3" t="s">
         <v>877</v>
       </c>
       <c r="H266" t="s">
@@ -8378,14 +8387,14 @@
       <c r="C267" t="s">
         <v>880</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="3" t="s">
         <v>881</v>
       </c>
       <c r="H267" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -8395,7 +8404,7 @@
       <c r="C268" t="s">
         <v>883</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="3" t="s">
         <v>884</v>
       </c>
       <c r="F268" t="s">
@@ -8405,7 +8414,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:8" ht="204" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -8415,7 +8424,7 @@
       <c r="C269" t="s">
         <v>886</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="3" t="s">
         <v>887</v>
       </c>
       <c r="H269" t="s">
@@ -8432,7 +8441,7 @@
       <c r="C270" t="s">
         <v>889</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="3" t="s">
         <v>890</v>
       </c>
       <c r="H270" t="s">
@@ -8449,7 +8458,7 @@
       <c r="C271" t="s">
         <v>892</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="3" t="s">
         <v>892</v>
       </c>
       <c r="H271" t="s">
@@ -8466,7 +8475,7 @@
       <c r="C272" t="s">
         <v>894</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="3" t="s">
         <v>894</v>
       </c>
       <c r="H272" t="s">
@@ -8483,7 +8492,7 @@
       <c r="C273" t="s">
         <v>896</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="3" t="s">
         <v>897</v>
       </c>
       <c r="H273" t="s">
@@ -8500,7 +8509,7 @@
       <c r="C274" t="s">
         <v>899</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="3" t="s">
         <v>900</v>
       </c>
       <c r="F274" t="s">
@@ -8510,7 +8519,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -8520,7 +8529,7 @@
       <c r="C275" t="s">
         <v>902</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="3" t="s">
         <v>903</v>
       </c>
       <c r="F275" t="s">
@@ -8540,14 +8549,14 @@
       <c r="C276" t="s">
         <v>905</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="3" t="s">
         <v>905</v>
       </c>
       <c r="H276" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:8" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -8557,7 +8566,7 @@
       <c r="C277" t="s">
         <v>907</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="3" t="s">
         <v>908</v>
       </c>
       <c r="H277" t="s">
@@ -8574,7 +8583,7 @@
       <c r="C278" t="s">
         <v>910</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="3" t="s">
         <v>910</v>
       </c>
       <c r="H278" t="s">
@@ -8591,14 +8600,14 @@
       <c r="C279" t="s">
         <v>912</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="3" t="s">
         <v>913</v>
       </c>
       <c r="H279" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -8608,7 +8617,7 @@
       <c r="C280" t="s">
         <v>915</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="3" t="s">
         <v>916</v>
       </c>
       <c r="H280" t="s">
@@ -8625,14 +8634,14 @@
       <c r="C281" t="s">
         <v>919</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="3" t="s">
         <v>919</v>
       </c>
       <c r="H281" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -8642,14 +8651,14 @@
       <c r="C282" t="s">
         <v>922</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="3" t="s">
         <v>923</v>
       </c>
       <c r="H282" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:8" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -8659,7 +8668,7 @@
       <c r="C283" t="s">
         <v>925</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="3" t="s">
         <v>926</v>
       </c>
       <c r="F283" t="s">
@@ -8679,14 +8688,14 @@
       <c r="C284" t="s">
         <v>928</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="3" t="s">
         <v>928</v>
       </c>
       <c r="H284" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -8696,7 +8705,7 @@
       <c r="C285" t="s">
         <v>931</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="3" t="s">
         <v>932</v>
       </c>
       <c r="F285" t="s">
@@ -8716,7 +8725,7 @@
       <c r="C286" t="s">
         <v>934</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="3" t="s">
         <v>935</v>
       </c>
       <c r="F286" t="s">
@@ -8736,14 +8745,14 @@
       <c r="C287" t="s">
         <v>937</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="3" t="s">
         <v>937</v>
       </c>
       <c r="H287" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -8753,7 +8762,7 @@
       <c r="C288" t="s">
         <v>939</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="3" t="s">
         <v>940</v>
       </c>
       <c r="F288" t="s">
@@ -8773,7 +8782,7 @@
       <c r="C289" t="s">
         <v>942</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="3" t="s">
         <v>943</v>
       </c>
       <c r="H289" t="s">
@@ -8790,14 +8799,14 @@
       <c r="C290" t="s">
         <v>945</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="3" t="s">
         <v>945</v>
       </c>
       <c r="H290" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:8" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -8807,7 +8816,7 @@
       <c r="C291" t="s">
         <v>948</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="3" t="s">
         <v>949</v>
       </c>
       <c r="F291" t="s">
@@ -8827,7 +8836,7 @@
       <c r="C292" t="s">
         <v>951</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="3" t="s">
         <v>952</v>
       </c>
       <c r="H292" t="s">
@@ -8844,14 +8853,14 @@
       <c r="C293" t="s">
         <v>954</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="3" t="s">
         <v>954</v>
       </c>
       <c r="H293" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:8" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -8861,7 +8870,7 @@
       <c r="C294" t="s">
         <v>956</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="3" t="s">
         <v>957</v>
       </c>
       <c r="H294" t="s">
@@ -8878,7 +8887,7 @@
       <c r="C295" t="s">
         <v>960</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="3" t="s">
         <v>960</v>
       </c>
       <c r="H295" t="s">
@@ -8895,14 +8904,14 @@
       <c r="C296" t="s">
         <v>962</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="3" t="s">
         <v>963</v>
       </c>
       <c r="H296" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:8" ht="408" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -8912,7 +8921,7 @@
       <c r="C297" t="s">
         <v>965</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="3" t="s">
         <v>966</v>
       </c>
       <c r="F297" t="s">
@@ -8922,7 +8931,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -8932,14 +8941,14 @@
       <c r="C298" t="s">
         <v>969</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="3" t="s">
         <v>970</v>
       </c>
       <c r="H298" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -8949,7 +8958,7 @@
       <c r="C299" t="s">
         <v>973</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="3" t="s">
         <v>974</v>
       </c>
       <c r="H299" t="s">
@@ -8966,7 +8975,7 @@
       <c r="C300" t="s">
         <v>977</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="3" t="s">
         <v>978</v>
       </c>
       <c r="H300" t="s">
@@ -8983,7 +8992,7 @@
       <c r="C301" t="s">
         <v>981</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="3" t="s">
         <v>981</v>
       </c>
       <c r="H301" t="s">
@@ -9000,7 +9009,7 @@
       <c r="C302" t="s">
         <v>983</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="3" t="s">
         <v>983</v>
       </c>
       <c r="H302" t="s">
@@ -9017,14 +9026,14 @@
       <c r="C303" t="s">
         <v>986</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="3" t="s">
         <v>986</v>
       </c>
       <c r="H303" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -9034,14 +9043,14 @@
       <c r="C304" t="s">
         <v>989</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="3" t="s">
         <v>990</v>
       </c>
       <c r="H304" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:8" ht="204" x14ac:dyDescent="0.4">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -9051,7 +9060,7 @@
       <c r="C305" t="s">
         <v>992</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="3" t="s">
         <v>993</v>
       </c>
       <c r="F305" t="s">
@@ -9061,7 +9070,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:8" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -9071,7 +9080,7 @@
       <c r="C306" t="s">
         <v>995</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="3" t="s">
         <v>996</v>
       </c>
       <c r="H306" t="s">
@@ -9088,14 +9097,14 @@
       <c r="C307" t="s">
         <v>998</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="3" t="s">
         <v>998</v>
       </c>
       <c r="H307" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:8" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -9105,14 +9114,14 @@
       <c r="C308" t="s">
         <v>1000</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="3" t="s">
         <v>1001</v>
       </c>
       <c r="H308" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -9122,7 +9131,7 @@
       <c r="C309" t="s">
         <v>1003</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="3" t="s">
         <v>1004</v>
       </c>
       <c r="F309" t="s">
@@ -9132,7 +9141,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -9142,7 +9151,7 @@
       <c r="C310" t="s">
         <v>1007</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="3" t="s">
         <v>1008</v>
       </c>
       <c r="F310" t="s">
@@ -9152,7 +9161,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -9162,7 +9171,7 @@
       <c r="C311" t="s">
         <v>1011</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="F311" t="s">
@@ -9182,7 +9191,7 @@
       <c r="C312" t="s">
         <v>1014</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="F312" t="s">
@@ -9192,7 +9201,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -9202,14 +9211,14 @@
       <c r="C313" t="s">
         <v>1018</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="3" t="s">
         <v>1019</v>
       </c>
       <c r="H313" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:8" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -9219,7 +9228,7 @@
       <c r="C314" t="s">
         <v>1021</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="3" t="s">
         <v>1022</v>
       </c>
       <c r="F314" t="s">
@@ -9229,7 +9238,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -9239,7 +9248,7 @@
       <c r="C315" t="s">
         <v>1025</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="3" t="s">
         <v>1026</v>
       </c>
     </row>

--- a/geography/basins_searchterms_tracking.xlsx
+++ b/geography/basins_searchterms_tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shared Waters Lab\geography\geography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45CECC-6ED4-4E82-978C-735B94F78FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552930C-3A5A-4090-BC51-178CDF2E94F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="17" windowWidth="12043" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1113">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Alakol</t>
   </si>
   <si>
-    <t>Alakol OR Emil OR Tentek OR Kökterek OR "Emenhe Emil Wozani" OR Tastaу OR Egin-su OR Urjar OR "r. Ay" OR "Kala Yemule He" OR "Kara buta" OR imin OR Eminhe OR Bogubay OR "r. Kusak" OR Yrgayty OR "r. Karasu" OR Wulashaitaihe OR Kusak OR "Kyzyl Tenteq" OR "Tasi He" OR "Tieleketi He" OR Kyzyltal OR Sarymsakty OR "Chahantuo Gai He" OR Jiegelhe OR Ezynbulak</t>
-  </si>
-  <si>
     <t>China OR Kazakhstan</t>
   </si>
   <si>
@@ -718,9 +715,6 @@
     <t>Danube</t>
   </si>
   <si>
-    <t>Danube OR Dunărea OR Dunaj OR Prut OR Sava OR Donau OR Dunav OR Olt OR Siret OR Duna OR Tisza OR Mureș OR Drava OR Inn OR Drina OR Ialomița OR Iskъr OR Hron OR Kupa OR Isar OR Váh OR Jiu OR Enns OR Timiș OR Una OR Bistrița OR Ipeľ OR Dráva OR Bosna OR Someș OR Salzach OR "Juzhna Morava" OR Mur OR "Velika Morava" OR Rába OR Vrbas OR Kolpa OR Argeș OR "Zapadna Morava" OR Morava OR Tisa OR "Crișul Alb" OR Drau OR Lech OR Ipoly OR Moldova OR Mura OR Vit OR "Râul Vedea" OR Zala OR Osym OR Lim OR Gail OR "Râul Trotuș" OR Ibar OR Ogosta OR Hornád OR "Deutsche Thaya" OR Altmühl OR Krka OR Regen OR Nera OR Mlava OR Pek OR Timok OR Ybbs OR Dyje OR Sió OR "Chornyy Cheremosh" OR Iller OR Jijia OR Zagyva OR Hármas-Körös OR Kamp OR Naab OR Suceava OR "r. Yantra" OR Schwarzach OR Gurk OR Prahova OR "Brațul Măcin" OR Pielach OR "r. Tibriza" OR Vils OR Rositsa OR Nitra OR Möll OR Salza OR Amper OR Dâmbovița OR Česma OR Cerna OR Ciuhur OR Tamish OR "Râul Mureș" OR Buzău OR "Someșul Mic" OR Vuka OR Rott OR Raab OR Amaradia OR Feistritz OR Waldnaab OR DANU-Krems-1 OR Orava OR Skut OR Crasna OR Vaserul OR Traun OR Cahul OR Caraș OR Yantra OR Lavant OR Kapos OR Cheremosh OR Ammer OR Borzhava OR Hernád OR Wörnitz OR "Râul Gilort" OR "Râul Bârlad" OR Șușița OR "Morava e Binçës" OR "Brațul Borcea" OR "Bistrița Aurie" OR "Râul Buzău" OR Rasina OR Moravitsa OR Olteț OR Lăpuș OR "Jiul de Vest" OR "Râul Jiu" OR Calmațui OR "Beli Lom" OR "Svrlijinski Timok" OR Szamos OR Bega OR Sutla OR Visceu OR "Beli Timok" OR "Kiliyske girolo" OR Bistra OR Sotla OR Paar OR Lafnitz OR Motru OR "Maliki Iskъr" OR "Râul Desnățui" OR "Sava Bohinjka" OR Orljava OR Kis OR Kysuca OR "Brațul Sfântu Gheorghe" OR Isen OR "Crni Timok" OR "Sava Dolinka" OR Vidima OR Brenz OR "Große Mühl" OR Tara OR Putna OR Riß OR Hârtibaciu OR "Dunav - Dunărea" OR Maros OR Almaș OR Mosoni OR Bahlui OR Lotru OR Schwarza OR Dravinja OR Jihlava OR "Schwarze Laber" OR Neajlov OR Bârlad OR "Bilyy ChereMosch" OR "Schwarzer Regen" OR Slatina OR Kolubara OR "Bâsca Mare" OR Turiec OR Lom OR "r. Rositsa" OR Unac OR "Biela Orava" OR "Râmnicu Sărat" OR Lauchert OR Savinja OR Isel OR "Großer Regen" OR Tinja OR Körös OR Loisach OR "Someșul Cald" OR Kettős OR Ukrina OR Haidenaab OR Trisanna OR Ziller OR Vučica OR Kettős-Körös OR "Râul Negru" OR "Râul Doamnei" OR Krapina OR Triesting OR Mangfall OR Alm OR Wertach OR Llap OR Erlau OR Bednja OR Steyr OR Waldaist OR Ráckevei OR "Poljanska Sora" OR Soroksári OR Botunya OR Abens OR Studeniца OR Dunay OR DraKulya OR Topolog OR "Râul Tismana" OR "Râul Bahna" OR Topolnița OR Ranna OR Pitze OR Glina OR Alz OR Drincea OR Breg OR Bodrog OR Zusam OR Ialpug OR "Râul Cotmeana" OR "Râul Târgului" OR "Velika Ukrina" OR "Ötztaler Ache" OR "Čierny Váh" OR Vilskanal OR Yasenica OR "Tiroler Achen" OR Zăbala OR Bașeu OR Varínka OR Jegrichka OR Meža OR "Kislytskyi rukav" OR Sitnicë OR Sunja OR "Malyy Syret" OR Ilm OR Ablach OR Ach OR Ostrach OR Pram OR "Râul Ialpugel" OR Eger OR Pinka OR Rißbach OR Erlauf OR Mirna OR "Große Lauter" OR Pesnica OR Pfreimd OR "Veliki Strug" OR Gruzha OR Mraconia OR Kokra OR "Kraszna folyó" OR Dulenka OR Cehotina OR Bălăsan OR "Râul Călmățui" OR "Rusenski Lom" OR Sovitsya OR Chamb OR Shashka OR "Paraul Blahnița" OR Suchava OR Putilka OR "Râul Teleorman" OR Revúca OR Szentendrei OR Resava OR Poganiș OR "Trgovischi Timok" OR Zamna OR Bârsa OR Sărata OR "Beli Vit" OR "Große Vils" OR "Beli Osym" OR Mostiștea OR Kirgiz-Kyrgyz</t>
-  </si>
-  <si>
     <t>Albania OR Austria OR "Bosnia and Herzegovina" OR Bulgaria OR Croatia OR "Czech Republic" OR Germany OR Hungary OR Italy OR Moldova OR "Republic of" OR Montenegro OR Poland OR "Republic of North Macedonia" OR Romania OR Serbia OR Slovakia OR Slovenia OR Switzerland OR Ukraine</t>
   </si>
   <si>
@@ -766,9 +760,6 @@
     <t>Dniester</t>
   </si>
   <si>
-    <t>Dniester OR Dnister OR Dnestr-1 OR Răut OR Seryet OR Kuchurgan OR Zburch OR "Dnister - Nistru" OR Smotrich OR Stripa OR Striy OR Cubolta OR "Zolota Lipa" OR Bîc OR Svycha OR Ushitsya OR Murafa OR "Gnila Lipa" OR "Bistri tsia Nadvirnyanska" OR Zhvanchik OR Strivihor OR Nychlava OR Markivka OR Botna OR Trostyanez OR Lymnytsia OR Căinari OR Svirzh OR Nemiyia OR "Dnister Nistru" OR Djurin OR Gnyzna OR Koropets OR "Bistrytsia Solotvinska" OR "Gnyzna Gnila" OR Okna OR Turunchuk OR Opir OR Rusava OR Studenietsia OR Nistru OR Nychlavka OR Ternava OR "Bistrytsia Tysmenytska" OR Zavadka OR Rybnitsa OR Yagorlik OR Lyadova OR Shirka OR Muksha OR Murashka OR Visushka OR Lozova OR Tis'menitsia OR Yalanka OR Cuciurgan OR Grabarka OR Tamashlyk OR "Râul Botnișoara" OR Soloneț OR Chernaya OR Derlo OR Batig OR lug OR "Skhidna Zolota Lipa" OR Vereshchitsya OR Larga OR Ciorna OR Iagorlâc OR "Velika Soska" OR Baris'ka OR "Râul Botna" OR Yablunka OR Sukel OR "Seryet Livi" OR Samets OR "Studennyi Potik" OR Rožanka OR Tayna OR Stavchanka OR Slavka OR "Sukhiy Yagorlik" OR Kanay OR "Ciulucul Mic" OR Kalyus OR Tsiganka OR Tupa OR Zhvan OR Ichel OR Nesterivka OR Golovchanka OR Tyuha OR Matyorka OR Lukva OR Gnil'yak OR Nekrasiv OR Sivka OR Strimba OR Pereyma OR Gnila OR Vovcha OR Oryava OR Sobol OR "Skhidna Strypa" OR Sursha OR "Velikiy Kanay" OR Skvila OR Platonivska OR V'yatina OR Surzha OR Letavka OR Naraivka OR "Bistri tsia" OR Chechva OR Ushetchka OR Yaromirka OR Cușmirca OR Mizunka OR Kurudorova OR "Staroy Dnestr-1" OR Tlumach OR Grebelyka OR Karaets OR Khusne OR Somova OR Eligacea OR Zelenogaychik OR Zubra OR "Ciulucul de Mijloc" OR Starytsia OR Yavorivka OR Kizya OR Dovzhanka OR Topilnychanka OR Yamhoriv OR Sigla OR "Nistru Dnister" OR Ramenetsi OR Berezhnytsia OR Vesela OR Malorosha OR Masyuvka OR Vorona OR Łodyna OR Ribnik OR Ișnovăț OR Solonitsia OR Yasenichanka OR "Nistrul Vechi" OR Sara-Lunga OR Musiyenko OR Butivlya OR Bila OR Oryavchik OR "Sereť Pravij" OR Kam'yanka OR Dubaya OR "Ciulucul Mare" OR Stinavka OR Tura OR Ushuka OR Struga OR Dustriuv OR Kamenka OR Bolokhivka OR Zolotaya OR Cula OR "balka Komarova" OR Biloch OR Davidiwka OR Kolodnitsia OR Bolozivka OR Boberkka OR Chortovets OR Suchodilka OR Oknitsa OR Bibelka OR Malina OR "Velika Rychka" OR Brushitsia OR Lužanka OR Vilkhovets OR Balțata OR Potik OR Tseneivka OR Tudinka OR Moloda OR Rudka OR Recateu OR Lukvitsia OR Kuz'minets OR Draghinici OR Primoshchanka OR Odaya OR Batizhok OR Lyutinka OR Bratkovets OR Bovenets OR Luča OR Yermivka OR Oliniek OR Yaloviy OR Zelenttsia OR Glibochok OR Smochenka OR Ruda OR Sadzawa OR Sopit OR Vilshanka OR Zhupanka OR Samka OR Viknina OR Krinitsia OR "Rybnik Zubrytsia" OR Tlumachik OR Gorokholina OR Gorozhanka OR "Rybnik Maidanskyi" OR Kotlubayivka OR Voronkovo OR Vorocea OR Pogiblytsya OR Urychanka OR Bitkivchik OR Letnyanka OR Lemits OR Bukhotvets OR BakhTinka OR "Mala Stripa" OR Khotimirkka OR "Potyk Mlynskyi" OR "Valea Merenilor" OR Rybnitsia OR Voronitsia OR Lavochanka OR Svetlyy OR "Dolina Zharnivska" OR Shебутинчанка OR Churak OR Sadjavka OR Krekhivka OR "Bezimennyy strumok" OR Zhižava OR Ohaba OR Pavlivka OR Travniy OR Mukha OR Berešť OR Krivennyi OR Sadjava OR Calantir OR Sianskyi OR Shavina OR Nishla OR Dzvinyachka OR Kozushin OR Libokhora OR Vishen'ka OR Rakivtsi OR Olchy OR Gyrlo OR Lukovets OR "Valea Sireților" OR Sokiriani OR Menchilka OR Turava OR Stroentsy OR Parinka OR "Pikun Seredniy" OR Glyboki</t>
-  </si>
-  <si>
     <t>Moldova OR "Republic of" OR Poland OR Ukraine</t>
   </si>
   <si>
@@ -811,9 +802,6 @@
     <t>Drin</t>
   </si>
   <si>
-    <t>Drin OR "Drini i Bardhë" OR Morača OR "Drini i Zi" OR "Crn Drim" OR Drini OR Radika OR Buna OR Zeta OR Valbonë OR Ereniku OR Cijevna OR "Lumbardhi i Pejës" OR Kir OR Sateska OR "Lumi i Shalës" OR Klinë OR "e Caies" OR "Përroi Gominës" OR Mirushë OR "Lumi Currajve" OR Comsiqes OR "Lumi i Thethit" OR "Lumi i Cemit" OR DRIN-Burim-1 OR Adzina OR "Lumbardhi i Deçanit" OR "Lumi i Gomsiqes" OR Koselska OR "Përroi Stupës" OR Sitnica OR "Lumi i Pejës" OR Mrtvica OR Toplluhë OR "Përroi Vilës" OR "Përroi Palajt" OR "Përroi Vogël" OR Seta OR "Përroi Spaçit" OR Mavrovtsa OR Mokresh OR "Drini i bardhë" OR Dushit OR Ribnica OR Klina OR Ratinja OR "Lumi i Tropojës" OR Tresonecka OR "Përroi Bugjonit" OR Karatuna OR "Mrkovska rijeka" OR "Lumi e Currajve" OR Krivaya OR "Lumi Mirushë" OR Vapilnitsa OR Šegrtnica OR "Lumi Kuqit" OR Daljan OR Garska OR Krena OR Vevchanska OR Mala OR "Međurečka rijeka" OR "Mala rijeka" OR "Përroi i Mërturit" OR Gjadri OR Veleshicë OR "Përroi Rrjollit" OR Cherava OR "Crn Kamen" OR Gostiljska OR Sjevernica OR "Përroi Molla e Lurës" OR "Midanska rijeka - Shau i Kalimanit" OR DRIN-Bec-2 OR Mareza OR "Rekë e Allagës" OR Sherup OR Kozhnjer OR "Përroi Papit" OR "Përroi Thellosë" OR "Përroi i Plavës" OR "Përroi Pellshit" OR "Përroi Prangullit" OR Prisovjanska OR Shstitovitsa OR Duhllo OR "Bogutovački potok" OR Milishevc OR "Përroi Çaperkosave" OR "Përroi Gurit" OR "Savin potok" OR "Proni i Škodres" OR "Përroi Milloshit" OR "Përroi Mizës" OR "Përroi Bicës" OR Restelicë OR "Përroi i thatë" OR "Përroi Krajës" OR "Pećka Bistrica" OR "Përroi Motinës" OR Krotaja OR "Përroi Troshanit" OR Tayirovskaya OR "Përroi Shehu i Shllinave" OR Hoçë OR "Kanioni i Fluturave" OR Dlабoka OR "Përroi Shtodrit" OR "Përroi Thatë" OR "Lumi Rimnik" OR "Përroi Mullinjëve" OR "Potok Murići" OR "Përroi Palan" OR "Lumi i Sopijës" OR Žlijeb OR "Përroi Zi" OR "Përroi Vozinianti" OR Valavicharska OR "Koritski potok" OR "Përroi Shajmaqes" OR Shpatarets OR "Bratkovički potok" OR Slatina OR "Përroi i Vrakës" OR "Përroi Lugu i Shkymë" OR "Përroi Cam Dedaj" OR "Përroi Çudit" OR "Përroi Grazhdës" OR "Përroi Çeremit" OR "Përroi Madh" OR "Përroi i Reskut" OR Deshtica OR "Kanali i Madh" OR "Kanali i Hidrovorit" OR "Kanali i Drinit" OR Vadites OR "Kanali i i Murtemës" OR "Kanali i Shtodrit" OR "Kanali i Jubanit" OR Spathar OR "Kullues ose Vaditës"</t>
-  </si>
-  <si>
     <t>Albania OR Montenegro OR "Republic of North Macedonia" OR Serbia</t>
   </si>
   <si>
@@ -1006,9 +994,6 @@
     <t>Ganges-Brahmaputra-Meghna</t>
   </si>
   <si>
-    <t>Brahmaputra OR Ganges OR Meghna OR "Yarlung Zangbo" OR Yamuna OR Ganga OR Barak OR Teesta OR Chambal OR Lohit OR "kushirara nadi" OR Diyung OR Son OR Disang OR Betwa OR "Surma Nadi" OR Kopili OR Subansiri OR Dhansiri OR "Burhi Dihing" OR Sike OR "Lhasa River" OR Tlawng OR Kameng OR Karnali OR Ajay OR Jaldhaka OR "Ni Yang Qu" OR Pengqu OR "Padma Nadhi" OR Tirap OR Sindh OR Bhagirathi OR Tons OR "yidong zangbu" OR Sangqu OR "nyang chu" OR "Noa Dihing" OR Ichamati OR "Burhi Gandak" OR "Duoxiong Zhangbu" OR "mDog dgzung btsang po" OR Doyang OR Ghaghara OR "Kopotaksha Nad" OR Jalangi OR "Xiba Xiaqu" OR "boroli nado" OR "DIKHOW NODI" OR "Kali Gandaki" OR Tzula-Dikhu OR Irang OR "Gongri Gabu Qu" OR "Parlung Zangbu" OR Kurung OR Atrai OR "Yamuna Nadhi" OR Umiam OR "Puna Tsang Chhu" OR Siyom OR Yamne OR Gomti OR Xiangqu OR Hooghly OR Lilongpuqu OR Melak-Jhanji OR Panyor OR "Kālīgaṇḍakī Nadi" OR "Arun Nadi" OR Ken OR Dibang OR "Meghna Nadi" OR Sharda OR Khowai OR Mahananda OR Barāk OR Laiwucangbu OR "nying chu nian chu he" OR Tuivai OR Jiri OR "Kortoya Nadi" OR "Yang Sang Chu" OR "Luozha Xiongqu" OR Siang OR Dri OR Simen OR "Nagar Nadī" OR Makru OR Sirapatang OR Champamati OR "Xia Bu Qu" OR "Bai Qu" OR Karatoya OR "Badal Nadhi" OR Kaliaghai OR "Drangme Chhu" OR "Jin zhu qu" OR STR7 OR "Par Nadi" OR "Dangqie Zangbu" OR Maquanhe OR "Lachen Chu" OR Tiding OR "Yargyap Chu" OR "een mogool" OR "rtakchok gtsang po" OR mathabhanga OR Gandak OR Tuirial OR Manu OR Laqu OR Damodar OR "Canyu He" OR Burai OR "Naxiong Zhangbu" OR Sankosh OR "ghaghat nadi" OR bumchu OR Narayani OR Puthro OR Alaknanda OR Tellu OR "Koay-Madhumati Nadhi" OR "Miling He" OR "Mei Qu Zhang Bu" OR Madhumati OR "Chai Qu" OR Hindon OR "Dakatira Nadi" OR Bewas OR Bhola OR Jamuna OR Zayü OR Kaliyani OR Tissa OR "Um Khen" OR STR1 OR Pakke OR Pachuk OR Pabbar OR "Sesa Nadi" OR Jatinga OR Papu OR Namphuk OR Koshi OR Sissari OR Mohana OR Niyikgong OR Sidana OR Pagladia OR "Jiangqu Zangbu" OR Bhairabi OR Punpun OR Bhairab OR "Jamunasheri Nadhi" OR Angong OR "Ngera Ama Chu" OR "Rongju Zangbu" OR "Ci Ba Gou" OR Rind OR Mayurakshi OR Siu OR Sengur OR "Kuri Chu" OR Jhanji-Melak OR Bansloi OR STR6 OR Ximōji OR "Bangali Nadi" OR L7 OR "Di Chu" OR "gangri dakarpo chu" OR Tzurang-Bhogdoi OR Noboganga OR L1 OR Bichom OR Tamsa OR "Xue Rong Zang Bu" OR Maidizangbu OR Simaaang OR "Safrai Nadi" OR "Amo Chu" OR Mahakali OR Jaiati OR Igo OR Sonar OR Giri OR Puthimari OR Beki OR "Dimau Nadi" OR "Nimu Maqu" OR "bruṅ la chu" OR Nagri OR "Bhairab Nad" OR "Zhu La Qu" OR "Jue Mu Qu" OR Umtru OR Daigurung OR Gangadhar OR "Hali (Lohit)" OR Longai OR Chandan OR "Mozhu Maqu" OR xiudaqu OR Khari OR Baghain OR Digaru OR Lubha OR "Brahmaputra Nadī" OR "Jia Bo Qu" OR Buqu OR Kubiqu OR Diphlu OR Gouranga OR Bargang OR Torsa OR "Gumāni Nadi" OR "Zang Chu headwater" OR "Rampa Chhongpo" OR Siring OR Arpong OR "Diroi Nadi" OR "Dui Long Qu" OR "Majiā Zangbu" OR "Dhauli Ganga" OR Mao OR Rangit OR "Jema Yungtsang" OR "Karwan Nadi" OR Dikari OR "Dui Pu Qu" OR Saye OR Siku OR Kajap OR Kamla OR Aai OR Dav OR Sonāi OR "Sangu Lok" OR Baralia OR Kulsi OR "Padma Nadi" OR "Cheng Xiong Qu" OR "LinZhi BaNongQu" OR Kundil OR "Mai Khola" OR Dikrong OR Digo OR "Yanlang Zangbu" OR "Badrabati Nadhi" OR "Da Chu" OR Mahur OR Atari OR Lali OR Khulsi OR "Yobung Korong" OR Khaiara OR Lugonghe OR STM61 OR Bhogdoi OR Luohuo OR duoqu OR Kurik OR Sumhāk OR Sibar OR "Gabharu Nadi" OR Tuni OR Delei OR "Chumo Chu"</t>
-  </si>
-  <si>
     <t>"Arunachal Pradesh" OR Bangladesh OR Bhutan OR China OR China/India OR India OR Myanmar OR Nepal</t>
   </si>
   <si>
@@ -1279,9 +1264,6 @@
     <t>Irrawaddy</t>
   </si>
   <si>
-    <t>Irrawaddy OR "kyin gyin tawn mway" OR tharaylimyin OR mabumyit OR "N'Mai Hka" OR Longchuanjiang OR mwaythi OR "Mali Hka" OR Ayeyarwady OR hlaingyay OR nay OR "Ta Rung Hka" OR "Tai Ping Jiang" OR Manipur OR "Mingtanyi Byin" OR c5 OR Nanwanhe OR lajabdaingyin OR Tizu OR taphayinmri OR "Log Lai Hka" OR Dulongjiang OR yawaingyi OR "Chaung Ma Gyi Chaung" OR ဧရာဝတီမြစ် OR Mu OR thandawaddytharyatkyin OR moychaingyi OR mumyit OR "Kelonglong He" OR "Ruili Jiang" OR thamnyu OR "Nam Hkai" OR "Mo Le" OR ST5 OR shakinyayang OR "Nam Tamai" OR Yu OR Mon OR "Nam Taik" OR "khakaborazi national park" OR "Nam Yak" OR "hlaingyi nayik" OR "khakabo razi" OR "N'mai tributary" OR thaybyan OR "Ta Zu Wang" OR Mone OR Iril OR lincyin OR "Dulongjiang Zhiliu" OR Ridonghe OR nammyitkyaung OR "Sak Se Hka" OR "Nantaleik Chaung" OR Namtu OR "Sin Kan Chaung" OR "Ta Ron Hka" OR "Nam Yao" OR "pyadu kyi tawng" OR "Hpaungma Hka" OR "Wandeng He" OR "naypya naypya" OR manyayang OR "Naymyetha Myitkyina" OR "Dulong Jiangnanzhi" OR "Nam Hkao" OR Ponn OR "Nam Tu" OR "Ji Tai He" OR "Tisawang Yü" OR c7 OR mamnway OR "thariky dawngyi" OR "Namkawng Chaung" OR c02 OR "Ge Du Hka" OR "Chi Pwi Hka" OR tanaing OR dawdawngyun OR lamaybawgyein OR "Xisha He" OR "Nan Ton Tun" OR "Nam Panga" OR "Nam Paw" OR "Tai Yong Yu" OR besa OR Mabilo OR "Ye Wa Chaung" OR "Chaung Magyi" OR "Tsiwang Yü" OR "Tanai Hka" OR "Ahk Yang Ti" OR "Bu Yo Chaung" OR "Sa Nip Hka" OR c01 OR ST12 OR hlaingwetlantayin OR "Nan Pa Chaung" OR "Takyem Hka" OR ST15 OR "Taga Hka" OR a1 OR "kyaungpya kyaungpya" OR "Nan Maw Chaung" OR "Pa Yan Pa Ga" OR kyinmatakyin OR sahpyitkyaung OR Taret OR Kelaoluoh OR ranpyitkyin OR "Nam Hsi Haw Chaung" OR lannwanybawdawngy OR river OR "Nam Pan Se Chaung" OR "Gok Twin Chaung" OR "NamYaung Hka" OR phanyayay OR Kyingkhran OR mamaybawgyin OR "Nan Ma Chaung" OR "Kelonglong He Zhi Liu" OR "Mwe Chaung" OR "Ngaw Chaing Hka" OR thaynba OR "Naga Chaung" OR sawbawgyi OR sintlawbawdawngy OR "Paung Aw Chaung" OR "In Baung Chaung" OR "Kauk Kwe Chaung" OR kula OR "Pya Malaw" OR "Mo Sit Chaung" OR Nampaung OR "myni bawngyin" OR "Khuileng Dung" OR "Yinn Chaung" OR "Tuisa Dung" OR Imphal OR "phannkayn mway" OR inhtdaungyin OR mandawngyin OR Nandaihe OR "Nawng Yang Hka" OR daungnaydawngyin OR a5 OR Lokchao OR Nat OR namsaklaybawngyin OR thitkayin OR Mujuequ OR "Ka Byo Chaung" OR "Yin Ye Chaung" OR "Sa Lak Hka" OR "In Ge Ni Chaung" OR "Jia Ruò" OR tharyayay OR kyaungyin OR "Mei Xue" OR "Kawāla Hka" OR "Naneka Chaung" OR "Nam Myit Chaung" OR "Zhu Xia Ma He" OR "Seik Htein Chaung" OR "Ye Ta Gun Chaung" OR Tinzin OR "Son Chaung" OR "Nga Lang Hka" OR "Shwe Chaung" OR saintlaw OR sadayay OR "Shin Chaung" OR nammyatthi-kyin OR "Let Pan Chaung" OR Lainyi OR "Nan Guan He" OR "Nam Yi" OR "Nam Hkong" OR "Nam Koal" OR "Nam Man Pat" OR pharnatdaungyay OR Makao OR manayangbin OR ST8 OR "Nam Ya" OR "Nawng Jai Hka" OR "Chilachi Chaung" OR tharaybawngy OR "Nan Ka Tha Chaung" OR thlankhantkyan OR "east Ma Kaw" OR "Sa Don Chaung" OR "Tiwan Lam" OR east OR Tsutha OR "Phil Lui" OR "Myay Nu Chaung" OR "Tuileng Dung" OR "Kana Lok" OR Tengyuehe OR Chakpi OR "Chaung Thon Se Chaung" OR Khuga OR naykyin OR "On Ta Zu Chaung" OR nannayinbawgyein OR "Salaw Wang" OR "La Wang" OR "La Waing" OR moymawgyi OR "Dat Taw Chaung" OR Daungmyu OR "Ma Kyaung" OR "Maw Kyaung" OR "Muk Hkaung Kyaung" OR "Shadong He" OR "Deg Ling Wang" OR MeiXueB OR Dulonggu OR "Nyaw Myaw Hka" OR "Khunou Khong"</t>
-  </si>
-  <si>
     <t>China OR India OR Myanmar</t>
   </si>
   <si>
@@ -1303,9 +1285,6 @@
     <t>Jayapura</t>
   </si>
   <si>
-    <t>"Sungai Tami" OR Bewani OR Moso OR "Kali Grime" OR "Sungai Moso" OR "Kali Jaifuri" OR Sungai2 OR Sungai1 OR "Kali Kemiri" OR Tjahe</t>
-  </si>
-  <si>
     <t>JCBS</t>
   </si>
   <si>
@@ -1324,9 +1303,6 @@
     <t>Jordan</t>
   </si>
   <si>
-    <t>Jordan OR "Nahr al-Ord - Nachar Hayarden" OR "Nahal Ha'araba" OR "Nahr al-Ẓarqā" OR "Nahal Parn" OR "Nahr al-Yarmuk" OR "Nahal Ts'in" OR "Nahal Nkarot" OR "Wadi al-Hassa" OR "Nahar Yarden" OR "Wadi Abu Bithran" OR Aheimar OR "Nahr al-Yarmuk Yarmuk" OR "Wadi Al-Ẓalīl" OR "Nahal Dan" OR "Wadi al-Raqad" OR "Zerka Ma'in" OR "Wadi al-Jarafi" OR "Wadi ar-Raqad" OR "Wadi al-Hashay" OR "Wadi Rukhad" OR "Nahal Tabor" OR "Nahal Tzurah" OR Ma'tan OR "Nahal Hermon" OR "Nahal Yehudia" OR "Wadi al-Muwaqib" OR "Nahal Shgai" OR "Wadi Abu Adba" OR "Wadi Abu Ju'ay" OR "Wadi al-Bayda" OR "Nahal Haiyon" OR Nimrin OR "Nahal Tzalim" OR "Wadi an-Namlah" OR "Nahal Oug" OR "Nahal Brookha" OR "Nahr al-Haṣṣabāni" OR "Wadi Am Sdirda" OR "Nahal Hamar" OR "Nahal Arud" OR "Wadi Al Qelt" OR Rakiya OR "Nahal Gilbon" OR "Nahal Arugot" OR "Nahal Oshush" OR "Nahal Amitzihu" OR "Nahal Yaelim" OR "Nahal Kummeran" OR "Wadi al-Jarinaat" OR "Nahal 'Alav" OR al-shiyah OR "Wadi Abu Tamir" OR "Nahal Ramon" OR Orjan OR "Nahal Shizaf" OR "Wadi Tamrani" OR "Wadi Al-Kalibi" OR "Nahal Shita" OR "Nahal Machuch" OR "Nahal Ashelim" OR "Nahal Bakatayim" OR "Nahal Eyon" OR Makrab OR Gseib OR Afra OR "Nahal Perat" OR "Nahal Zu'itan" OR "Wadi Samar" OR "Nahal Keshet" OR "Nahal Katora" OR "Wadi al-Madura" OR "Nahal Dishon" OR "Nahal Pachami" OR "Nahr Abu Dajajah" OR "Wadi al-Rayan" OR "Nahal M'nucha" OR "Nahal Yaelon" OR "Nahal Gendane" OR "Nahal Bark" OR "Nahal Yatbatah" OR "Nahal Mitzray" OR "Nahal Shapan" OR "Wadi Salalim" OR "Nahal Dimona" OR "Nahal Shfmon" OR "Nahal Knav" OR "Nahal Ashel" OR "Wadi al-Iktirat" OR "Nahal Hared" OR "Nahal Subach" OR "Nahal Nov" OR "Nahal Chatzur" OR "Wadi Al-Aghidra" OR "Nahal Argaman" OR "Nahal Yeshשכר" OR "Nahal Shayaton" OR "Wadi Khartiy" OR "Nahal Gropit" OR "Nahal Afeka" OR Dabi' OR "Nahal Hagor" OR "Nahal Orakhan" OR "Wadi Ar-Rashash" OR "Nahal Shazar" OR "Nahal Kadesh" OR "Nahal Tzichur" OR Sir OR "Nahal Ro's Hefna" OR "Wadi Siq al-Gharab" OR "Nahal Orvim" OR "Nahal Haver" OR "Nahal Al Al" OR "Wadi al-Ghor ash-Sharqiya" OR "sad salikhud"</t>
-  </si>
-  <si>
     <t>Egypt OR Israel OR Jordan OR Lebanon OR "Syrian Arab Republic" OR "West Bank"</t>
   </si>
   <si>
@@ -1372,9 +1348,6 @@
     <t>Kemi</t>
   </si>
   <si>
-    <t>Kemi OR Kemijoki OR Ounasjoki OR KEMI-Luiro OR Raudanjoki OR Kitinen OR Käsmänjoki OR Tenniöjoki OR Tuntsajoki OR Tuntsayoki OR Meltausjoki OR Sallayoki OR Sattanen OR Aatsinginjoki OR Kemijärvi OR Akkunusjoki OR Runkausjoki OR Vähäjoki OR Tennyoyoki OR Jaurujoki OR Kapsajoki OR Käkkälöjoki OR Louejoki OR Maltiojoki OR Ruuhijoki OR Vatsimanyoki OR Nurmiioki OR Kelujoki OR Ala-Kuusanjoki OR Kaisajoki OR Kalkiaisjoki OR Aakenusjoki OR KEMI-Tankajoki-1 OR Sarkayoki OR Pöyrisjoki OR Vuoltinen OR Vaajoki OR Maunujoki OR Köykenönjoki OR Sivakkajoki OR Jeesiöjoki OR KEMI-Pallasjoki OR Näkkäläjoki OR Javarusjoki OR Pessijoki OR Molkojoki OR Vikajoki OR Vuotosjoki OR Lohijoki OR Pihtijoki OR Oulankajoki OR Norvajoki OR Saarenpudas OR Korojoki OR Kuolayoki OR Syrkiola OR Kaakamajoki OR Sotajoki OR KEMI-Riestojoki-1 OR Soasjoki OR Ala-Kerpuajoki OR Pyhäjoki OR Venejoki OR Viivajoki OR Angeljoki OR Ternujoki OR Naruskajoki OR Vuostimonjoki OR Koutelonjoki OR Ylä-Raudanjoki OR Hietajoki OR Sorsayoki OR Salanlatva OR Iissijoki OR Karyuoya OR Kuolpujoki OR Välijoki OR Nattushaara OR Ylijoki OR Lauantaihaara OR Mikkeлина OR Karjalaisenjoki OR Ketojoki OR Kolsanoy OR Maaterjoki OR Ylä-Nuortti OR Vaalajoki OR Seipäjoki OR Siyliö OR Vaikkojoki OR Riipijoki OR Lismajoki OR KEMI-Palojoki OR Ruopsanjoki OR Narkausjoki OR KEMI-Nuortti OR Mairijoki OR tulvajuoksutusuoma OR KEMI-Hollojoki OR Lainiojoki OR "KEMI-Pikku Konttijoki-1" OR Käyrämönjoki OR Paattinkijoki OR Suukisjoki OR Auttijoki OR Lakiyoki OR Jouttijoki OR Kuolajoki OR "Iso Konttijoki" OR "Iso Akanjoki" OR Kuohunkijoki OR Leivejoki OR Yukkuyoki OR Jierstijoki OR "Syvä Tepastojoki" OR Ala-Säynäjoki OR Kätkäjoki OR Luonuajoki OR Kulvakkojoki OR Kivihaaranjoki OR Sonkajoki OR Neitojoki OR Vietkajoki OR Yli-Runkaus OR Kairijoki OR Yli-Säynäjoki OR Juujoki OR Vuohtujoki OR Majavajoki OR Sorsanhaara OR Kenttäjoki OR "Kuiva Tepastojoki" OR Luksuanjoki OR Vuojoki OR Kotajoki OR Suomajoki OR Karvakkojoki OR Varejoki OR Närpistöjoki OR Siukatanjoki OR Siurunjoki OR Olkkojoki OR Vaulonjoki OR Kapustaoja OR Axvenoya OR Suopajoki OR Maaninkijoki OR Kopsusjoki OR Válganjohka OR Jaksamonjoki OR Varpuoya OR Ulkujoki OR Orajoki OR Siikajoki OR Yurukkioya OR Peräjoki OR Kurttajoki OR Käyräsjoki OR Kuorajoki OR Siosjoki OR Outijoki OR Halijoki OR Vaiskojoki OR "Iso Salankijoki" OR Keynuharyu OR Sienioja OR Saivojoki OR Harjunoja OR Jänkämukka OR Pippo-oja OR Hirvasoja OR Kaivosoja OR Mukkaoja OR Majavaoja OR Maljaoja OR Mukkajoki OR Koiraoja OR Hinganoja OR Harjuoja OR Teerioja OR Jurvanoja OR Taaromaoja OR Kylmäsenoja OR Harrihaara OR Suikelo-oja OR Kärppäoja OR "Pikku Marimonoja" OR Saukko-oja OR "Vuotson kanava" OR "Pikku Harrioja" OR Varotusoja OR Vaaranpäänoja OR Urakkaoja OR Vuorso-oja</t>
-  </si>
-  <si>
     <t>Finland OR "Russian Federation"</t>
   </si>
   <si>
@@ -1456,9 +1429,6 @@
     <t>Kura-Araks</t>
   </si>
   <si>
-    <t>Kura OR Araks OR mtkvari OR Aras OR Kür OR "Alazani - Qanıx" OR iori OR Alazani OR KURA-Araz OR "Arāz - Ārās" OR "qarah so" OR Araxes OR khrami OR "Kura Nehri" OR Faravani OR aragvi OR Akhuryan OR "Aras Nehri" OR "Kars Çayı" OR kvabliani OR Arpaçay OR Qabırlı OR "Arāz Chāyī" OR ars OR Chyshandon OR algeti OR "Tertter cayi" OR "Qabrlı çayı" OR Aghstev OR "Styr Leuahi" OR Eryichay OR "fsavi aragvi" OR Potskhovi-sq'ali OR mashavera OR Tedadmi OR Kürəkçay OR Akhurian OR Hrazdan OR Gujaratisqali OR ktsia OR Şəmkirçay OR Məzimçay OR ilito OR debeka OR Getic OR abastumani OR Göyçay OR Arğalı OR uraveli OR "Tetri Aragvi" OR Apaqs OR Xacincay OR Patsaa OR Pambak OR tana OR Arpa OR Debed OR Girdimançay OR Orotan OR matsimisstqali OR Lehura OR Gencay OR Türyançay OR Bazarçay OR Mastara OR chailuri OR Alicançay OR "Chysyl Leuahi" OR "argine chay" OR storī OR "Medzyda - Medjuda" OR Vedi OR "Posof Çayı - fotxovi-sqali" OR Baralthisq'ali OR liakhvi OR Zeyamchay OR "cheremisi xevi" OR Bagirsak OR Gilançay OR Azat OR mlashetqali OR Kvabliani OR "Naxçıvan çayı" OR fca OR Sevjur OR Tutqun OR Qaradağlı OR Shulaveri OR Elincay OR k'sani OR adzediti OR Melri OR Arkhasheni OR Khrami OR "dasiwletis fronе" OR Todzikhi OR Shuakhrami OR Oskepar OR "Karahan Çayı" OR orvili OR Həkəri OR turdō OR debeda OR murjakhetisstqali OR lopota OR lekhura OR Geghi OR Naxçıvançay OR "Nadus Suyu" OR Tovuzçay OR gishisstqali OR "Buyuk Cai" OR dzindze OR suramula OR "Balaken çay" OR Chichkan OR Qanıx OR "Astaeukkag Prone" OR Kabalis-Toti OR "Hasankale Çayı" OR Turağayçay OR "Posof Çayı" OR Katexçay OR Sagami OR Qarqarçay OR Karaçayır OR Badaraçay OR samqura OR tiraldi OR nedsvisxevi OR "Agsu cayi" OR Kura-Balka-Kamenitskaya OR lotchini OR chelti OR "Krmızı Dere" OR "bugdasheni - Bugdashenchi" OR "Aghmotsavletis Fronte" OR Kochki OR lakbe OR Laqodexisskali OR Varagadzur OR "Zivin Çayı" OR "Tikanli Cay" OR Koghby OR Kusno OR Tsav OR Shavtskarostskali OR Quruçay OR "Styr Leuahi - Bolshaya Liakhvi" OR "patara liaxvi" OR kabali OR intsooba OR "Shromis Xevi" OR Karkar OR "Gudisy don" OR vere OR "Baliqlo Chay" OR avanisxevi OR Tkhinala OR "Skæsæn Pronе" OR Babağançay OR Katexisstqali OR "shavi aragvi" OR Bəsitçay OR Qaraçay OR Tərtər OR "Cotsuyu Çayı" OR Tchochianisi OR Kiriaksu OR kisisxevi OR mejudaa OR Kodalistskali OR Cəyirçay OR Kabali OR Kürmükçay OR tqemlovnisstqali OR Masrik OR atrevi OR vera OR Tavush OR KURA-Gargarchay OR Darçay OR "mdinare jangirsu" OR "Khevshis khevi Riv." OR afen OR Qoşqarçay OR chikhoriashi OR Gedebeyçay OR chumateleti OR Oxçuçay OR "Kür Çayı" OR arqala OR oshora OR "Chvarebis Tskali" OR gumbati OR "Nyguylan Prone" OR Cerekən OR Zeteva OR Kelalchay OR Tezami OR Dzomagdon OR Agdabançay OR Xəlfəliçay OR khnchorut OR Tvalti-kevi OR Tosha OR Khacharzan OR Tvalt-Khevi OR Bumçay OR Şromisxevi OR dzama OR Tsverukhnisghele OR "Goy Chay" OR "md. baisubani" OR "gudamaryis aragvi" OR "Incə çayı" OR shromisxevi OR chili-chili OR "bzis tsqali" OR Khev-Grdzeli OR "mdinare tiselis gelle" OR Oghji OR Shorokhevi OR chivchavi OR Duruji OR "Balhili Chay" OR Vararak OR Qaraqaya OR Kolatağ OR Lev OR Qarqar OR Shikahogh OR Kashuni OR ozni OR Sinçay OR Değirmen OR duruj OR Gogaran OR Badaçay OR Ballıca OR Achanan OR "gldanis xevi" OR Aleura OR narekvavi OR "Karasu Cai" OR Ziyaret OR "shva fronе" OR Bəhməzçay OR torqla OR Kalachay OR "Aralık Çayı" OR Herher OR bugdasheni OR Beikuchai OR Gosh OR Araqçay OR Tüilyana OR "vantisi khavi"</t>
-  </si>
-  <si>
     <t>Armenia OR Azerbaijan OR Georgia OR "Iran " OR Turkey</t>
   </si>
   <si>
@@ -1948,9 +1918,6 @@
     <t>Maritsa</t>
   </si>
   <si>
-    <t>Maritsa OR Tundzha OR Ebros OR Meriç OR Arda OR "Ergene Nehri" OR "r. Topolnitsa" OR Erythropotamos OR Sazliyka OR "Corlu Cayi" OR Chepelarska OR Striyama OR Biala OR Vacha OR "r. Vrbitza" OR Kharmanliyska OR Stara OR Mochuritsa OR Chepiniska OR Blatnitsa OR Tunca OR Cherna OR Banska OR Tumrashka OR Tuzha OR Starata OR Sokolitsa OR Perperek OR Ardas OR "Luda reka" OR Radova OR Piaschnik OR Erma OR "Strelchanska Luda Yana" OR Srebra OR Fisher OR Topolnitsa OR Belenska OR Popovska OR Omurovska OR "Tunca Nehri" OR Yugovska OR "Luda Yana" OR Ovcharytsa OR "Panagurska Ludya Yana" OR Manastirska OR Elkhovska OR Bereereiska OR Belyata OR Krumovitsa OR Gyurla OR Devinska OR Metchka OR Turiska OR "Chiflishko dere" OR Mutnitsa OR Mъtivir OR Tvardishka OR Esenska OR Manina OR Azmaka OR "Banska Luda Yana" OR Mirkovchitsa OR Zlatishka OR Kayałyka OR Vetrenskaya OR Eninskaya OR Liaskovska OR "r. Asenovska" OR "ortashkoto dere" OR r.Ochushnitsa OR Selchenska OR Kaskovska OR Bunovchitsa OR Vargopiska OR Chernata OR Sarashliyska OR Merichlerska OR Bedechka OR Golyama OR Konakdere OR Uste OR Kalamitsa OR Trigradiska OR "Kamienyska r." OR Kamennata OR Goliamata OR Dormushëva OR "Khambar Dere" OR "r. Slavci" OR Toplata OR Küdere OR Krivaya OR Tikla OR "r. Yavoritsa" OR Zhyltusha OR Fotinskaya OR Chekhlariska OR Sukhata OR Malkata OR Borovinska OR Rahmanska OR "Ova Çayı" OR Ostromogil'ska OR Borushenska OR Leshnitsa OR Sinapovska OR Yavorovska OR Ana OR Söğütlük OR Hayrabolu OR Diabolorrhema OR "Teke Çayı" OR Potoka OR Levchenska OR "Ana Dere" OR Demirhanlı OR Keşan OR Kolen'ska OR Nevolya OR Cayirdere OR Üsküp OR Selskata OR Kalnitsa OR Lüleburgaz OR Tekiriska OR "r. Lyubnisheski dol" OR "Kara Dere" OR Armirra OR Baba OR Kuleli OR Mekhenska OR Cevizlik OR Sarp OR "Kanlı Dere" OR Mustafova OR Sel'ska OR Staykovitsa OR Babaeski OR Hamam OR Dylga OR "Sladkoto dere" OR Kashludere OR Vrâbница OR Paşa OR Tupavicite OR Ova OR Vinarovska OR "Kör Dere" OR Ağıl OR Sorkundere OR Elshishka OR Lukovitsa OR Armira OR "Kamenito dere" OR Yoncalı OR Kurudere OR "Zhlotoezeren potok" OR Dobralı OR Ruzhanska OR Karaağaç OR Hünkarkavağı OR "Değirmen Dere" OR "Svinarsko dere" OR Izurska OR "Kucheshko dere" OR "Kopryu dere" OR Söğütlü OR Şeytan OR Sushitza OR "Beglik dere" OR "Kuru Dere" OR "Pavel dere" OR Büyükkarıştıran OR Imamciftligi OR "Kala vashchitsa" OR Korlevitsa OR Yörük OR Kalyugerska OR Padesh OR Bölükler OR Kavaklı OR Ablanitsa OR Sazli OR Evrensekiz OR "Chinar dere" OR Kurutmaı OR "Tatlъ dere" OR Burak OR Debeliska OR Ambar OR Gradetchka OR Medetska OR Osmaniye OR Saranlı OR "Boev Dol" OR Safaalan OR Menteş OR Gabrovnitsa OR Mechka OR "Ayana Dere" OR Dlъbochiza OR "Tolkovo dere" OR Bostanlık OR "r. Manastirska" OR Enyark OR "Dylga vada" OR "Topolnitsa - Stryma" OR Тополница OR Стряма OR Dolboka OR "Kuru dere" OR "Naporan truboprovod" OR Sulamaı OR "Stena yazovir Trakiecz" OR "Saksağan Dere" OR "Gülbahçe Mahallesi Çatağı"</t>
-  </si>
-  <si>
     <t>Bulgaria OR Greece OR Turkey</t>
   </si>
   <si>
@@ -2059,9 +2026,6 @@
     <t>Neman</t>
   </si>
   <si>
-    <t>Neman OR Nemunas OR Neris OR Nёman OR Viliya OR Shchara OR Šešupė OR Nevėžis OR NMAN-Merkys-1 OR Šventoji OR Jūra OR "Zahodnyaya Berezina" OR Sheshupe OR Seryach OR Svislach OR Dubysa OR Strėva OR Verkne OR "Czarna Hańcza" OR Usa OR Moŭchadzь OR Zelvyanka OR Žeimena OR Marycha OR Myshanka OR Islač OR Mituva OR Kražantė OR Vynya OR Širvinta OR Gavya OR Ashmyanka OR Swisłocz OR Jiesia OR Dzvynasa OR Alshanka OR Ros OR Šušvė OR Šalčia OR Lebyada OR Dzitva OR Ilia OR Shervinta OR Narachanka OR Akmena OR Veratsayka OR Isa OR Ūla OR Verseka OR Gauja OR Radunyka OR Sula OR Šešuvis OR Šyša OR Grivoda OR Shchibya OR Zhizhma OR Musė OR Visinčia OR Nёўda OR Tur'ya OR Yarshovka OR Vuzlyanka OR Nivyisha OR Ytranka OR Vokė OR "Baltoji Ančia" OR Apita OR Gryžuva OR Aitra OR Nietupa OR Lososna OR NMAN-Lokys-1 OR Kotra OR Pad'yavarka OR "Malaya Rechka" OR Klyava OR Usnarka OR Ratnyčia OR Šunija OR Zapsė OR Obelis OR Uzdzyanka OR Chornaya OR Svarotva OR Szeszupa OR Chapunka OR Gavyaznyanka OR Vedzhma OR Kharyuzhavka OR Siesartis OR Pyranka OR Kamenka OR Lomena OR Plisa OR Lidzeia OR Lasasyanka OR Peratuts OR Dudlyanka OR Gozhka OR Vilnelė OR Tatarka OR Zazulka OR Liepona OR Ruzhanka OR Sasva OR Kołodzieżanka OR Karytsinka OR Struzha OR Vilnia OR Gornitsa OR "Chornaya Gancha" OR Lipka OR Barupė OR Niazhatka OR Vauypynka OR Balosyinka OR Tsytanka OR Tyl'zha OR Benitsa OR Vehatnyanka OR Niatupa OR Charnyavka OR Malavolya OR Panikva OR Dovinė OR Losha OR Boynaya OR Khynava OR Muravanka OR Chamyarovka OR Akovka OR Vydrovka OR Vyzavoka OR Alkhovka OR Mshanka OR Tishovka OR Shlyamitsa OR Valovka OR Luconytsa OR Bražuolė OR Perakul OR Svidrovka OR Pilve OR Stracha OR Višakis OR "Velykyy Perakop" OR Putsiska OR Gėgė OR Kuklyanka OR Zhatseryovka OR Zhesct OR Lepona OR Gynėvė OR Razvazhchanka OR Garacha OR Ishchalyannka OR Skarbianska OR Luknė OR Sviritsa OR Pelyša OR Шчарка OR Dubinga OR Nieda OR Glynyanka OR Zielawka OR Perakatka OR Salyanka OR Dumblya OR Berasavichanka OR Nitka OR Kramushavka OR Nyahrymovka OR Dumblė OR Daraŭlyanka OR Upyte OR Khmarka OR Artichanka OR Lakhazva OR Kahanka OR Skorytsa OR Kunisianka OR Verkhpolynitsa OR Kruostas OR Verzhbalovka OR Skidalka OR Klechycyna OR Lashanka OR Alёkhovka OR Tsivynshchina OR Szlamica OR Dzetyamlyanka OR Krasnovka OR Nalibavka OR Nizyanka OR Belytsa OR Shkardzianka OR Elenka OR Samaraŭka OR Petukhovka OR Wołkuszanka OR Gnilitsa OR Izavka OR Zarachanka OR Tonva OR Azhyranka OR Leschanka OR Karchovka OR "Stara Servach" OR Vydzьmynka OR Gast OR Šaltuona OR Rapusya OR "Nemuno senvagė" OR Ruta OR Elnya OR Lipnyanka OR Patachanka OR Mentyn OR Galaŭnynka OR Baluoša OR Veredavka OR Atmata OR Malynavka OR Litavets OR Palonka OR Zhavulka OR Rybchanka OR Mūkė OR Rudavka OR Łosośna OR Gajovshchina OR Volka OR Staraya OR "Kas tsyanyovka" OR Luca OR Abramavshchyna OR Tosinkha OR Zenyapishka OR Šešuva OR "Vialikaya Lyabodka" OR Smalyanka OR Zuyka OR Pelyaka OR Lyadzinka OR Abalitsa OR Trascyanka OR Rudka OR Studzenka OR Mutvitsa OR Palanaya OR Zhigalka OR Ryschytsa OR Malūnkalnis OR Prusovka OR Šeimena OR Gardnitsa OR Garna-Zvonya OR Šalčykščia OR Piaschanka OR Laudė OR Reytavka OR Zaluzhanka OR Palavoyka OR Merachanka OR Syrmyazhka OR Ruma OR Trycavka OR Izva OR Pela OR Lysnytsa OR Igorka OR Snovka OR Viazenskaya OR Igara OR Navumka OR Oksna OR Chaplya OR Yabloňovka OR Dzharazanka OR Rezemlya OR Spengla OR Plishcha OR Wierśnianka OR Goldayuka OR Biarosa OR Skirmantavka</t>
-  </si>
-  <si>
     <t>Belarus OR Latvia OR Lithuania OR Poland OR "Russian Federation"</t>
   </si>
   <si>
@@ -2239,9 +2203,6 @@
     <t>Oulu</t>
   </si>
   <si>
-    <t>Oulu OR Oulujoki OR Emäjoki OR Kiiminkijoki OR Sanginjoki OR Aiittojoki OR Lietejoki OR Heinijoki OR Utosjoki OR Mustajoki OR Kivijoki OR Muhosjoki OR Miesjoki OR Mainuanjoki OR Kalliojoki OR OULU-Myllyjoki-1 OR Pohjajoki OR Mikitänjoki OR Hiisijoki OR Nuorittajoki OR Hietajoki OR Tipasjoki OR Hossanjoki OR Potkunjoki OR Roukajoki OR Vuolijoki OR Saarijoki OR Väljänjoki OR Jormasjoki OR Kiehimänjoki OR Kutujoki OR Joutenjoki OR Laajanjoki OR Kaiskonjoki OR Karttimonjoki OR Alajoki OR Latvajoki OR Syväjoki OR Naamanjoki OR Paatinjoki OR Särkijoki OR Purasjoki OR Lapinlamminjoki OR Koskenjoki OR Pienijoki OR Louhenjoki OR Nimisjoki OR Karhujoki OR Lahnajoki OR Yrjänänjoki OR Timpinjoki OR Korpisenjoki OR Selkäjoki OR Syväoja OR Lehdonjoki OR Äylänjoki OR Kamennaya OR Poikajoki OR Säynäjäjoki OR Saunajoki OR Tuomijoki OR Somerjoki OR Kurzma OR Kellojoki OR Juurikkajoki OR Nuottijoki OR Jänisjoki OR Kesselinjoki OR Liminpuro OR Peranganjoki OR Sutisenjoki OR Netouvenjoki OR Kaihlasjoki OR Palosenjoki OR Siikajoki OR Iijoki OR Kiekinjoki OR Kiekinkoski OR Isojoki OR Siltajoki OR Ontojoki OR Löytöjoki OR Hakojoki OR Kinnusenjoki OR Varisjoki OR Sakaranjoki OR Kotijoki OR Säynäänjoki OR Taivaljoki OR Raatejoki OR Kumpusenjoki OR Kuomanjoki OR Kongasjoki OR Hukkajoki OR Sorsuanoja OR Rimpijoki OR Rytipuro OR OULU-Mäntypuro-2 OR Niettuspuro OR Martinjoki OR Heinäjoki OR Mahakkaanjoki OR Rimminjoki OR Karhupuro OR Kuivapuro OR Rautaisenpuro OR Rauhionpuro OR Pääpuro OR Pajupuro OR Kellopuro OR Koivuoja OR Särkioja OR Korpisenoja OR Alanteenjoki OR Kaupunginoja OR Repopuro OR Välioja OR Hangaspuro OR Sinteenpuro OR Matalanjoki OR Kylmänjoki OR Kypäräpuro OR Mustalaispuro OR Lyhepuro OR Lähtevänoja OR Huuhilonpuro OR Savipuro OR Viiksimonjoki OR Törsämönpuro OR Itäoja OR Oisavanoja</t>
-  </si>
-  <si>
     <t>OYPK</t>
   </si>
   <si>
@@ -2443,9 +2404,6 @@
     <t>Rann of Kutch</t>
   </si>
   <si>
-    <t>"Rann of Kutch" OR Luni OR Ghaggar OR Nara OR Ghagar OR Sukri OR "Char Dhoro" OR Jojari OR Kantii OR Tangri OR Markanda OR Jawai OR Sayala OR "rohri nahr" OR Rainee OR Sagarmati OR "Bargaon Nadi" OR Sukari OR Mithri OR Lilri OR Guhiya OR Abbasia OR "Sādiq Feeder" OR "Raipur Luni" OR Sarsuti OR Gadri OR "Ghaggar Channel" OR Sarasuati OR Bandi OR Ghaghar OR "Ghotki Feeder Kanal" OR Khari OR "Phunph Aria" OR "Janauli Nadi" OR Retra OR "Jhajra nadi" OR "Koshallia Nadi" OR "Pagna Nala" OR "Nandana Choe" OR Choe OR "Kuriyawala Bala" OR "Medkhali Nala" OR "Indira Gandhi" OR "Bikaner Lift" OR Hakra OR "Western Yamuna" OR Narmada OR "Karniji Distributary" OR Anupgarh OR "Sadiq Branch" OR Gang OR "Hala Branch" OR "Sunny Gunni" OR "Suratgarh Branch" OR 6-R OR Karniji OR "Hakra Branch" OR "PS Distributary" OR "raja waha" OR Phuleli OR "Gharat nehar" OR "BB Distributary" OR "Lakha Hakam Minor" OR "Gang Link Channel" OR "Malsar Distributary" OR "Bund Minor" OR "Bhompura Minor" OR Minor OR "GGS Refinery" OR TK OR Sirhind OR "Hyderabad Branch" OR "Akram Wah" OR "Akram Waah Askip" OR "F Distributary" OR "EE Minor" OR "Akram Waah" OR "Sim Nala" OR "Khadhar Distributary" OR "RB Main Minor (Sangrana)" OR "Churu Lift" OR "Shamgarh Minor" OR "3-R Distributory" OR "Shahbaz Minor" OR "Madka Branch" OR "PP Minor" OR Sangrana OR Saim OR Askip OR "Kachchh Branch" OR "GB Minor" OR "Binjor Minor" OR Pabewari OR "Bondho Dhoro" OR "Odiano Distributory" OR "Sahari Minor" OR "Baror Minor" OR "Najib Waah" OR Kori OR "Bilochia Distributary" OR "Pirthisar Distributary" OR NN OR "Harami Nala" OR "Khirajsar Distributary" OR "SRDS Drainage" OR "FF Distributary" OR "Anupgarh Mionr" OR "FG-II Minor" OR "Sardarpura Distributary" OR "MM Minor" OR "GG-I Distributary" OR "H Distributary"</t>
-  </si>
-  <si>
     <t>India OR Pakistan</t>
   </si>
   <si>
@@ -2497,9 +2455,6 @@
     <t>Rach Giang Thanh</t>
   </si>
   <si>
-    <t>"Rach Giang Thanh" OR "sung prak thok mas" OR "Stung Prek Touk Meas River" OR "Sông Giang Thành" OR "sithong tanhun" OR "O Chruohmlu" OR "O Chruoh Roka" OR "Hà Tiên" OR "Kênh Rạch Giá" OR "Kênh T4" OR "Kênh T4 Cũ" OR "Kênh T6" OR "Kênh Vĩnh Tế"</t>
-  </si>
-  <si>
     <t>Cambodia OR "Viet Nam"</t>
   </si>
   <si>
@@ -2722,9 +2677,6 @@
     <t>Shu/Chu</t>
   </si>
   <si>
-    <t>Shu OR Chu OR Chui OR SHUR OR Chong-Kemin OR Kara-Kuzhur OR Aspara OR Söök OR Kara-Balta OR Joon-Aryk OR Ala-Archa OR Alamedin OR Ak-Suu OR "Kichi Kemin" OR "r. Rgayty" OR "Kishy Kemin" OR Kochkor OR Soğandy OR Norus OR Karakol OR Karakunuz OR "r. Karabalta" OR Shamshy OR Kegeti OR Chong-Kayynady OR Tyuk OR "r. Shorgo" OR Tegirmenti OR r.Kalguty OR Issyk-Ata OR Zhartash OR "r. Toktasy" OR Kaiyngdy OR Qaqpatas OR Kokpatas OR Salyk OR Turán OR Kashka-Su OR "r. Ak-su" OR "Ukuk Chygysh" OR Ukuk OR Achiktaš OR Kuyamat-Kyrkool OR Chunkurchat OR Ysyk-Ata OR Kokuy-Bulak OR Tülok OR Tuyuk OR "r. Sargou" OR "Chygysh Karakol" OR Yssyk-Ata OR Byty OR Tuyyk-Almaty OR Kyzyl-Suu OR Zindiy-Suu OR Maybulak OR Kokadyr OR Uzungyr OR Karağayly OR Kashka-Suu OR "r. Beriktas" OR Kakpatas OR "Severnyy KoySuu" OR Orto-Kayynady OR Kyzylkaynar OR Kashkelen OR "r. Zhanylsay" OR Tortunchu-Koyсу OR Bek-Too OR Chetindi OR Almaty OR "Uch Bulak" OR Altaygir OR Buzulgan-Say OR Talday-Bulak OR "Altyn tor" OR Tunkzhar OR Shalak-Kayynady OR Duryoo OR Zhayay OR Ak-Tashkara OR Chimbulak OR Ashutor OR "Tuktu Gur" OR Zhekendy OR Oktorkey OR Kely-Almaty OR Kuturgansu OR Kyzylsuyu OR "Zapadnyy Cholpon-Ata" OR "Bolshoy Chuiyskiy" OR Betonnyy OR "Pravaya vetka" OR Georgiyevskiy OR "Georgiyevskiy (Pravaya vetka)" OR Osmon OR "Qarasu kanaly" OR "Levaya vetka" OR "Yuzhnyy Bolshoy Chuyskiy" OR "Otvod bolshogo chuyskogo kanala" OR "Vostochnyy Bolshoy Chuiyskiy" OR Shamen OR Chupra OR "Malyy Chuyskiy" OR "Sredniy Bolshoy Chuiyskiy" OR "Ortotoy suu saktiyachy nyn dambasы" OR Konorchek</t>
-  </si>
-  <si>
     <t>Kazakhstan OR Kyrgyzstan</t>
   </si>
   <si>
@@ -3037,9 +2989,6 @@
     <t>Tumen</t>
   </si>
   <si>
-    <t>Tumen OR "Tumen Jiang" OR Duman-gang OR Gayaha OR Seodusoo OR "Hunchun He" OR yeonmysu OR "Hua Pi Dian Zi He" OR Hailanhe OR Mijiang OR Oryungcheon OR "Da Wang Qing He" OR Hongdansu OR Boeolcheon OR Tumannaya OR "Lanjia Tangzihe" OR Qianhe OR Jongseonggang OR Shajinhe OR Hailanjiang OR "Hongqi He" OR "Bu'erhatong He" OR Yongcheoncheon OR "Zhongping He" OR Sangseongcheon OR Sungcheon-su OR Hakpocheon OR Liudonghe OR "Yueqing Gou" OR Hwilyeongcheon OR Changrenhe OR Paljeochun OR Ludaohe OR quanhe OR HuaShuGou OR Yongnamcheon OR "Mì Jiāng" OR "Xiao Xizhuan Chaha" OR "Hailan He" OR "Guangzhao Ganqu" OR "Weixin Ganqu" OR "Dongcheng 1 Hao Ganqu"</t>
-  </si>
-  <si>
     <t>China OR "Dem People's Rep of Korea" OR "Russian Federation"</t>
   </si>
   <si>
@@ -3115,9 +3064,6 @@
     <t>Venta</t>
   </si>
   <si>
-    <t>Venta OR Abava OR Vadakste OR Vadakstis OR Virvyčia OR Varduva OR Ciecere OR Ezere OR Dabikinė OR Lētīža OR Zaņa OR Vēždūka OR Ēnava OR Amula OR Klūga OR Kvistė OR Vēdzele OR Ēda OR Imula OR Vārme OR Ašva OR Dzirnavupe OR Kamārce OR Kaža OR Koja OR Losis OR Lūšis OR Riežupe OR Sprincupe OR Viesata OR Avīkne OR Dūre OR Garūdene OR Lejējupe OR Līgupe OR Mazupe OR Mērgava OR Packule OR Pūre OR Rudupe OR Sumata OR Sārcene OR "Sēmes upe" OR Valgale OR Veģupīte OR Virbupe OR Īvande OR Šķērvele OR Ringuva OR Viešetė OR Šerkšnė OR Aunuva OR Gansė OR Lušinė OR Tausalas OR Varmė OR Varnelė OR Vēršāda OR Agluona OR Bikstupe OR Burbulis OR Ilga OR Maidenis OR Mežupīte OR Miežupė OR Nakačia OR Pievys OR Robalts OR Saldupis OR Sruoja OR Trikogalas OR Upyna OR Ķīse OR Avižlys OR Bakūze OR "Benaišu strauts" OR Burbesis OR Buļļupe OR Būgenis OR D-1 OR Domantas OR Domija OR Drūktupis OR "Dārtsmuižas strauts" OR Girupis OR Giršupis OR Gūragys OR Gūžė OR Juodė OR Kalupis OR Karklupis OR "Kazenieku strauts" OR Kazupe OR Kiaulupis OR Krieviņupe OR Kumulša OR "Kurzemnieku strauts" OR Kutuvis OR Laurupīte OR Luoba OR Mergupis OR "Naujoji Agluona" OR Ozolupe OR Padure OR Purvas OR Pīkstupe OR R-2 OR Ramočia OR Rešketa OR Roja OR Rąžuolė OR Sietuvos OR Skalde OR Starkupis OR "Stujų upalis" OR Stulpas OR Svaigė OR Trimėsėdis OR Velda OR Šilupis OR Šona OR Šventupys OR Šėkštys OR Žaigis OR Žaras OR Žemalupis OR Žižma OR "Žīdu strauts" OR "Dubysos-Ventos perkasas" OR "Dumpju strauts" OR "Purmalu grāvis"</t>
-  </si>
-  <si>
     <t>VFSN</t>
   </si>
   <si>
@@ -3154,9 +3100,6 @@
     <t>Volga</t>
   </si>
   <si>
-    <t>Volga OR Волга OR Ока OR Кама OR Мокша OR Ветлуга OR Унжа OR Клязьма OR Сура OR Керженец OR Тёша OR Самара OR Уфа OR Цна OR Вятка OR "Большой Иргиз" OR Проня OR Чусовая OR Свияга OR Ахтуба OR Кострома OR Еруслан OR Сок OR Москва OR "Большой Черемшан" OR Ток OR Белая OR Ик OR Пара OR Алатырь OR Пьяна OR Терешка OR "Большая Кокшага" OR Чепца OR Ушна OR Зуша OR Угра OR Гусь OR Вад OR Нерль OR Чагра OR Вишера OR Атмис OR "Большой Кинель" OR Колпь OR Серёжа OR Косьва OR Лух OR Чапаевка OR Сундовик OR Теза OR Упа OR "Малая Кокшага" OR Чёрная OR Протва OR Рутка OR Пра OR Уста OR Мёша OR Сызранка OR "Малый Иргиз" OR Торгун OR Кондурча OR Коса OR Уводь OR Вохма OR Кадада OR Кема OR Кишма OR Нёмда OR Обва OR Которосль OR Солоница OR Исса OR Кудьма OR Яйва OR "Большой Караман" OR Бужа OR Иж OR Илеть OR Казанка OR Мера OR Узола OR Шешма OR Пёт OR Верда OR Осётр OR Бузулук OR Колокша OR Шуя OR Барыш OR Боровка OR Буй OR Велетьма OR Воря OR Лопасня OR Медведица OR Пожва OR Суворощь OR Уза OR Шексна OR Сива OR Ломовка OR Нара OR Сивинь OR Тулва OR Сургут OR Тырница OR Уса OR "Большой Кундыш" OR Ватома OR Истья OR Камелик OR Линда OR "Малый Цивиль" OR "Малый Черемшан" OR Неручь OR Ранова OR Зай OR Тимшор OR Чардым OR Лапшанга OR Судогда OR Уролка OR "Большая Сульча" OR Жиздра OR Иньва OR Шаня OR Лупья OR Люнда OR Майна OR Осуга OR Ресса OR Таруса OR Шукша OR Ермишь OR Кубня OR Непложа OR Пекша OR Рессета OR Сестра OR Бездна OR Дубна OR Енотаевка OR "Лесной Тамбов" OR Нарма OR Нугрь OR Пильва OR Тверца OR Чернава OR Вожа OR Вол OR Добрица OR Корожечна OR Лоза OR Озёрка OR Сарма OR Устье OR Юшут OR Азясь OR "Большая Кутра" OR Жукопа OR Нерехта OR "Солёная Куба" OR Тыпыл OR Утка OR Юг OR Велва OR Гжать OR Колыч OR "Лесная Шешма" OR Очёр OR Поля OR Порыш OR Сейма OR Сунжа OR Сюзьва OR Ёлнать OR Бахтемир OR Желвата OR Инза OR Кадь OR Киря OR Кишня OR Лужа OR Меча OR Пенза OR Пыщуг OR Ташенка OR Уркат OR Шача OR Юронга OR Березовка OR "Большая Какша" OR Весляна OR "Мокрая Мечетка" OR Мошна OR Нея OR Песочня OR Северка OR "Степной Зай" OR Таловая OR Тудовка OR Юнга OR Алай OR Беспута OR Була OR Вашана OR Ворша OR Вочь OR Выла OR Железница OR Изверь OR "Малый Кундыш" OR Нахой OR Нор-Ломовка OR Рака OR Руза OR Сумыч OR Суходрев OR Шокша OR Боровая OR Жижала OR Каралык OR Каслей-Кадада OR Ласьва OR "Малая Свияга" OR Нытва OR Покша OR Сайгатка OR "Северный Козленец" OR Скнига OR Сноведь OR Сутка OR Талая OR Турганник OR Берсут OR "Большая Шанга" OR "Большой Цивиль" OR Везлома OR Виша OR Гуща OR Истра OR Канадейка OR Кондас OR Ламша OR Стёжера OR Съезжая OR Теча OR Томышевка OR Труёв OR Тысья OR Улема OR Ункор OR Чермоз OR Чернь OR Чус OR Шижегда OR Актай OR Акша OR Ашит OR Безенчук OR Бизюк OR "Большая Вязовка" OR Вердица OR Волосница OR Дёржа OR Зиганнек OR Илевна OR Ировка OR Иста OR Ить OR Карабулак OR Крушма OR "Малый Атмис" OR Меня OR Солотча OR "Сухая Улема" OR Тойма OR Чека OR Шелдаис OR Шоша OR Юхоть OR Ячменка OR Алешня OR Бекшанка OR "Большая Глушица" OR "Большая Коша" OR "Большая Ошла" OR "Большое Смедово" OR Волоста OR Дорогуча OR Елшанка OR Имза OR Ирдом OR Итомля OR Каменка OR Кармала OR Кашинка OR Кисьмесь OR Колдаис OR Ксегжа OR Кужва OR Лосьминка OR Маза OR Рябка OR Сатис OR Смедва OR Сулица OR Суша OR Сынтулка OR Теренгулька OR Терса OR Тьма OR Упёрта OR Урга OR Усолка OR Цивиль OR Чёрмоз OR "Южный Козленец" OR Айва OR Безменец OR Белбаж OR "Большая Ворона" OR "Большой Авраль" OR Вядя OR Демина OR Карла</t>
-  </si>
-  <si>
     <t>VOLT</t>
   </si>
   <si>
@@ -3356,6 +3299,66 @@
   </si>
   <si>
     <t xml:space="preserve">groundwater* OR aquifer* OR "ground water" OR spring* OR borehole OR "bore hole" </t>
+  </si>
+  <si>
+    <t>Dniester OR Dnister OR Dnestr OR Răut OR Seryet OR Kuchurgan OR Zburch OR Nistru OR Smotrich OR Stripa OR Striy OR Cubolta OR "Zolota Lipa" OR Bîc OR Svycha OR Ushitsya OR Murafa OR "Gnila Lipa" OR "Bistri tsia Nadvirnyanska" OR Zhvanchik OR Strivihor OR Nychlava OR Markivka OR Botna OR Trostyanez OR Lymnytsia OR Căinari OR Svirzh OR Nemiyia OR "Dnister Nistru" OR Djurin OR Gnyzna OR Koropets OR "Bistrytsia Solotvinska" OR "Gnyzna Gnila" OR Okna OR Turunchuk OR Opir OR Rusava OR Studenietsia OR Nistru OR Nychlavka OR Ternava OR "Bistrytsia Tysmenytska" OR Zavadka OR Rybnitsa OR Yagorlik OR Lyadova OR Shirka OR Muksha OR Murashka OR Visushka OR Lozova OR Tis'menitsia OR Yalanka OR Cuciurgan OR Grabarka OR Tamashlyk OR "Râul Botnișoara" OR Soloneț OR Chernaya OR Derlo OR Batig OR lug OR "Skhidna Zolota Lipa" OR Vereshchitsya OR Larga OR Ciorna OR Iagorlâc OR "Velika Soska" OR Baris'ka OR "Râul Botna" OR Yablunka OR Sukel OR "Seryet Livi" OR Samets OR "Studennyi Potik" OR Rožanka OR Tayna OR Stavchanka OR Slavka OR "Sukhiy Yagorlik" OR Kanay OR "Ciulucul Mic" OR Kalyus OR Tsiganka OR Tupa OR Zhvan OR Ichel OR Nesterivka OR Golovchanka OR Tyuha OR Matyorka OR Lukva OR Gnil'yak OR Nekrasiv OR Sivka OR Strimba OR Pereyma OR Gnila OR Vovcha OR Oryava OR Sobol OR "Skhidna Strypa" OR Sursha OR "Velikiy Kanay" OR Skvila OR Platonivska OR V'yatina OR Surzha OR Letavka OR Naraivka OR "Bistri tsia" OR Chechva OR Ushetchka OR Yaromirka OR Cușmirca OR Mizunka OR Kurudorova OR "Staroy Dnestr" OR Tlumach OR Grebelyka OR Karaets OR Khusne OR Somova OR Eligacea OR Zelenogaychik OR Zubra OR "Ciulucul de Mijloc" OR Starytsia OR Yavorivka OR Kizya OR Dovzhanka OR Topilnychanka OR Yamhoriv OR Sigla OR "Nistru Dnister" OR Ramenetsi OR Berezhnytsia OR Vesela OR Malorosha OR Masyuvka OR Vorona OR Łodyna OR Ribnik OR Ișnovăț OR Solonitsia OR Yasenichanka OR "Nistrul Vechi" OR Sara-Lunga OR Musiyenko OR Butivlya OR Bila OR Oryavchik OR "Sereť Pravij" OR Kam'yanka OR Dubaya OR "Ciulucul Mare" OR Stinavka OR Tura OR Ushuka OR Struga OR Dustriuv OR Kamenka OR Bolokhivka OR Zolotaya OR Cula OR "balka Komarova" OR Biloch OR Davidiwka OR Kolodnitsia OR Bolozivka OR Boberkka OR Chortovets OR Suchodilka OR Oknitsa OR Bibelka OR Malina OR "Velika Rychka" OR Brushitsia OR Lužanka OR Vilkhovets OR Balțata OR Potik OR Tseneivka OR Tudinka OR Moloda OR Rudka OR Recateu OR Lukvitsia OR Kuz'minets OR Draghinici OR Primoshchanka OR Odaya OR Batizhok OR Lyutinka OR Bratkovets OR Bovenets OR Luča OR Yermivka OR Oliniek OR Yaloviy OR Zelenttsia OR Glibochok OR Smochenka OR Ruda OR Sadzawa OR Sopit OR Vilshanka OR Zhupanka OR Samka OR Viknina OR Krinitsia OR "Rybnik Zubrytsia" OR Tlumachik OR Gorokholina OR Gorozhanka OR "Rybnik Maidanskyi" OR Kotlubayivka OR Voronkovo OR Vorocea OR Pogiblytsya OR Urychanka OR Bitkivchik OR Letnyanka OR Lemits OR Bukhotvets OR BakhTinka OR "Mala Stripa" OR Khotimirkka OR "Potyk Mlynskyi" OR "Valea Merenilor" OR Rybnitsia OR Voronitsia OR Lavochanka OR Svetlyy OR "Dolina Zharnivska" OR Shебутинчанка OR Churak OR Sadjavka OR Krekhivka OR "Bezimennyy strumok" OR Zhižava OR Ohaba OR Pavlivka OR Travniy OR Mukha OR Berešť OR Krivennyi OR Sadjava OR Calantir OR Sianskyi OR Shavina OR Nishla OR Dzvinyachka OR Kozushin OR Libokhora OR Vishen'ka OR Rakivtsi OR Olchy OR Gyrlo OR Lukovets OR "Valea Sireților" OR Sokiriani OR Menchilka OR Turava OR Stroentsy OR Parinka OR "Pikun Seredniy" OR Glyboki</t>
+  </si>
+  <si>
+    <t>Drin OR "Drini i Bardhë" OR Morača OR "Drini i Zi" OR "Crn Drim" OR Drini OR Radika OR Buna OR Zeta OR Valbonë OR Ereniku OR Cijevna OR "Lumbardhi i Pejës" OR Kir OR Sateska OR "Lumi i Shalës" OR Klinë OR "e Caies" OR "Përroi Gominës" OR Mirushë OR "Lumi Currajve" OR Comsiqes OR "Lumi i Thethit" OR "Lumi i Cemit" OR Burim OR Adzina OR "Lumbardhi i Deçanit" OR "Lumi i Gomsiqes" OR Koselska OR "Përroi Stupës" OR Sitnica OR "Lumi i Pejës" OR Mrtvica OR Toplluhë OR "Përroi Vilës" OR "Përroi Palajt" OR "Përroi Vogël" OR Seta OR "Përroi Spaçit" OR Mavrovtsa OR Mokresh OR "Drini i bardhë" OR Dushit OR Ribnica OR Klina OR Ratinja OR "Lumi i Tropojës" OR Tresonecka OR "Përroi Bugjonit" OR Karatuna OR "Mrkovska rijeka" OR "Lumi e Currajve" OR Krivaya OR "Lumi Mirushë" OR Vapilnitsa OR Šegrtnica OR "Lumi Kuqit" OR Daljan OR Garska OR Krena OR Vevchanska OR Mala OR "Međurečka rijeka" OR "Mala rijeka" OR "Përroi i Mërturit" OR Gjadri OR Veleshicë OR "Përroi Rrjollit" OR Cherava OR "Crn Kamen" OR Gostiljska OR Sjevernica OR "Përroi Molla e Lurës" OR "Midanska rijeka - Shau i Kalimanit" OR Bec OR Mareza OR "Rekë e Allagës" OR Sherup OR Kozhnjer OR "Përroi Papit" OR "Përroi Thellosë" OR "Përroi i Plavës" OR "Përroi Pellshit" OR "Përroi Prangullit" OR Prisovjanska OR Shstitovitsa OR Duhllo OR "Bogutovački potok" OR Milishevc OR "Përroi Çaperkosave" OR "Përroi Gurit" OR "Savin potok" OR "Proni i Škodres" OR "Përroi Milloshit" OR "Përroi Mizës" OR "Përroi Bicës" OR Restelicë OR "Përroi i thatë" OR "Përroi Krajës" OR "Pećka Bistrica" OR "Përroi Motinës" OR Krotaja OR "Përroi Troshanit" OR Tayirovskaya OR "Përroi Shehu i Shllinave" OR Hoçë OR "Kanioni i Fluturave" OR Dlабoka OR "Përroi Shtodrit" OR "Përroi Thatë" OR "Lumi Rimnik" OR "Përroi Mullinjëve" OR "Potok Murići" OR "Përroi Palan" OR "Lumi i Sopijës" OR Žlijeb OR "Përroi Zi" OR "Përroi Vozinianti" OR Valavicharska OR "Koritski potok" OR "Përroi Shajmaqes" OR Shpatarets OR "Bratkovički potok" OR Slatina OR "Përroi i Vrakës" OR "Përroi Lugu i Shkymë" OR "Përroi Cam Dedaj" OR "Përroi Çudit" OR "Përroi Grazhdës" OR "Përroi Çeremit" OR "Përroi Madh" OR "Përroi i Reskut" OR Deshtica OR "Kanali i Madh" OR "Kanali i Hidrovorit" OR "Kanali i Drinit" OR Vadites OR "Kanali i i Murtemës" OR "Kanali i Shtodrit" OR "Kanali i Jubanit" OR Spathar OR "Kullues ose Vaditës"</t>
+  </si>
+  <si>
+    <t>Jordan OR "Nahr al-Ord" OR "Nachar Hayarden" OR "Nahal Ha'araba" OR "Nahr al-Ẓarqā" OR "Nahal Parn" OR "Nahr al-Yarmuk" OR "Nahal Ts'in" OR "Nahal Nkarot" OR "Wadi al-Hassa" OR "Nahar Yarden" OR "Wadi Abu Bithran" OR Aheimar OR "Nahr al-Yarmuk Yarmuk" OR "Wadi Al-Ẓalīl" OR "Nahal Dan" OR "Wadi al-Raqad" OR "Zerka Ma'in" OR "Wadi al-Jarafi" OR "Wadi ar-Raqad" OR "Wadi al-Hashay" OR "Wadi Rukhad" OR "Nahal Tabor" OR "Nahal Tzurah" OR Ma'tan OR "Nahal Hermon" OR "Nahal Yehudia" OR "Wadi al-Muwaqib" OR "Nahal Shgai" OR "Wadi Abu Adba" OR "Wadi Abu Ju'ay" OR "Wadi al-Bayda" OR "Nahal Haiyon" OR Nimrin OR "Nahal Tzalim" OR "Wadi an-Namlah" OR "Nahal Oug" OR "Nahal Brookha" OR "Nahr al-Haṣṣabāni" OR "Wadi Am Sdirda" OR "Nahal Hamar" OR "Nahal Arud" OR "Wadi Al Qelt" OR Rakiya OR "Nahal Gilbon" OR "Nahal Arugot" OR "Nahal Oshush" OR "Nahal Amitzihu" OR "Nahal Yaelim" OR "Nahal Kummeran" OR "Wadi al-Jarinaat" OR "Nahal 'Alav" OR al-shiyah OR "Wadi Abu Tamir" OR "Nahal Ramon" OR Orjan OR "Nahal Shizaf" OR "Wadi Tamrani" OR "Wadi Al-Kalibi" OR "Nahal Shita" OR "Nahal Machuch" OR "Nahal Ashelim" OR "Nahal Bakatayim" OR "Nahal Eyon" OR Makrab OR Gseib OR Afra OR "Nahal Perat" OR "Nahal Zu'itan" OR "Wadi Samar" OR "Nahal Keshet" OR "Nahal Katora" OR "Wadi al-Madura" OR "Nahal Dishon" OR "Nahal Pachami" OR "Nahr Abu Dajajah" OR "Wadi al-Rayan" OR "Nahal M'nucha" OR "Nahal Yaelon" OR "Nahal Gendane" OR "Nahal Bark" OR "Nahal Yatbatah" OR "Nahal Mitzray" OR "Nahal Shapan" OR "Wadi Salalim" OR "Nahal Dimona" OR "Nahal Shfmon" OR "Nahal Knav" OR "Nahal Ashel" OR "Wadi al-Iktirat" OR "Nahal Hared" OR "Nahal Subach" OR "Nahal Nov" OR "Nahal Chatzur" OR "Wadi Al-Aghidra" OR "Nahal Argaman" OR "Nahal Yeshשכר" OR "Nahal Shayaton" OR "Wadi Khartiy" OR "Nahal Gropit" OR "Nahal Afeka" OR Dabi' OR "Nahal Hagor" OR "Nahal Orakhan" OR "Wadi Ar-Rashash" OR "Nahal Shazar" OR "Nahal Kadesh" OR "Nahal Tzichur" OR Sir OR "Nahal Ro's Hefna" OR "Wadi Siq al-Gharab" OR "Nahal Orvim" OR "Nahal Haver" OR "Nahal Al Al" OR "Wadi al-Ghor ash-Sharqiya" OR "sad salikhud"</t>
+  </si>
+  <si>
+    <t>Kemi OR Kemijoki OR Ounasjoki OR Luiro OR Raudanjoki OR Kitinen OR Käsmänjoki OR Tenniöjoki OR Tuntsajoki OR Tuntsayoki OR Meltausjoki OR Sallayoki OR Sattanen OR Aatsinginjoki OR Kemijärvi OR Akkunusjoki OR Runkausjoki OR Vähäjoki OR Tennyoyoki OR Jaurujoki OR Kapsajoki OR Käkkälöjoki OR Louejoki OR Maltiojoki OR Ruuhijoki OR Vatsimanyoki OR Nurmiioki OR Kelujoki OR Ala-Kuusanjoki OR Kaisajoki OR Kalkiaisjoki OR Aakenusjoki OR Tankajoki OR Sarkayoki OR Pöyrisjoki OR Vuoltinen OR Vaajoki OR Maunujoki OR Köykenönjoki OR Sivakkajoki OR Jeesiöjoki OR Pallasjoki OR Näkkäläjoki OR Javarusjoki OR Pessijoki OR Molkojoki OR Vikajoki OR Vuotosjoki OR Lohijoki OR Pihtijoki OR Oulankajoki OR Norvajoki OR Saarenpudas OR Korojoki OR Kuolayoki OR Syrkiola OR Kaakamajoki OR Sotajoki OR Riestojoki OR Soasjoki OR Ala-Kerpuajoki OR Pyhäjoki OR Venejoki OR Viivajoki OR Angeljoki OR Ternujoki OR Naruskajoki OR Vuostimonjoki OR Koutelonjoki OR Ylä-Raudanjoki OR Hietajoki OR Sorsayoki OR Salanlatva OR Iissijoki OR Karyuoya OR Kuolpujoki OR Välijoki OR Nattushaara OR Ylijoki OR Lauantaihaara OR Mikkeлина OR Karjalaisenjoki OR Ketojoki OR Kolsanoy OR Maaterjoki OR Ylä-Nuortti OR Vaalajoki OR Seipäjoki OR Siyliö OR Vaikkojoki OR Riipijoki OR Lismajoki OR Palojoki OR Ruopsanjoki OR Narkausjoki OR Nuortti OR Mairijoki OR tulvajuoksutusuoma OR KEMI-Hollojoki OR Lainiojoki OR "Pikku Konttijoki" OR Käyrämönjoki OR Paattinkijoki OR Suukisjoki OR Auttijoki OR Lakiyoki OR Jouttijoki OR Kuolajoki OR "Iso Konttijoki" OR "Iso Akanjoki" OR Kuohunkijoki OR Leivejoki OR Yukkuyoki OR Jierstijoki OR "Syvä Tepastojoki" OR Ala-Säynäjoki OR Kätkäjoki OR Luonuajoki OR Kulvakkojoki OR Kivihaaranjoki OR Sonkajoki OR Neitojoki OR Vietkajoki OR Yli-Runkaus OR Kairijoki OR Yli-Säynäjoki OR Juujoki OR Vuohtujoki OR Majavajoki OR Sorsanhaara OR Kenttäjoki OR "Kuiva Tepastojoki" OR Luksuanjoki OR Vuojoki OR Kotajoki OR Suomajoki OR Karvakkojoki OR Varejoki OR Närpistöjoki OR Siukatanjoki OR Siurunjoki OR Olkkojoki OR Vaulonjoki OR Kapustaoja OR Axvenoya OR Suopajoki OR Maaninkijoki OR Kopsusjoki OR Válganjohka OR Jaksamonjoki OR Varpuoya OR Ulkujoki OR Orajoki OR Siikajoki OR Yurukkioya OR Peräjoki OR Kurttajoki OR Käyräsjoki OR Kuorajoki OR Siosjoki OR Outijoki OR Halijoki OR Vaiskojoki OR "Iso Salankijoki" OR Keynuharyu OR Sienioja OR Saivojoki OR Harjunoja OR Jänkämukka OR Pippo-oja OR Hirvasoja OR Kaivosoja OR Mukkaoja OR Majavaoja OR Maljaoja OR Mukkajoki OR Koiraoja OR Hinganoja OR Harjuoja OR Teerioja OR Jurvanoja OR Taaromaoja OR Kylmäsenoja OR Harrihaara OR Suikelo-oja OR Kärppäoja OR "Pikku Marimonoja" OR Saukko-oja OR "Vuotson kanava" OR "Pikku Harrioja" OR Varotusoja OR Vaaranpäänoja OR Urakkaoja OR Vuorso-oja</t>
+  </si>
+  <si>
+    <t>Neman OR Nemunas OR Neris OR Nёman OR Viliya OR Shchara OR Šešupė OR Nevėžis OR Merkys OR Šventoji OR Jūra OR "Zahodnyaya Berezina" OR Sheshupe OR Seryach OR Svislach OR Dubysa OR Strėva OR Verkne OR "Czarna Hańcza" OR Usa OR Moŭchadzь OR Zelvyanka OR Žeimena OR Marycha OR Myshanka OR Islač OR Mituva OR Kražantė OR Vynya OR Širvinta OR Gavya OR Ashmyanka OR Swisłocz OR Jiesia OR Dzvynasa OR Alshanka OR Ros OR Šušvė OR Šalčia OR Lebyada OR Dzitva OR Ilia OR Shervinta OR Narachanka OR Akmena OR Veratsayka OR Isa OR Ūla OR Verseka OR Gauja OR Radunyka OR Sula OR Šešuvis OR Šyša OR Grivoda OR Shchibya OR Zhizhma OR Musė OR Visinčia OR Nёўda OR Tur'ya OR Yarshovka OR Vuzlyanka OR Nivyisha OR Ytranka OR Vokė OR "Baltoji Ančia" OR Apita OR Gryžuva OR Aitra OR Nietupa OR Lososna OR Lokys OR Kotra OR Pad'yavarka OR "Malaya Rechka" OR Klyava OR Usnarka OR Ratnyčia OR Šunija OR Zapsė OR Obelis OR Uzdzyanka OR Chornaya OR Svarotva OR Szeszupa OR Chapunka OR Gavyaznyanka OR Vedzhma OR Kharyuzhavka OR Siesartis OR Pyranka OR Kamenka OR Lomena OR Plisa OR Lidzeia OR Lasasyanka OR Peratuts OR Dudlyanka OR Gozhka OR Vilnelė OR Tatarka OR Zazulka OR Liepona OR Ruzhanka OR Sasva OR Kołodzieżanka OR Karytsinka OR Struzha OR Vilnia OR Gornitsa OR "Chornaya Gancha" OR Lipka OR Barupė OR Niazhatka OR Vauypynka OR Balosyinka OR Tsytanka OR Tyl'zha OR Benitsa OR Vehatnyanka OR Niatupa OR Charnyavka OR Malavolya OR Panikva OR Dovinė OR Losha OR Boynaya OR Khynava OR Muravanka OR Chamyarovka OR Akovka OR Vydrovka OR Vyzavoka OR Alkhovka OR Mshanka OR Tishovka OR Shlyamitsa OR Valovka OR Luconytsa OR Bražuolė OR Perakul OR Svidrovka OR Pilve OR Stracha OR Višakis OR "Velykyy Perakop" OR Putsiska OR Gėgė OR Kuklyanka OR Zhatseryovka OR Zhesct OR Lepona OR Gynėvė OR Razvazhchanka OR Garacha OR Ishchalyannka OR Skarbianska OR Luknė OR Sviritsa OR Pelyša OR Шчарка OR Dubinga OR Nieda OR Glynyanka OR Zielawka OR Perakatka OR Salyanka OR Dumblya OR Berasavichanka OR Nitka OR Kramushavka OR Nyahrymovka OR Dumblė OR Daraŭlyanka OR Upyte OR Khmarka OR Artichanka OR Lakhazva OR Kahanka OR Skorytsa OR Kunisianka OR Verkhpolynitsa OR Kruostas OR Verzhbalovka OR Skidalka OR Klechycyna OR Lashanka OR Alёkhovka OR Tsivynshchina OR Szlamica OR Dzetyamlyanka OR Krasnovka OR Nalibavka OR Nizyanka OR Belytsa OR Shkardzianka OR Elenka OR Samaraŭka OR Petukhovka OR Wołkuszanka OR Gnilitsa OR Izavka OR Zarachanka OR Tonva OR Azhyranka OR Leschanka OR Karchovka OR "Stara Servach" OR Vydzьmynka OR Gast OR Šaltuona OR Rapusya OR "Nemuno senvagė" OR Ruta OR Elnya OR Lipnyanka OR Patachanka OR Mentyn OR Galaŭnynka OR Baluoša OR Veredavka OR Atmata OR Malynavka OR Litavets OR Palonka OR Zhavulka OR Rybchanka OR Mūkė OR Rudavka OR Łosośna OR Gajovshchina OR Volka OR Staraya OR "Kas tsyanyovka" OR Luca OR Abramavshchyna OR Tosinkha OR Zenyapishka OR Šešuva OR "Vialikaya Lyabodka" OR Smalyanka OR Zuyka OR Pelyaka OR Lyadzinka OR Abalitsa OR Trascyanka OR Rudka OR Studzenka OR Mutvitsa OR Palanaya OR Zhigalka OR Ryschytsa OR Malūnkalnis OR Prusovka OR Šeimena OR Gardnitsa OR Garna-Zvonya OR Šalčykščia OR Piaschanka OR Laudė OR Reytavka OR Zaluzhanka OR Palavoyka OR Merachanka OR Syrmyazhka OR Ruma OR Trycavka OR Izva OR Pela OR Lysnytsa OR Igorka OR Snovka OR Viazenskaya OR Igara OR Navumka OR Oksna OR Chaplya OR Yabloňovka OR Dzharazanka OR Rezemlya OR Spengla OR Plishcha OR Wierśnianka OR Goldayuka OR Biarosa OR Skirmantavka</t>
+  </si>
+  <si>
+    <t>Shu OR Chu OR Chui OR SHUR OR Chong-Kemin OR Kara-Kuzhur OR Aspara OR Söök OR Kara-Balta OR Joon-Aryk OR Ala-Archa OR Alamedin OR Ak-Suu OR "Kichi Kemin" OR "Rgayty" OR "Kishy Kemin" OR Kochkor OR Soğandy OR Norus OR Karakol OR Karakunuz OR Karabalta OR Shamshy OR Kegeti OR Chong-Kayynady OR Tyuk OR "Shorgo" OR Tegirmenti OR Kalguty OR Issyk-Ata OR Zhartash OR "Toktasy" OR Kaiyngdy OR Qaqpatas OR Kokpatas OR Salyk OR Turán OR Kashka-Su OR "Ak-su" OR "Ukuk Chygysh" OR Ukuk OR Achiktaš OR Kuyamat-Kyrkool OR Chunkurchat OR Ysyk-Ata OR Kokuy-Bulak OR Tülok OR Tuyuk OR Sargou OR "Chygysh Karakol" OR Yssyk-Ata OR Byty OR Tuyyk-Almaty OR Kyzyl-Suu OR Zindiy-Suu OR Maybulak OR Kokadyr OR Uzungyr OR Karağayly OR Kashka-Suu OR "Beriktas" OR Kakpatas OR "Severnyy KoySuu" OR Orto-Kayynady OR Kyzylkaynar OR Kashkelen OR "Zhanylsay" OR Tortunchu-Koyсу OR Bek-Too OR Chetindi OR Almaty OR "Uch Bulak" OR Altaygir OR Buzulgan-Say OR Talday-Bulak OR "Altyn tor" OR Tunkzhar OR Shalak-Kayynady OR Duryoo OR Zhayay OR Ak-Tashkara OR Chimbulak OR Ashutor OR "Tuktu Gur" OR Zhekendy OR Oktorkey OR Kely-Almaty OR Kuturgansu OR Kyzylsuyu OR "Zapadnyy Cholpon-Ata" OR "Bolshoy Chuiyskiy" OR Betonnyy OR "Pravaya vetka" OR Georgiyevskiy OR Osmon OR "Qarasu kanaly" OR "Levaya vetka" OR "Yuzhnyy Bolshoy Chuyskiy" OR "Otvod bolshogo chuyskogo kanala" OR "Vostochnyy Bolshoy Chuiyskiy" OR Shamen OR Chupra OR "Malyy Chuyskiy" OR "Sredniy Bolshoy Chuiyskiy" OR "Ortotoy suu saktiyachy nyn dambasы" OR Konorchek</t>
+  </si>
+  <si>
+    <t>Tjeroaka-Wanggoe OR Maro</t>
+  </si>
+  <si>
+    <t>Tumen OR "Tumen Jiang" OR Duman-gang OR Gayaha OR Seodusoo OR "Hunchun He" OR yeonmysu OR "Hua Pi Dian Zi He" OR Hailanhe OR Mijiang OR Oryungcheon OR "Da Wang Qing He" OR Hongdansu OR Boeolcheon OR Tumannaya OR "Lanjia Tangzihe" OR Qianhe OR Jongseonggang OR Shajinhe OR Hailanjiang OR "Hongqi He" OR "Bu'erhatong He" OR Yongcheoncheon OR "Zhongping He" OR Sangseongcheon OR Sungcheon-su OR Hakpocheon OR Liudonghe OR "Yueqing Gou" OR Hwilyeongcheon OR Changrenhe OR Paljeochun OR Ludaohe OR quanhe OR HuaShuGou OR Yongnamcheon OR "Mì Jiāng" OR "Xiao Xizhuan Chaha" OR "Hailan He" OR "Guangzhao Ganqu" OR "Weixin Ganqu" OR "Dongcheng Hao Ganqu"</t>
+  </si>
+  <si>
+    <t>Alakol OR Emil OR Tentek OR Kökterek OR "Emenhe Emil Wozani" OR Tastaу OR Egin-su OR Urjar OR "Ay" OR "Kala Yemule He" OR "Kara buta" OR imin OR Eminhe OR Bogubay OR "Kusak" OR Yrgayty OR "Karasu" OR Wulashaitaihe OR Kusak OR "Kyzyl Tenteq" OR "Tasi He" OR "Tieleketi He" OR Kyzyltal OR Sarymsakty OR "Chahantuo Gai He" OR Jiegelhe OR Ezynbulak</t>
+  </si>
+  <si>
+    <t>Oulu OR Oulujoki OR Emäjoki OR Kiiminkijoki OR Sanginjoki OR Aiittojoki OR Lietejoki OR Heinijoki OR Utosjoki OR Mustajoki OR Kivijoki OR Muhosjoki OR Miesjoki OR Mainuanjoki OR Kalliojoki OR Myllyjoki OR Pohjajoki OR Mikitänjoki OR Hiisijoki OR Nuorittajoki OR Hietajoki OR Tipasjoki OR Hossanjoki OR Potkunjoki OR Roukajoki OR Vuolijoki OR Saarijoki OR Väljänjoki OR Jormasjoki OR Kiehimänjoki OR Kutujoki OR Joutenjoki OR Laajanjoki OR Kaiskonjoki OR Karttimonjoki OR Alajoki OR Latvajoki OR Syväjoki OR Naamanjoki OR Paatinjoki OR Särkijoki OR Purasjoki OR Lapinlamminjoki OR Koskenjoki OR Pienijoki OR Louhenjoki OR Nimisjoki OR Karhujoki OR Lahnajoki OR Yrjänänjoki OR Timpinjoki OR Korpisenjoki OR Selkäjoki OR Syväoja OR Lehdonjoki OR Äylänjoki OR Kamennaya OR Poikajoki OR Säynäjäjoki OR Saunajoki OR Tuomijoki OR Somerjoki OR Kurzma OR Kellojoki OR Juurikkajoki OR Nuottijoki OR Jänisjoki OR Kesselinjoki OR Liminpuro OR Peranganjoki OR Sutisenjoki OR Netouvenjoki OR Kaihlasjoki OR Palosenjoki OR Siikajoki OR Iijoki OR Kiekinjoki OR Kiekinkoski OR Isojoki OR Siltajoki OR Ontojoki OR Löytöjoki OR Hakojoki OR Kinnusenjoki OR Varisjoki OR Sakaranjoki OR Kotijoki OR Säynäänjoki OR Taivaljoki OR Raatejoki OR Kumpusenjoki OR Kuomanjoki OR Kongasjoki OR Hukkajoki OR Sorsuanoja OR Rimpijoki OR Rytipuro OR Mäntypuro OR Niettuspuro OR Martinjoki OR Heinäjoki OR Mahakkaanjoki OR Rimminjoki OR Karhupuro OR Kuivapuro OR Rautaisenpuro OR Rauhionpuro OR Pääpuro OR Pajupuro OR Kellopuro OR Koivuoja OR Särkioja OR Korpisenoja OR Alanteenjoki OR Kaupunginoja OR Repopuro OR Välioja OR Hangaspuro OR Sinteenpuro OR Matalanjoki OR Kylmänjoki OR Kypäräpuro OR Mustalaispuro OR Lyhepuro OR Lähtevänoja OR Huuhilonpuro OR Savipuro OR Viiksimonjoki OR Törsämönpuro OR Itäoja OR Oisavanoja</t>
+  </si>
+  <si>
+    <t>Maritsa OR Tundzha OR Ebros OR Meriç OR Arda OR "Ergene Nehri" OR Topolnitsa OR Erythropotamos OR Sazliyka OR "Corlu Cayi" OR Chepelarska OR Striyama OR Biala OR Vacha OR Vrbitza OR Kharmanliyska OR Stara OR Mochuritsa OR Chepiniska OR Blatnitsa OR Tunca OR Cherna OR Banska OR Tumrashka OR Tuzha OR Starata OR Sokolitsa OR Perperek OR Ardas OR "Luda reka" OR Radova OR Piaschnik OR Erma OR "Strelchanska Luda Yana" OR Srebra OR Fisher OR Topolnitsa OR Belenska OR Popovska OR Omurovska OR "Tunca Nehri" OR Yugovska OR "Luda Yana" OR Ovcharytsa OR "Panagurska Ludya Yana" OR Manastirska OR Elkhovska OR Bereereiska OR Belyata OR Krumovitsa OR Gyurla OR Devinska OR Metchka OR Turiska OR "Chiflishko dere" OR Mutnitsa OR Mъtivir OR Tvardishka OR Esenska OR Manina OR Azmaka OR "Banska Luda Yana" OR Mirkovchitsa OR Zlatishka OR Kayałyka OR Vetrenskaya OR Eninskaya OR Liaskovska OR Asenovska OR "ortashkoto dere" OR Ochushnitsa OR Selchenska OR Kaskovska OR Bunovchitsa OR Vargopiska OR Chernata OR Sarashliyska OR Merichlerska OR Bedechka OR Golyama OR Konakdere OR Uste OR Kalamitsa OR Trigradiska OR Kamienyska OR Kamennata OR Goliamata OR Dormushëva OR "Khambar Dere" OR Slavci OR Toplata OR Küdere OR Krivaya OR Tikla OR Yavoritsa OR Zhyltusha OR Fotinskaya OR Chekhlariska OR Sukhata OR Malkata OR Borovinska OR Rahmanska OR "Ova Çayı" OR Ostromogil'ska OR Borushenska OR Leshnitsa OR Sinapovska OR Yavorovska OR Ana OR Söğütlük OR Hayrabolu OR Diabolorrhema OR "Teke Çayı" OR Potoka OR Levchenska OR "Ana Dere" OR Demirhanlı OR Keşan OR Kolen'ska OR Nevolya OR Cayirdere OR Üsküp OR Selskata OR Kalnitsa OR Lüleburgaz OR Tekiriska OR "Lyubnisheski dol" OR "Kara Dere" OR Armirra OR Baba OR Kuleli OR Mekhenska OR Cevizlik OR Sarp OR "Kanlı Dere" OR Mustafova OR Sel'ska OR Staykovitsa OR Babaeski OR Hamam OR Dylga OR "Sladkoto dere" OR Kashludere OR Vrâbница OR Paşa OR Tupavicite OR Ova OR Vinarovska OR "Kör Dere" OR Ağıl OR Sorkundere OR Elshishka OR Lukovitsa OR Armira OR "Kamenito dere" OR Yoncalı OR Kurudere OR "Zhlotoezeren potok" OR Dobralı OR Ruzhanska OR Karaağaç OR Hünkarkavağı OR "Değirmen Dere" OR "Svinarsko dere" OR Izurska OR "Kucheshko dere" OR "Kopryu dere" OR Söğütlü OR Şeytan OR Sushitza OR "Beglik dere" OR "Kuru Dere" OR "Pavel dere" OR Büyükkarıştıran OR Imamciftligi OR "Kala vashchitsa" OR Korlevitsa OR Yörük OR Kalyugerska OR Padesh OR Bölükler OR Kavaklı OR Ablanitsa OR Sazli OR Evrensekiz OR "Chinar dere" OR Kurutmaı OR "Tatlъ dere" OR Burak OR Debeliska OR Ambar OR Gradetchka OR Medetska OR Osmaniye OR Saranlı OR "Boev Dol" OR Safaalan OR Menteş OR Gabrovnitsa OR Mechka OR "Ayana Dere" OR Dlъbochiza OR "Tolkovo dere" OR Bostanlık OR Manastirska OR Enyark OR "Dylga vada" OR Topolnitsa OR Stryma OR Тополница OR Стряма OR Dolboka OR "Kuru dere" OR "Naporan truboprovod" OR Sulamaı OR "Stena yazovir Trakiecz" OR "Saksağan Dere" OR "Gülbahçe Mahallesi Çatağı"</t>
+  </si>
+  <si>
+    <t>Kura OR Araks OR mtkvari OR Aras OR Kür OR "Alazani - Qanıx" OR iori OR Alazani OR Araz OR "Arāz - Ārās" OR "qarah so" OR Araxes OR khrami OR "Kura Nehri" OR Faravani OR aragvi OR Akhuryan OR "Aras Nehri" OR "Kars Çayı" OR kvabliani OR Arpaçay OR Qabırlı OR "Arāz Chāyī" OR ars OR Chyshandon OR algeti OR "Tertter cayi" OR "Qabrlı çayı" OR Aghstev OR "Styr Leuahi" OR Eryichay OR "fsavi aragvi" OR Potskhovi-sq'ali OR mashavera OR Tedadmi OR Kürəkçay OR Akhurian OR Hrazdan OR Gujaratisqali OR ktsia OR Şəmkirçay OR Məzimçay OR ilito OR debeka OR Getic OR abastumani OR Göyçay OR Arğalı OR uraveli OR "Tetri Aragvi" OR Apaqs OR Xacincay OR Patsaa OR Pambak OR tana OR Arpa OR Debed OR Girdimançay OR Orotan OR matsimisstqali OR Lehura OR Gencay OR Türyançay OR Bazarçay OR Mastara OR chailuri OR Alicançay OR "Chysyl Leuahi" OR "argine chay" OR storī OR "Medzyda - Medjuda" OR Vedi OR "Posof Çayı - fotxovi-sqali" OR Baralthisq'ali OR liakhvi OR Zeyamchay OR "cheremisi xevi" OR Bagirsak OR Gilançay OR Azat OR mlashetqali OR Kvabliani OR "Naxçıvan çayı" OR fca OR Sevjur OR Tutqun OR Qaradağlı OR Shulaveri OR Elincay OR k'sani OR adzediti OR Melri OR Arkhasheni OR Khrami OR "dasiwletis fronе" OR Todzikhi OR Shuakhrami OR Oskepar OR "Karahan Çayı" OR orvili OR Həkəri OR turdō OR debeda OR murjakhetisstqali OR lopota OR lekhura OR Geghi OR Naxçıvançay OR "Nadus Suyu" OR Tovuzçay OR gishisstqali OR "Buyuk Cai" OR dzindze OR suramula OR "Balaken çay" OR Chichkan OR Qanıx OR "Astaeukkag Prone" OR Kabalis-Toti OR "Hasankale Çayı" OR Turağayçay OR "Posof Çayı" OR Katexçay OR Sagami OR Qarqarçay OR Karaçayır OR Badaraçay OR samqura OR tiraldi OR nedsvisxevi OR "Agsu cayi" OR Kura-Balka-Kamenitskaya OR lotchini OR chelti OR "Krmızı Dere" OR "bugdasheni - Bugdashenchi" OR "Aghmotsavletis Fronte" OR Kochki OR lakbe OR Laqodexisskali OR Varagadzur OR "Zivin Çayı" OR "Tikanli Cay" OR Koghby OR Kusno OR Tsav OR Shavtskarostskali OR Quruçay OR "Styr Leuahi - Bolshaya Liakhvi" OR "patara liaxvi" OR kabali OR intsooba OR "Shromis Xevi" OR Karkar OR "Gudisy don" OR vere OR "Baliqlo Chay" OR avanisxevi OR Tkhinala OR "Skæsæn Pronе" OR Babağançay OR Katexisstqali OR "shavi aragvi" OR Bəsitçay OR Qaraçay OR Tərtər OR "Cotsuyu Çayı" OR Tchochianisi OR Kiriaksu OR kisisxevi OR mejudaa OR Kodalistskali OR Cəyirçay OR Kabali OR Kürmükçay OR tqemlovnisstqali OR Masrik OR atrevi OR vera OR Tavush OR Gargarchay OR Darçay OR "mdinare jangirsu" OR "Khevshis khevi Riv." OR afen OR Qoşqarçay OR chikhoriashi OR Gedebeyçay OR chumateleti OR Oxçuçay OR "Kür Çayı" OR arqala OR oshora OR "Chvarebis Tskali" OR gumbati OR "Nyguylan Prone" OR Cerekən OR Zeteva OR Kelalchay OR Tezami OR Dzomagdon OR Agdabançay OR Xəlfəliçay OR khnchorut OR Tvalti-kevi OR Tosha OR Khacharzan OR Tvalt-Khevi OR Bumçay OR Şromisxevi OR dzama OR Tsverukhnisghele OR "Goy Chay" OR "md. baisubani" OR "gudamaryis aragvi" OR "Incə çayı" OR shromisxevi OR chili-chili OR "bzis tsqali" OR Khev-Grdzeli OR "mdinare tiselis gelle" OR Oghji OR Shorokhevi OR chivchavi OR Duruji OR "Balhili Chay" OR Vararak OR Qaraqaya OR Kolatağ OR Lev OR Qarqar OR Shikahogh OR Kashuni OR ozni OR Sinçay OR Değirmen OR duruj OR Gogaran OR Badaçay OR Ballıca OR Achanan OR "gldanis xevi" OR Aleura OR narekvavi OR "Karasu Cai" OR Ziyaret OR "shva fronе" OR Bəhməzçay OR torqla OR Kalachay OR "Aralık Çayı" OR Herher OR bugdasheni OR Beikuchai OR Gosh OR Araqçay OR Tüilyana OR "vantisi khavi"</t>
+  </si>
+  <si>
+    <t>Irrawaddy OR "kyin gyin tawn mway" OR tharaylimyin OR mabumyit OR "N'Mai Hka" OR Longchuanjiang OR mwaythi OR "Mali Hka" OR Ayeyarwady OR hlaingyay OR nay OR "Ta Rung Hka" OR "Tai Ping Jiang" OR Manipur OR "Mingtanyi Byin" OR Nanwanhe OR lajabdaingyin OR Tizu OR taphayinmri OR "Log Lai Hka" OR Dulongjiang OR yawaingyi OR "Chaung Ma Gyi Chaung" OR ဧရာဝတီမြစ် OR Mu OR thandawaddytharyatkyin OR moychaingyi OR mumyit OR "Kelonglong He" OR "Ruili Jiang" OR thamnyu OR "Nam Hkai" OR "Mo Le" OR shakinyayang OR "Nam Tamai" OR Yu OR Mon OR "Nam Taik" OR "khakaborazi national park" OR "Nam Yak" OR "hlaingyi nayik" OR "khakabo razi" OR "N'mai tributary" OR thaybyan OR "Ta Zu Wang" OR Mone OR Iril OR lincyin OR "Dulongjiang Zhiliu" OR Ridonghe OR nammyitkyaung OR "Sak Se Hka" OR "Nantaleik Chaung" OR Namtu OR "Sin Kan Chaung" OR "Ta Ron Hka" OR "Nam Yao" OR "pyadu kyi tawng" OR "Hpaungma Hka" OR "Wandeng He" OR "naypya naypya" OR manyayang OR "Naymyetha Myitkyina" OR "Dulong Jiangnanzhi" OR "Nam Hkao" OR Ponn OR "Nam Tu" OR "Ji Tai He" OR "Tisawang Yü" OR mamnway OR "thariky dawngyi" OR "Namkawng Chaung" OR "Ge Du Hka" OR "Chi Pwi Hka" OR tanaing OR dawdawngyun OR lamaybawgyein OR "Xisha He" OR "Nan Ton Tun" OR "Nam Panga" OR "Nam Paw" OR "Tai Yong Yu" OR besa OR Mabilo OR "Ye Wa Chaung" OR "Chaung Magyi" OR "Tsiwang Yü" OR "Tanai Hka" OR "Ahk Yang Ti" OR "Bu Yo Chaung" OR "Sa Nip Hka" OR hlaingwetlantayin OR "Nan Pa Chaung" OR "Takyem Hka" OR "Taga Hka" OR "kyaungpya kyaungpya" OR "Nan Maw Chaung" OR "Pa Yan Pa Ga" OR kyinmatakyin OR sahpyitkyaung OR Taret OR Kelaoluoh OR ranpyitkyin OR "Nam Hsi Haw Chaung" OR lannwanybawdawngy OR river OR "Nam Pan Se Chaung" OR "Gok Twin Chaung" OR "NamYaung Hka" OR phanyayay OR Kyingkhran OR mamaybawgyin OR "Nan Ma Chaung" OR "Kelonglong He Zhi Liu" OR "Mwe Chaung" OR "Ngaw Chaing Hka" OR thaynba OR "Naga Chaung" OR sawbawgyi OR sintlawbawdawngy OR "Paung Aw Chaung" OR "In Baung Chaung" OR "Kauk Kwe Chaung" OR kula OR "Pya Malaw" OR "Mo Sit Chaung" OR Nampaung OR "myni bawngyin" OR "Khuileng Dung" OR "Yinn Chaung" OR "Tuisa Dung" OR Imphal OR "phannkayn mway" OR inhtdaungyin OR mandawngyin OR Nandaihe OR "Nawng Yang Hka" OR daungnaydawngyin OR Lokchao OR Nat OR namsaklaybawngyin OR thitkayin OR Mujuequ OR "Ka Byo Chaung" OR "Yin Ye Chaung" OR "Sa Lak Hka" OR "In Ge Ni Chaung" OR "Jia Ruò" OR tharyayay OR kyaungyin OR "Mei Xue" OR "Kawāla Hka" OR "Naneka Chaung" OR "Nam Myit Chaung" OR "Zhu Xia Ma He" OR "Seik Htein Chaung" OR "Ye Ta Gun Chaung" OR Tinzin OR "Son Chaung" OR "Nga Lang Hka" OR "Shwe Chaung" OR saintlaw OR sadayay OR "Shin Chaung" OR nammyatthi-kyin OR "Let Pan Chaung" OR Lainyi OR "Nan Guan He" OR "Nam Yi" OR "Nam Hkong" OR "Nam Koal" OR "Nam Man Pat" OR pharnatdaungyay OR Makao OR manayangbin OR "Nam Ya" OR "Nawng Jai Hka" OR "Chilachi Chaung" OR tharaybawngy OR "Nan Ka Tha Chaung" OR thlankhantkyan OR "east Ma Kaw" OR "Sa Don Chaung" OR "Tiwan Lam" OR east OR Tsutha OR "Phil Lui" OR "Myay Nu Chaung" OR "Tuileng Dung" OR "Kana Lok" OR Tengyuehe OR Chakpi OR "Chaung Thon Se Chaung" OR Khuga OR naykyin OR "On Ta Zu Chaung" OR nannayinbawgyein OR "Salaw Wang" OR "La Wang" OR "La Waing" OR moymawgyi OR "Dat Taw Chaung" OR Daungmyu OR "Ma Kyaung" OR "Maw Kyaung" OR "Muk Hkaung Kyaung" OR "Shadong He" OR "Deg Ling Wang" OR MeiXueB OR Dulonggu OR "Nyaw Myaw Hka" OR "Khunou Khong"</t>
+  </si>
+  <si>
+    <t>Venta OR Abava OR Vadakste OR Vadakstis OR Virvyčia OR Varduva OR Ciecere OR Ezere OR Dabikinė OR Lētīža OR Zaņa OR Vēždūka OR Ēnava OR Amula OR Klūga OR Kvistė OR Vēdzele OR Ēda OR Imula OR Vārme OR Ašva OR Dzirnavupe OR Kamārce OR Kaža OR Koja OR Losis OR Lūšis OR Riežupe OR Sprincupe OR Viesata OR Avīkne OR Dūre OR Garūdene OR Lejējupe OR Līgupe OR Mazupe OR Mērgava OR Packule OR Pūre OR Rudupe OR Sumata OR Sārcene OR "Sēmes upe" OR Valgale OR Veģupīte OR Virbupe OR Īvande OR Šķērvele OR Ringuva OR Viešetė OR Šerkšnė OR Aunuva OR Gansė OR Lušinė OR Tausalas OR Varmė OR Varnelė OR Vēršāda OR Agluona OR Bikstupe OR Burbulis OR Ilga OR Maidenis OR Mežupīte OR Miežupė OR Nakačia OR Pievys OR Robalts OR Saldupis OR Sruoja OR Trikogalas OR Upyna OR Ķīse OR Avižlys OR Bakūze OR "Benaišu strauts" OR Burbesis OR Buļļupe OR Būgenis OR Domantas OR Domija OR Drūktupis OR "Dārtsmuižas strauts" OR Girupis OR Giršupis OR Gūragys OR Gūžė OR Juodė OR Kalupis OR Karklupis OR "Kazenieku strauts" OR Kazupe OR Kiaulupis OR Krieviņupe OR Kumulša OR "Kurzemnieku strauts" OR Kutuvis OR Laurupīte OR Luoba OR Mergupis OR "Naujoji Agluona" OR Ozolupe OR Padure OR Purvas OR Pīkstupe OR Ramočia OR Rešketa OR Roja OR Rąžuolė OR Sietuvos OR Skalde OR Starkupis OR "Stujų upalis" OR Stulpas OR Svaigė OR Trimėsėdis OR Velda OR Šilupis OR Šona OR Šventupys OR Šėkštys OR Žaigis OR Žaras OR Žemalupis OR Žižma OR "Žīdu strauts" OR "Dubysos-Ventos perkasas" OR "Dumpju strauts" OR "Purmalu grāvis"</t>
+  </si>
+  <si>
+    <t>Danube OR Dunărea OR Dunaj OR Prut OR Sava OR Donau OR Dunav OR Olt OR Siret OR Duna OR Tisza OR Mureș OR Drava OR Inn OR Drina OR Ialomița OR Iskъr OR Hron OR Kupa OR Isar OR Váh OR Jiu OR Enns OR Timiș OR Una OR Bistrița OR Ipeľ OR Dráva OR Bosna OR Someș OR Salzach OR "Juzhna Morava" OR Mur OR "Velika Morava" OR Rába OR Vrbas OR Kolpa OR Argeș OR "Zapadna Morava" OR Morava OR Tisa OR "Crișul Alb" OR Drau OR Lech OR Ipoly OR Moldova OR Mura OR Vit OR "Râul Vedea" OR Zala OR Osym OR Lim OR Gail OR "Râul Trotuș" OR Ibar OR Ogosta OR Hornád OR "Deutsche Thaya" OR Altmühl OR Krka OR Regen OR Nera OR Mlava OR Pek OR Timok OR Ybbs OR Dyje OR Sió OR "Chornyy Cheremosh" OR Iller OR Jijia OR Zagyva OR Hármas-Körös OR Kamp OR Naab OR Suceava OR "r. Yantra" OR Schwarzach OR Gurk OR Prahova OR "Brațul Măcin" OR Pielach OR "r. Tibriza" OR Vils OR Rositsa OR Nitra OR Möll OR Salza OR Amper OR Dâmbovița OR Česma OR Cerna OR Ciuhur OR Tamish OR "Râul Mureș" OR Buzău OR "Someșul Mic" OR Vuka OR Rott OR Raab OR Amaradia OR Feistritz OR Waldnaab OR Krems OR Orava OR Skut OR Crasna OR Vaserul OR Traun OR Cahul OR Caraș OR Yantra OR Lavant OR Kapos OR Cheremosh OR Ammer OR Borzhava OR Hernád OR Wörnitz OR "Râul Gilort" OR "Râul Bârlad" OR Șușița OR "Morava e Binçës" OR "Brațul Borcea" OR "Bistrița Aurie" OR "Râul Buzău" OR Rasina OR Moravitsa OR Olteț OR Lăpuș OR "Jiul de Vest" OR "Râul Jiu" OR Calmațui OR "Beli Lom" OR "Svrlijinski Timok" OR Szamos OR Bega OR Sutla OR Visceu OR "Beli Timok" OR "Kiliyske girolo" OR Bistra OR Sotla OR Paar OR Lafnitz OR Motru OR "Maliki Iskъr" OR "Râul Desnățui" OR "Sava Bohinjka" OR Orljava OR Kis OR Kysuca OR "Brațul Sfântu Gheorghe" OR Isen OR "Crni Timok" OR "Sava Dolinka" OR Vidima OR Brenz OR "Große Mühl" OR Tara OR Putna OR Riß OR Hârtibaciu OR "Dunav - Dunărea" OR Maros OR Almaș OR Mosoni OR Bahlui OR Lotru OR Schwarza OR Dravinja OR Jihlava OR "Schwarze Laber" OR Neajlov OR Bârlad OR "Bilyy ChereMosch" OR "Schwarzer Regen" OR Slatina OR Kolubara OR "Bâsca Mare" OR Turiec OR Lom OR Rositsa OR Unac OR "Biela Orava" OR "Râmnicu Sărat" OR Lauchert OR Savinja OR Isel OR "Großer Regen" OR Tinja OR Körös OR Loisach OR "Someșul Cald" OR Kettős OR Ukrina OR Haidenaab OR Trisanna OR Ziller OR Vučica OR Kettős-Körös OR "Râul Negru" OR "Râul Doamnei" OR Krapina OR Triesting OR Mangfall OR Alm OR Wertach OR Llap OR Erlau OR Bednja OR Steyr OR Waldaist OR Ráckevei OR "Poljanska Sora" OR Soroksári OR Botunya OR Abens OR Studeniца OR Dunay OR DraKulya OR Topolog OR "Râul Tismana" OR "Râul Bahna" OR Topolnița OR Ranna OR Pitze OR Glina OR Alz OR Drincea OR Breg OR Bodrog OR Zusam OR Ialpug OR "Râul Cotmeana" OR "Râul Târgului" OR "Velika Ukrina" OR "Ötztaler Ache" OR "Čierny Váh" OR Vilskanal OR Yasenica OR "Tiroler Achen" OR Zăbala OR Bașeu OR Varínka OR Jegrichka OR Meža OR "Kislytskyi rukav" OR Sitnicë OR Sunja OR "Malyy Syret" OR Ilm OR Ablach OR Ach OR Ostrach OR Pram OR "Râul Ialpugel" OR Eger OR Pinka OR Rißbach OR Erlauf OR Mirna OR "Große Lauter" OR Pesnica OR Pfreimd OR "Veliki Strug" OR Gruzha OR Mraconia OR Kokra OR "Kraszna folyó" OR Dulenka OR Cehotina OR Bălăsan OR "Râul Călmățui" OR "Rusenski Lom" OR Sovitsya OR Chamb OR Shashka OR "Paraul Blahnița" OR Suchava OR Putilka OR "Râul Teleorman" OR Revúca OR Szentendrei OR Resava OR Poganiș OR "Trgovischi Timok" OR Zamna OR Bârsa OR Sărata OR "Beli Vit" OR "Große Vils" OR "Beli Osym" OR Mostiștea OR Kirgiz-Kyrgyz</t>
+  </si>
+  <si>
+    <t>"Sungai Tami" OR Bewani OR Moso OR "Kali Grime" OR "Sungai Moso" OR "Kali Jaifuri" OR Sungai OR "Kali Kemiri" OR Tjahe</t>
+  </si>
+  <si>
+    <t>Brahmaputra OR Ganges OR Meghna OR "Yarlung Zangbo" OR Yamuna OR Ganga OR Barak OR Teesta OR Chambal OR Lohit OR "kushirara nadi" OR Diyung OR Son OR Disang OR Betwa OR "Surma Nadi" OR Kopili OR Subansiri OR Dhansiri OR "Burhi Dihing" OR Sike OR "Lhasa River" OR Tlawng OR Kameng OR Karnali OR Ajay OR Jaldhaka OR "Ni Yang Qu" OR Pengqu OR "Padma Nadhi" OR Tirap OR Sindh OR Bhagirathi OR Tons OR "yidong zangbu" OR Sangqu OR "nyang chu" OR "Noa Dihing" OR Ichamati OR "Burhi Gandak" OR "Duoxiong Zhangbu" OR "mDog dgzung btsang po" OR Doyang OR Ghaghara OR "Kopotaksha Nad" OR Jalangi OR "Xiba Xiaqu" OR "boroli nado" OR "DIKHOW NODI" OR "Kali Gandaki" OR Tzula-Dikhu OR Irang OR "Gongri Gabu Qu" OR "Parlung Zangbu" OR Kurung OR Atrai OR "Yamuna Nadhi" OR Umiam OR "Puna Tsang Chhu" OR Siyom OR Yamne OR Gomti OR Xiangqu OR Hooghly OR Lilongpuqu OR Melak-Jhanji OR Panyor OR "Kālīgaṇḍakī Nadi" OR "Arun Nadi" OR Ken OR Dibang OR "Meghna Nadi" OR Sharda OR Khowai OR Mahananda OR Barāk OR Laiwucangbu OR "nying chu nian chu he" OR Tuivai OR Jiri OR "Kortoya Nadi" OR "Yang Sang Chu" OR "Luozha Xiongqu" OR Siang OR Dri OR Simen OR "Nagar Nadī" OR Makru OR Sirapatang OR Champamati OR "Xia Bu Qu" OR "Bai Qu" OR Karatoya OR "Badal Nadhi" OR Kaliaghai OR "Drangme Chhu" OR "Jin zhu qu" OR "Par Nadi" OR "Dangqie Zangbu" OR Maquanhe OR "Lachen Chu" OR Tiding OR "Yargyap Chu" OR "een mogool" OR "rtakchok gtsang po" OR mathabhanga OR Gandak OR Tuirial OR Manu OR Laqu OR Damodar OR "Canyu He" OR Burai OR "Naxiong Zhangbu" OR Sankosh OR "ghaghat nadi" OR bumchu OR Narayani OR Puthro OR Alaknanda OR Tellu OR "Koay-Madhumati Nadhi" OR "Miling He" OR "Mei Qu Zhang Bu" OR Madhumati OR "Chai Qu" OR Hindon OR "Dakatira Nadi" OR Bewas OR Bhola OR Jamuna OR Zayü OR Kaliyani OR Tissa OR "Um Khen" OR Pakke OR Pachuk OR Pabbar OR "Sesa Nadi" OR Jatinga OR Papu OR Namphuk OR Koshi OR Sissari OR Mohana OR Niyikgong OR Sidana OR Pagladia OR "Jiangqu Zangbu" OR Bhairabi OR Punpun OR Bhairab OR "Jamunasheri Nadhi" OR Angong OR "Ngera Ama Chu" OR "Rongju Zangbu" OR "Ci Ba Gou" OR Rind OR Mayurakshi OR Siu OR Sengur OR "Kuri Chu" OR Jhanji-Melak OR Bansloi OR Ximōji OR "Bangali Nadi" OR "Di Chu" OR "gangri dakarpo chu" OR Tzurang-Bhogdoi OR Noboganga OR Bichom OR Tamsa OR "Xue Rong Zang Bu" OR Maidizangbu OR Simaaang OR "Safrai Nadi" OR "Amo Chu" OR Mahakali OR Jaiati OR Igo OR Sonar OR Giri OR Puthimari OR Beki OR "Dimau Nadi" OR "Nimu Maqu" OR "bruṅ la chu" OR Nagri OR "Bhairab Nad" OR "Zhu La Qu" OR "Jue Mu Qu" OR Umtru OR Daigurung OR Gangadhar OR "Hali (Lohit)" OR Longai OR Chandan OR "Mozhu Maqu" OR xiudaqu OR Khari OR Baghain OR Digaru OR Lubha OR "Brahmaputra Nadī" OR "Jia Bo Qu" OR Buqu OR Kubiqu OR Diphlu OR Gouranga OR Bargang OR Torsa OR "Gumāni Nadi" OR "Zang Chu headwater" OR "Rampa Chhongpo" OR Siring OR Arpong OR "Diroi Nadi" OR "Dui Long Qu" OR "Majiā Zangbu" OR "Dhauli Ganga" OR Mao OR Rangit OR "Jema Yungtsang" OR "Karwan Nadi" OR Dikari OR "Dui Pu Qu" OR Saye OR Siku OR Kajap OR Kamla OR Aai OR Dav OR Sonāi OR "Sangu Lok" OR Baralia OR Kulsi OR "Padma Nadi" OR "Cheng Xiong Qu" OR "LinZhi BaNongQu" OR Kundil OR "Mai Khola" OR Dikrong OR Digo OR "Yanlang Zangbu" OR "Badrabati Nadhi" OR "Da Chu" OR Mahur OR Atari OR Lali OR Khulsi OR "Yobung Korong" OR Khaiara OR Lugonghe OR Bhogdoi OR Luohuo OR duoqu OR Kurik OR Sumhāk OR Sibar OR "Gabharu Nadi" OR Tuni OR Delei OR "Chumo Chu"</t>
+  </si>
+  <si>
+    <t>"Rann of Kutch" OR Luni OR Ghaggar OR Nara OR Ghagar OR Sukri OR "Char Dhoro" OR Jojari OR Kantii OR Tangri OR Markanda OR Jawai OR Sayala OR "rohri nahr" OR Rainee OR Sagarmati OR "Bargaon Nadi" OR Sukari OR Mithri OR Lilri OR Guhiya OR Abbasia OR "Sādiq Feeder" OR "Raipur Luni" OR Sarsuti OR Gadri OR "Ghaggar Channel" OR Sarasuati OR Bandi OR Ghaghar OR "Ghotki Feeder Kanal" OR Khari OR "Phunph Aria" OR "Janauli Nadi" OR Retra OR "Jhajra nadi" OR "Koshallia Nadi" OR "Pagna Nala" OR "Nandana Choe" OR Choe OR "Kuriyawala Bala" OR "Medkhali Nala" OR "Indira Gandhi" OR "Bikaner Lift" OR Hakra OR "Western Yamuna" OR Narmada OR "Karniji Distributary" OR Anupgarh OR "Sadiq Branch" OR Gang OR "Hala Branch" OR "Sunny Gunni" OR "Suratgarh Branch" OR Karniji OR "Hakra Branch" OR "PS Distributary" OR "raja waha" OR Phuleli OR "Gharat nehar" OR "BB Distributary" OR "Lakha Hakam Minor" OR "Gang Link Channel" OR "Malsar Distributary" OR "Bund Minor" OR "Bhompura Minor" OR Minor OR "GGS Refinery" OR TK OR Sirhind OR "Hyderabad Branch" OR "Akram Wah" OR "Akram Waah Askip" OR "F Distributary" OR "EE Minor" OR "Akram Waah" OR "Sim Nala" OR "Khadhar Distributary" OR "RB Main Minor (Sangrana)" OR "Churu Lift" OR "Shamgarh Minor" OR "Shahbaz Minor" OR "Madka Branch" OR "PP Minor" OR Sangrana OR Saim OR Askip OR "Kachchh Branch" OR "GB Minor" OR "Binjor Minor" OR Pabewari OR "Bondho Dhoro" OR "Odiano Distributory" OR "Sahari Minor" OR "Baror Minor" OR "Najib Waah" OR Kori OR "Bilochia Distributary" OR "Pirthisar Distributary" OR NN OR "Harami Nala" OR "Khirajsar Distributary" OR "SRDS Drainage" OR "FF Distributary" OR "Anupgarh Mionr" OR "FG-II Minor" OR "Sardarpura Distributary" OR "MM Minor" OR "GG-I Distributary" OR "H Distributary"</t>
+  </si>
+  <si>
+    <t>"Rach Giang Thanh" OR "sung prak thok mas" OR "Stung Prek Touk Meas River" OR "Sông Giang Thành" OR "sithong tanhun" OR "O Chruohmlu" OR "O Chruoh Roka" OR "Hà Tiên" OR "Kênh Rạch Giá" OR  "Kênh Vĩnh Tế"</t>
+  </si>
+  <si>
+    <t>Volga OR Oka OR Kama OR Moksha OR Vetluga OR Unzha OR Klyaz'ma OR Sura OR Kerzhenets OR Tyosha OR Samara OR Ufa OR Tsna OR Vyatka OR "Bol'shoy Irgiz" OR Pronya OR Chusovaya OR Sviyaga OR Akhtuba OR Kostroma OR Yeruslan OR Sok OR Moskva OR "Bol'shoy Cheremshan" OR Tok OR Belaya OR Ik OR Para OR Alatyr' OR P'yana OR Tereshka OR "Bol'shaya Kokshaga" OR Cheptsa OR Ushna OR Zusha OR Ugra OR Gus' OR Vad OR Nerl' OR Chagra OR Vishera OR Atmis OR "Bol'shoy Kinel'" OR Kolp' OR Seryozha OR Kos'va OR Lukh OR Chapayevka OR Sundovik OR Teza OR Upa OR "Malaya Kokshaga" OR Chyornaya OR Protva OR Rutka OR Pra OR Usta OR Myosha OR Syzranka OR "Malyy Irgiz" OR Torgun OR Kondurcha OR Kosa OR Uvod' OR Vokhma OR Kadada OR Kema OR Kishma OR Nyomda OR Obva OR Kotorosl' OR Solonitsa OR Issa OR Kud'ma OR Yayva OR "Bol'shoy Karaman" OR Buzha OR Izh OR Ilet' OR Kazanka OR Mera OR Uzola OR Sheshma OR Pyot OR Verda OR Osyotr OR Buzuluk OR Koloksha OR Shuya OR Barysh OR Borovka OR Buy OR Velet'ma OR Vorya OR Lopasnya OR Medveditsa OR Pozhva OR Suvoroshch' OR Uza OR Sheksna OR Siva OR Lomovka OR Nara OR Sivin' OR Tulva OR Surgut OR Tyrnitsa OR Usa OR "Bol'shoy Kundysh" OR Vatoma OR Ist'ya OR Kamelik OR Linda OR "Malyy Tsivil'" OR "Malyy Cheremshan" OR Neruch' OR Ranova OR Zay OR Timshor OR Chardym OR Lapshanga OR Sudogda OR Urolka OR "Bol'shaya Sul'cha" OR Zhizdra OR In'va OR Shanya OR Lup'ya OR Lyunda OR Mayna OR Osuga OR Ressa OR Tarusa OR Shuksha OR Yermish' OR Kubnya OR Neploža OR Peksha OR Resseta OR Sestra OR Bezdna OR Dubna OR Yenotayevka OR "Lesnoy Tambov" OR Narma OR Nugr' OR Pil'va OR Tvertsa OR Chernava OR Vozha OR Vol OR Dobritsa OR Korozhechna OR Loza OR Ozyorka OR Sarma OR Ust'ye OR Yushut OR Azyasy OR "Bol'shaya Kutra" OR Zhukopa OR Nerekhta OR "Solonaya Kuba" OR Typyl OR Utka OR Yug OR Velva OR Gzhat' OR Kolych OR "Lesnaya Sheshma" OR Ochyor OR Polya OR Porysh OR Seyma OR Sunzha OR Syuz'va OR Yolnat' OR Bakhtemir OR Zhelvata OR Inza OR Kad' OR Kirya OR Kishnya OR Luzha OR Mecha OR Penza OR Pyshchug OR Tashenka OR Urkat OR Shacha OR Yuronga OR Beryozovka OR "Bol'shaya Kaksha" OR Veslyana OR "Mokraya Mechetka" OR Moshna OR Neya OR Pesochnya OR Severka OR "Stepnoy Zay" OR Talovaya OR Tudovka OR Yunga OR Alay OR Besputa OR Bula OR Vashana OR Vorsha OR Voch' OR Vyla OR Zheleznitsa OR Izver' OR "Malyy Kundysh" OR Nakhoy OR Nor-Lomovka OR Raka OR Ruza OR Sumych OR Sukhodrev OR Shoksha OR Borovaya OR Zhizhala OR Karalyk OR Kasley-Kadada OR Las'va OR "Malaya Sviyaga" OR Nytva OR Poksha OR Saygatka OR "Severnyy Kozlenets" OR Skniga OR Snoved' OR Sutka OR Talaya OR Turgannik OR Bersut OR "Bol'shaya Shanga" OR "Bol'shoy Tsivil'" OR Vezloma OR Visha OR Gushcha OR Istra OR Kanadeyка OR Kondas OR Lamsha OR Styozhera OR S"yezzhanaya OR Techa OR Tomyshevka OR Truyov OR Tys'ya OR Ulema OR Unkor OR Chermoz OR Chern' OR Chus OR Shizhegda OR Aktay OR Aksha OR Ashit OR Bezenchuk OR Bizyuk OR "Bol'shaya Vyazovka" OR Verditsa OR Volosnitsa OR Dyorzha OR Zigannеk OR Ilevna OR Irovka OR Ista OR It' OR Karabulak OR Krushma OR "Malyy Atmis" OR Menya OR Solotcha OR "Sukhaya Ulema" OR Toyma OR Cheka OR Sheldais OR Shosha OR Yukhot' OR Yachmenka OR Aleshnya OR Bekshanka OR "Bol'shaya Glushitsa" OR "Bol'shaya Kosha" OR "Bol'shaya Oshla" OR "Bol'shoye Smedovo" OR Volosta OR Dorogucha OR Yelshanka OR Imza OR Irdom OR Itomlya OR Kamenka OR Karmala OR Kashinka OR Kis'mes' OR Koldais OR Ksegzha OR Kuzhva OR Los'minka OR Maza OR Ryabka OR Satis OR Smedva OR Sulitsa OR Susha OR Syntulka OR Terengul'ka OR Tersa OR T'ma OR Upyorta OR Urga OR Usolka OR Tsivil' OR Chyormoz OR "Yuzhnyy Kozlenets" OR Ayva OR Bezmenets OR Belbazh OR "Bol'shaya Vorona" OR "Bol'shoy Avral'" OR Vyazdya OR Demina OR Karla</t>
   </si>
 </sst>
 </file>
@@ -3411,10 +3414,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3720,9 +3726,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="D296" sqref="D296"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="82.69140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -3798,13 +3809,13 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -3812,19 +3823,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -3832,19 +3843,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -3852,19 +3863,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -3872,19 +3883,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -3892,19 +3903,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -3912,19 +3923,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -3932,19 +3943,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
         <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -3952,39 +3963,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:7" ht="102" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -3992,19 +4003,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -4012,39 +4023,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
         <v>62</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
         <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -4052,19 +4063,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
         <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -4072,19 +4083,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
         <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -4092,19 +4103,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -4112,19 +4123,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -4132,19 +4143,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
         <v>83</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -4152,19 +4163,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -4172,19 +4183,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>88</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>89</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
         <v>90</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -4192,19 +4203,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
         <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -4212,19 +4223,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
         <v>96</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
         <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -4232,19 +4243,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
         <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -4252,19 +4263,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
         <v>104</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
         <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -4272,19 +4283,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
         <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -4292,19 +4303,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
         <v>111</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>112</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
         <v>113</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -4312,19 +4323,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
         <v>115</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" t="s">
-        <v>117</v>
-      </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -4332,19 +4343,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>119</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
         <v>120</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -4352,19 +4363,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
         <v>122</v>
       </c>
-      <c r="C32" t="s">
-        <v>123</v>
-      </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -4372,19 +4383,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
         <v>124</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>125</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
         <v>126</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -4392,19 +4403,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
         <v>128</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>129</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
         <v>130</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -4412,39 +4423,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
         <v>132</v>
       </c>
-      <c r="C35" t="s">
-        <v>133</v>
-      </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
         <v>134</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
         <v>136</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -4452,19 +4463,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
         <v>138</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>139</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
         <v>140</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -4472,19 +4483,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
         <v>142</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>143</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
         <v>144</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -4492,19 +4503,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
         <v>146</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>147</v>
       </c>
-      <c r="D39" t="s">
-        <v>148</v>
-      </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -4512,19 +4523,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
         <v>149</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>150</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
         <v>151</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -4532,19 +4543,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" t="s">
         <v>153</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>154</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
         <v>155</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -4552,19 +4563,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
         <v>157</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>158</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
         <v>159</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -4572,19 +4583,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
         <v>161</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
         <v>163</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -4592,19 +4603,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
         <v>165</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>166</v>
       </c>
-      <c r="D44" t="s">
-        <v>167</v>
-      </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -4612,19 +4623,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s">
         <v>168</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>169</v>
       </c>
-      <c r="D45" t="s">
-        <v>170</v>
-      </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -4632,19 +4643,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
         <v>171</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>172</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
         <v>173</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -4652,19 +4663,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s">
         <v>175</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>176</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
         <v>177</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -4672,19 +4683,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
         <v>179</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>180</v>
       </c>
-      <c r="D48" t="s">
-        <v>181</v>
-      </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -4692,19 +4703,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
         <v>182</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>183</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
         <v>184</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -4712,19 +4723,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
         <v>186</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>187</v>
       </c>
-      <c r="D50" t="s">
-        <v>188</v>
-      </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -4732,19 +4743,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" t="s">
         <v>189</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>190</v>
       </c>
-      <c r="D51" t="s">
-        <v>191</v>
-      </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -4752,19 +4763,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" t="s">
         <v>192</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>193</v>
       </c>
-      <c r="D52" t="s">
-        <v>194</v>
-      </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -4772,13 +4783,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
         <v>195</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>196</v>
-      </c>
-      <c r="D53" t="s">
-        <v>197</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -4792,39 +4803,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" t="s">
         <v>198</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>199</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
         <v>200</v>
       </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:7" ht="262.3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s">
         <v>202</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
         <v>204</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -4832,19 +4843,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" t="s">
         <v>206</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>207</v>
       </c>
-      <c r="D56" t="s">
-        <v>208</v>
-      </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -4852,19 +4863,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" t="s">
         <v>209</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>210</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
         <v>211</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -4872,19 +4883,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
         <v>213</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>214</v>
       </c>
-      <c r="D58" t="s">
-        <v>215</v>
-      </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -4892,19 +4903,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" t="s">
         <v>216</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>217</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
         <v>218</v>
-      </c>
-      <c r="E59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -4912,19 +4923,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" t="s">
         <v>220</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>221</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
         <v>222</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -4932,19 +4943,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" t="s">
         <v>224</v>
       </c>
-      <c r="C61" t="s">
-        <v>225</v>
-      </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
@@ -4952,39 +4963,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" t="s">
         <v>226</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>227</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
         <v>228</v>
       </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
         <v>231</v>
-      </c>
-      <c r="D63" t="s">
-        <v>232</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -4992,19 +5003,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" t="s">
         <v>234</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
         <v>235</v>
-      </c>
-      <c r="D64" t="s">
-        <v>236</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
@@ -5012,79 +5023,79 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" t="s">
         <v>238</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
         <v>239</v>
       </c>
-      <c r="D65" t="s">
-        <v>240</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
         <v>243</v>
       </c>
-      <c r="D66" t="s">
-        <v>244</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
         <v>246</v>
       </c>
-      <c r="C67" t="s">
-        <v>247</v>
-      </c>
-      <c r="D67" t="s">
-        <v>248</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
         <v>250</v>
-      </c>
-      <c r="C68" t="s">
-        <v>251</v>
-      </c>
-      <c r="D68" t="s">
-        <v>252</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
@@ -5092,19 +5103,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
         <v>254</v>
-      </c>
-      <c r="C69" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" t="s">
-        <v>256</v>
-      </c>
-      <c r="E69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
@@ -5112,79 +5123,79 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C70" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="364.3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C71" t="s">
-        <v>262</v>
-      </c>
-      <c r="D71" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C72" t="s">
-        <v>266</v>
-      </c>
-      <c r="D72" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C73" t="s">
-        <v>270</v>
-      </c>
-      <c r="D73" t="s">
-        <v>271</v>
+        <v>266</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
@@ -5192,19 +5203,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D74" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
@@ -5212,19 +5223,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
@@ -5232,19 +5243,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C76" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D76" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
@@ -5252,19 +5263,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D77" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
@@ -5272,19 +5283,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C78" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D78" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
@@ -5292,19 +5303,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C79" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D79" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
@@ -5312,19 +5323,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
@@ -5332,19 +5343,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C81" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D81" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
@@ -5352,19 +5363,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C82" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
@@ -5372,19 +5383,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C83" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D83" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
@@ -5392,19 +5403,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D84" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
@@ -5412,19 +5423,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C85" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
@@ -5432,19 +5443,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C86" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D86" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
@@ -5452,19 +5463,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D87" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
@@ -5472,19 +5483,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D88" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
@@ -5492,19 +5503,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C89" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D89" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
@@ -5512,19 +5523,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C90" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D90" t="s">
-        <v>328</v>
+        <v>1109</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
@@ -5532,19 +5543,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C91" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D91" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
@@ -5552,19 +5563,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C92" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D92" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
@@ -5572,19 +5583,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D93" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
@@ -5592,19 +5603,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C94" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D94" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
@@ -5612,19 +5623,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C95" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D95" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.4">
@@ -5632,19 +5643,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C96" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D96" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.4">
@@ -5652,19 +5663,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C97" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D97" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
@@ -5672,19 +5683,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C98" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D98" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
@@ -5692,19 +5703,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C99" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D99" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
@@ -5712,19 +5723,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C100" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D100" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
@@ -5732,19 +5743,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C101" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D101" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
@@ -5752,19 +5763,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C102" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D102" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.4">
@@ -5772,19 +5783,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C103" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D103" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
       </c>
       <c r="G103" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.4">
@@ -5792,19 +5803,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C104" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D104" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.4">
@@ -5812,19 +5823,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C105" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D105" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.4">
@@ -5832,19 +5843,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C106" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D106" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.4">
@@ -5852,19 +5863,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C107" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D107" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E107" t="s">
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.4">
@@ -5872,19 +5883,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C108" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D108" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.4">
@@ -5892,19 +5903,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C109" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D109" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.4">
@@ -5912,19 +5923,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C110" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D110" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.4">
@@ -5932,19 +5943,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C111" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D111" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.4">
@@ -5952,19 +5963,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C112" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D112" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
       </c>
       <c r="G112" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.4">
@@ -5972,19 +5983,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C113" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D113" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.4">
@@ -5992,19 +6003,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C114" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D114" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.4">
@@ -6012,19 +6023,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C115" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D115" t="s">
-        <v>419</v>
+        <v>1105</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.4">
@@ -6032,19 +6043,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C116" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D116" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.4">
@@ -6052,19 +6063,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C117" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D117" t="s">
-        <v>427</v>
+        <v>1108</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.4">
@@ -6072,19 +6083,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C118" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D118" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.4">
@@ -6092,19 +6103,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C119" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D119" t="s">
-        <v>434</v>
+        <v>1095</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.4">
@@ -6112,19 +6123,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C120" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D120" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.4">
@@ -6132,19 +6143,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C121" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D121" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.4">
@@ -6152,19 +6163,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C122" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D122" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E122" t="s">
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.4">
@@ -6172,19 +6183,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C123" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D123" t="s">
-        <v>450</v>
+        <v>1096</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.4">
@@ -6192,19 +6203,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C124" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D124" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
       </c>
       <c r="G124" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.4">
@@ -6212,19 +6223,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C125" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D125" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.4">
@@ -6232,19 +6243,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C126" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D126" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.4">
@@ -6252,19 +6263,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C127" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D127" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
       </c>
       <c r="G127" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.4">
@@ -6272,19 +6283,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C128" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D128" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.4">
@@ -6292,19 +6303,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C129" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D129" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.4">
@@ -6312,19 +6323,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C130" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D130" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
       </c>
       <c r="G130" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.4">
@@ -6332,19 +6343,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C131" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D131" t="s">
-        <v>478</v>
+        <v>1104</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.4">
@@ -6352,19 +6363,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C132" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D132" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.4">
@@ -6372,19 +6383,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C133" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D133" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.4">
@@ -6392,19 +6403,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C134" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D134" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
       </c>
       <c r="G134" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.4">
@@ -6412,19 +6423,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C135" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D135" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.4">
@@ -6432,19 +6443,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C136" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D136" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
       </c>
       <c r="G136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.4">
@@ -6452,19 +6463,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C137" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D137" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
       </c>
       <c r="G137" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.4">
@@ -6472,19 +6483,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C138" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D138" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.4">
@@ -6492,19 +6503,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C139" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D139" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.4">
@@ -6512,19 +6523,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C140" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D140" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
       </c>
       <c r="G140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.4">
@@ -6532,19 +6543,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C141" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D141" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.4">
@@ -6552,19 +6563,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C142" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D142" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
       </c>
       <c r="G142" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.4">
@@ -6572,19 +6583,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C143" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D143" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
       </c>
       <c r="G143" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.4">
@@ -6592,19 +6603,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C144" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D144" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E144" t="s">
         <v>10</v>
       </c>
       <c r="G144" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.4">
@@ -6612,19 +6623,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C145" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D145" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
       </c>
       <c r="G145" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.4">
@@ -6632,19 +6643,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C146" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D146" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
       </c>
       <c r="G146" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.4">
@@ -6652,19 +6663,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C147" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D147" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
       </c>
       <c r="G147" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.4">
@@ -6672,19 +6683,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C148" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D148" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
       </c>
       <c r="G148" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.4">
@@ -6692,19 +6703,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C149" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D149" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
       </c>
       <c r="G149" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.4">
@@ -6712,19 +6723,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C150" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D150" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
       </c>
       <c r="G150" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.4">
@@ -6732,19 +6743,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C151" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D151" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
       </c>
       <c r="G151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.4">
@@ -6752,19 +6763,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C152" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D152" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E152" t="s">
         <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.4">
@@ -6772,19 +6783,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C153" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D153" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E153" t="s">
         <v>10</v>
       </c>
       <c r="G153" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.4">
@@ -6792,19 +6803,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C154" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D154" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="E154" t="s">
         <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.4">
@@ -6812,19 +6823,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C155" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D155" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
       </c>
       <c r="G155" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.4">
@@ -6832,19 +6843,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C156" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D156" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="E156" t="s">
         <v>10</v>
       </c>
       <c r="G156" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.4">
@@ -6852,19 +6863,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C157" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D157" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E157" t="s">
         <v>10</v>
       </c>
       <c r="G157" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.4">
@@ -6872,19 +6883,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C158" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D158" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E158" t="s">
         <v>10</v>
       </c>
       <c r="G158" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.4">
@@ -6892,19 +6903,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C159" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D159" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E159" t="s">
         <v>10</v>
       </c>
       <c r="G159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.4">
@@ -6912,19 +6923,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C160" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D160" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="E160" t="s">
         <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.4">
@@ -6932,19 +6943,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C161" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D161" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
       </c>
       <c r="G161" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.4">
@@ -6952,19 +6963,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C162" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D162" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E162" t="s">
         <v>10</v>
       </c>
       <c r="G162" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.4">
@@ -6972,19 +6983,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C163" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D163" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E163" t="s">
         <v>10</v>
       </c>
       <c r="G163" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.4">
@@ -6992,19 +7003,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C164" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D164" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E164" t="s">
         <v>10</v>
       </c>
       <c r="G164" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.4">
@@ -7012,19 +7023,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C165" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D165" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E165" t="s">
         <v>10</v>
       </c>
       <c r="G165" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.4">
@@ -7032,19 +7043,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C166" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D166" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E166" t="s">
         <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.4">
@@ -7052,19 +7063,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C167" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="D167" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E167" t="s">
         <v>10</v>
       </c>
       <c r="G167" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.4">
@@ -7072,19 +7083,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C168" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D168" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E168" t="s">
         <v>10</v>
       </c>
       <c r="G168" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.4">
@@ -7092,19 +7103,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C169" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="D169" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E169" t="s">
         <v>10</v>
       </c>
       <c r="G169" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.4">
@@ -7112,19 +7123,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C170" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="D170" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="E170" t="s">
         <v>10</v>
       </c>
       <c r="G170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.4">
@@ -7132,19 +7143,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C171" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D171" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
       </c>
       <c r="G171" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.4">
@@ -7152,19 +7163,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C172" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="D172" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E172" t="s">
         <v>10</v>
       </c>
       <c r="G172" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.4">
@@ -7172,19 +7183,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C173" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D173" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
       </c>
       <c r="G173" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.4">
@@ -7192,19 +7203,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C174" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D174" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E174" t="s">
         <v>10</v>
       </c>
       <c r="G174" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.4">
@@ -7212,19 +7223,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C175" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="D175" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E175" t="s">
         <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.4">
@@ -7232,19 +7243,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C176" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="D176" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
       </c>
       <c r="G176" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.4">
@@ -7252,19 +7263,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C177" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D177" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
       </c>
       <c r="G177" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.4">
@@ -7272,19 +7283,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C178" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D178" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E178" t="s">
         <v>10</v>
       </c>
       <c r="G178" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.4">
@@ -7292,19 +7303,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C179" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D179" t="s">
-        <v>642</v>
+        <v>1103</v>
       </c>
       <c r="E179" t="s">
         <v>10</v>
       </c>
       <c r="G179" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.4">
@@ -7312,19 +7323,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C180" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D180" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="E180" t="s">
         <v>10</v>
       </c>
       <c r="G180" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.4">
@@ -7332,19 +7343,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C181" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="D181" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E181" t="s">
         <v>10</v>
       </c>
       <c r="G181" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.4">
@@ -7352,19 +7363,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="C182" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="D182" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
       </c>
       <c r="G182" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.4">
@@ -7372,19 +7383,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C183" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="D183" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="E183" t="s">
         <v>10</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.4">
@@ -7392,19 +7403,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C184" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D184" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
       </c>
       <c r="G184" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
@@ -7412,19 +7423,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="C185" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="D185" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
       </c>
       <c r="G185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
@@ -7432,19 +7443,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C186" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D186" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
       </c>
       <c r="G186" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
@@ -7452,19 +7463,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C187" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="D187" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E187" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="G187" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
@@ -7472,19 +7483,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C188" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D188" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
       </c>
       <c r="G188" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
@@ -7492,19 +7503,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="C189" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="D189" t="s">
-        <v>679</v>
+        <v>1097</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
@@ -7512,19 +7523,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="C190" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D190" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
       </c>
       <c r="G190" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.4">
@@ -7532,19 +7543,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C191" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D191" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.4">
@@ -7552,19 +7563,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C192" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="D192" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.4">
@@ -7572,19 +7583,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C193" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="D193" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E193" t="s">
         <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.4">
@@ -7592,19 +7603,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C194" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="D194" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
       </c>
       <c r="G194" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
@@ -7612,19 +7623,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C195" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="D195" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
       </c>
       <c r="G195" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
@@ -7632,19 +7643,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C196" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="D196" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="E196" t="s">
         <v>10</v>
       </c>
       <c r="G196" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
@@ -7652,19 +7663,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C197" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="D197" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="E197" t="s">
         <v>10</v>
       </c>
       <c r="G197" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
@@ -7672,19 +7683,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="C198" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="D198" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="E198" t="s">
         <v>10</v>
       </c>
       <c r="G198" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
@@ -7692,19 +7703,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C199" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="D199" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="E199" t="s">
         <v>10</v>
       </c>
       <c r="G199" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
@@ -7712,19 +7723,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C200" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="D200" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
@@ -7732,19 +7743,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C201" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D201" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
       </c>
       <c r="G201" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
@@ -7752,19 +7763,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="C202" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D202" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="E202" t="s">
         <v>10</v>
       </c>
       <c r="G202" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
@@ -7772,19 +7783,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C203" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="D203" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
       </c>
       <c r="G203" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
@@ -7792,19 +7803,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="C204" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D204" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E204" t="s">
         <v>10</v>
       </c>
       <c r="G204" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
@@ -7812,19 +7823,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="C205" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="D205" t="s">
-        <v>739</v>
+        <v>1102</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
       </c>
       <c r="G205" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.4">
@@ -7832,19 +7843,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C206" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="D206" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="E206" t="s">
         <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
@@ -7852,19 +7863,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="C207" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="D207" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
       </c>
       <c r="G207" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
@@ -7872,19 +7883,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C208" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="D208" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="E208" t="s">
         <v>10</v>
       </c>
       <c r="G208" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.4">
@@ -7892,19 +7903,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="C209" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="D209" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="E209" t="s">
         <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.4">
@@ -7912,19 +7923,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="C210" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="D210" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="E210" t="s">
         <v>10</v>
       </c>
       <c r="G210" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.4">
@@ -7932,19 +7943,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="C211" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="D211" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="E211" t="s">
         <v>10</v>
       </c>
       <c r="G211" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.4">
@@ -7952,19 +7963,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="C212" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D212" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="E212" t="s">
         <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.4">
@@ -7972,19 +7983,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C213" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="D213" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.4">
@@ -7992,19 +8003,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C214" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="D214" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="E214" t="s">
         <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.4">
@@ -8012,19 +8023,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="C215" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="D215" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
       </c>
       <c r="G215" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.4">
@@ -8032,19 +8043,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="C216" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="D216" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="E216" t="s">
         <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.4">
@@ -8052,19 +8063,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="C217" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="D217" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.4">
@@ -8072,19 +8083,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="C218" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="D218" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.4">
@@ -8092,19 +8103,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="C219" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="D219" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="E219" t="s">
         <v>10</v>
       </c>
       <c r="G219" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.4">
@@ -8112,19 +8123,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="C220" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="D220" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.4">
@@ -8132,19 +8143,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="C221" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="D221" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="E221" t="s">
         <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.4">
@@ -8152,19 +8163,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="C222" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="D222" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.4">
@@ -8172,19 +8183,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="C223" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="D223" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="E223" t="s">
         <v>10</v>
       </c>
       <c r="G223" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.4">
@@ -8192,19 +8203,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="C224" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="D224" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.4">
@@ -8212,19 +8223,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="C225" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="D225" t="s">
-        <v>807</v>
+        <v>1110</v>
       </c>
       <c r="E225" t="s">
         <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.4">
@@ -8232,19 +8243,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="C226" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="D226" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="E226" t="s">
         <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.4">
@@ -8252,19 +8263,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="C227" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="D227" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="E227" t="s">
         <v>10</v>
       </c>
       <c r="G227" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.4">
@@ -8272,19 +8283,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="C228" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D228" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
       </c>
       <c r="G228" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.4">
@@ -8292,19 +8303,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="C229" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="D229" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E229" t="s">
         <v>10</v>
       </c>
       <c r="G229" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.4">
@@ -8312,19 +8323,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="C230" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D230" t="s">
-        <v>825</v>
+        <v>1111</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
       </c>
       <c r="G230" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.4">
@@ -8332,19 +8343,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="C231" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="D231" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="E231" t="s">
         <v>10</v>
       </c>
       <c r="G231" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.4">
@@ -8352,19 +8363,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="C232" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="D232" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="E232" t="s">
         <v>10</v>
       </c>
       <c r="G232" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.4">
@@ -8372,19 +8383,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="C233" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="D233" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
       </c>
       <c r="G233" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.4">
@@ -8392,19 +8403,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="C234" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="D234" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.4">
@@ -8412,19 +8423,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="C235" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="D235" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
       </c>
       <c r="G235" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.4">
@@ -8432,19 +8443,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="C236" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="D236" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.4">
@@ -8452,19 +8463,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="C237" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="D237" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="E237" t="s">
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.4">
@@ -8472,19 +8483,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="C238" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="D238" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="E238" t="s">
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.4">
@@ -8492,19 +8503,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C239" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="D239" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="E239" t="s">
         <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.4">
@@ -8512,19 +8523,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="C240" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="D240" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="E240" t="s">
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.4">
@@ -8532,19 +8543,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="C241" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="D241" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="E241" t="s">
         <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.4">
@@ -8552,19 +8563,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="C242" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="D242" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="E242" t="s">
         <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.4">
@@ -8572,19 +8583,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="C243" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="D243" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="E243" t="s">
         <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.4">
@@ -8592,19 +8603,19 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="C244" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="D244" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.4">
@@ -8612,19 +8623,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="C245" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="D245" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="E245" t="s">
         <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.4">
@@ -8632,19 +8643,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C246" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="D246" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="E246" t="s">
         <v>10</v>
       </c>
       <c r="G246" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.4">
@@ -8652,19 +8663,19 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="C247" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="D247" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="E247" t="s">
         <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.4">
@@ -8672,19 +8683,19 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="C248" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="D248" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="E248" t="s">
         <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.4">
@@ -8692,19 +8703,19 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="C249" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="D249" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
       </c>
       <c r="G249" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.4">
@@ -8712,19 +8723,19 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="C250" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="D250" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="E250" t="s">
         <v>10</v>
       </c>
       <c r="G250" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.4">
@@ -8732,19 +8743,19 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="C251" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="D251" t="s">
-        <v>900</v>
+        <v>1098</v>
       </c>
       <c r="E251" t="s">
         <v>10</v>
       </c>
       <c r="G251" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.4">
@@ -8752,19 +8763,19 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="C252" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="D252" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="E252" t="s">
         <v>10</v>
       </c>
       <c r="G252" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.4">
@@ -8772,19 +8783,19 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="C253" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="D253" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="E253" t="s">
         <v>10</v>
       </c>
       <c r="G253" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.4">
@@ -8792,19 +8803,19 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
       <c r="C254" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="D254" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="E254" t="s">
         <v>10</v>
       </c>
       <c r="G254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.4">
@@ -8812,19 +8823,19 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="C255" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="D255" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="E255" t="s">
         <v>10</v>
       </c>
       <c r="G255" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.4">
@@ -8832,19 +8843,19 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="C256" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="D256" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
       </c>
       <c r="G256" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.4">
@@ -8852,19 +8863,19 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="C257" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="D257" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
       </c>
       <c r="G257" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.4">
@@ -8872,19 +8883,19 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="C258" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="D258" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E258" t="s">
         <v>10</v>
       </c>
       <c r="G258" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.4">
@@ -8892,19 +8903,19 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="C259" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="D259" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="E259" t="s">
         <v>10</v>
       </c>
       <c r="G259" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.4">
@@ -8912,19 +8923,19 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="C260" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="D260" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="E260" t="s">
         <v>10</v>
       </c>
       <c r="G260" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.4">
@@ -8932,19 +8943,19 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="C261" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="D261" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="E261" t="s">
         <v>10</v>
       </c>
       <c r="G261" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.4">
@@ -8952,19 +8963,19 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="C262" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="D262" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="E262" t="s">
         <v>10</v>
       </c>
       <c r="G262" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.4">
@@ -8972,19 +8983,19 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="C263" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="D263" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
       </c>
       <c r="G263" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.4">
@@ -8992,19 +9003,19 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="C264" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="D264" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="E264" t="s">
         <v>10</v>
       </c>
       <c r="G264" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.4">
@@ -9012,19 +9023,19 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="C265" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="D265" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
       </c>
       <c r="G265" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.4">
@@ -9032,19 +9043,19 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="C266" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="D266" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="E266" t="s">
         <v>10</v>
       </c>
       <c r="G266" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.4">
@@ -9052,19 +9063,19 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="C267" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="D267" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="E267" t="s">
         <v>10</v>
       </c>
       <c r="G267" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.4">
@@ -9072,19 +9083,19 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="C268" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="D268" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
       </c>
       <c r="G268" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.4">
@@ -9092,19 +9103,19 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="C269" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="D269" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="E269" t="s">
         <v>10</v>
       </c>
       <c r="G269" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.4">
@@ -9112,19 +9123,19 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="C270" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="D270" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="E270" t="s">
         <v>10</v>
       </c>
       <c r="G270" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.4">
@@ -9132,19 +9143,19 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="C271" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="D271" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="E271" t="s">
         <v>10</v>
       </c>
       <c r="G271" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.4">
@@ -9152,19 +9163,19 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="C272" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="D272" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="E272" t="s">
         <v>10</v>
       </c>
       <c r="G272" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.4">
@@ -9172,19 +9183,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="C273" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="D273" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="E273" t="s">
         <v>10</v>
       </c>
       <c r="G273" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.4">
@@ -9192,19 +9203,19 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="C274" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="D274" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="E274" t="s">
         <v>10</v>
       </c>
       <c r="G274" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.4">
@@ -9212,19 +9223,19 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="C275" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="D275" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="E275" t="s">
         <v>10</v>
       </c>
       <c r="G275" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.4">
@@ -9232,19 +9243,19 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="C276" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="D276" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="E276" t="s">
         <v>10</v>
       </c>
       <c r="G276" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.4">
@@ -9252,19 +9263,19 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="C277" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="D277" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="E277" t="s">
         <v>10</v>
       </c>
       <c r="G277" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.4">
@@ -9272,19 +9283,19 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="C278" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="D278" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="E278" t="s">
         <v>10</v>
       </c>
       <c r="G278" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.4">
@@ -9292,19 +9303,19 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="C279" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="D279" t="s">
-        <v>581</v>
+        <v>1099</v>
       </c>
       <c r="E279" t="s">
         <v>10</v>
       </c>
       <c r="G279" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.4">
@@ -9312,19 +9323,19 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="C280" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="D280" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="E280" t="s">
         <v>10</v>
       </c>
       <c r="G280" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.4">
@@ -9332,19 +9343,19 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="C281" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
       <c r="D281" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="E281" t="s">
         <v>10</v>
       </c>
       <c r="G281" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.4">
@@ -9352,19 +9363,19 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="C282" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="D282" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="E282" t="s">
         <v>10</v>
       </c>
       <c r="G282" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.4">
@@ -9372,19 +9383,19 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="C283" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="D283" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="E283" t="s">
         <v>10</v>
       </c>
       <c r="G283" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.4">
@@ -9392,19 +9403,19 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
       <c r="C284" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="D284" t="s">
-        <v>1005</v>
+        <v>1100</v>
       </c>
       <c r="E284" t="s">
         <v>10</v>
       </c>
       <c r="G284" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.4">
@@ -9412,19 +9423,19 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="C285" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="D285" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="E285" t="s">
         <v>10</v>
       </c>
       <c r="G285" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.4">
@@ -9432,19 +9443,19 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="C286" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="D286" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="E286" t="s">
         <v>10</v>
       </c>
       <c r="G286" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.4">
@@ -9452,19 +9463,19 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="C287" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="D287" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="E287" t="s">
         <v>10</v>
       </c>
       <c r="G287" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.4">
@@ -9472,19 +9483,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="C288" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="D288" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="E288" t="s">
         <v>10</v>
       </c>
       <c r="G288" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.4">
@@ -9492,19 +9503,19 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="C289" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="D289" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="E289" t="s">
         <v>10</v>
       </c>
       <c r="G289" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.4">
@@ -9512,19 +9523,19 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="C290" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="D290" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="E290" t="s">
         <v>10</v>
       </c>
       <c r="G290" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.4">
@@ -9532,19 +9543,19 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="C291" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="D291" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="E291" t="s">
         <v>10</v>
       </c>
       <c r="G291" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.4">
@@ -9552,19 +9563,19 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="C292" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="D292" t="s">
-        <v>1031</v>
+        <v>1106</v>
       </c>
       <c r="E292" t="s">
         <v>10</v>
       </c>
       <c r="G292" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.4">
@@ -9572,19 +9583,19 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="C293" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="D293" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="E293" t="s">
         <v>10</v>
       </c>
       <c r="G293" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.4">
@@ -9592,19 +9603,19 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="C294" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="D294" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="E294" t="s">
         <v>10</v>
       </c>
       <c r="G294" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
@@ -9612,19 +9623,19 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="C295" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="D295" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="E295" t="s">
         <v>10</v>
       </c>
       <c r="G295" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
@@ -9632,19 +9643,19 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="C296" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="D296" t="s">
-        <v>1044</v>
+        <v>1112</v>
       </c>
       <c r="E296" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="G296" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
@@ -9652,19 +9663,19 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>1045</v>
+        <v>1026</v>
       </c>
       <c r="C297" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="D297" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="E297" t="s">
         <v>10</v>
       </c>
       <c r="G297" t="s">
-        <v>1048</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
@@ -9672,19 +9683,19 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="C298" t="s">
-        <v>1050</v>
+        <v>1031</v>
       </c>
       <c r="D298" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="E298" t="s">
         <v>10</v>
       </c>
       <c r="G298" t="s">
-        <v>1052</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
@@ -9692,19 +9703,19 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="C299" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="D299" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="E299" t="s">
         <v>10</v>
       </c>
       <c r="G299" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
@@ -9712,19 +9723,19 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="C300" t="s">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="D300" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="E300" t="s">
         <v>10</v>
       </c>
       <c r="G300" t="s">
-        <v>1060</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
@@ -9732,19 +9743,19 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="C301" t="s">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="D301" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="E301" t="s">
         <v>10</v>
       </c>
       <c r="G301" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.4">
@@ -9752,19 +9763,19 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="C302" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="D302" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="E302" t="s">
         <v>10</v>
       </c>
       <c r="G302" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
@@ -9772,19 +9783,19 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="C303" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="D303" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="E303" t="s">
         <v>10</v>
       </c>
       <c r="G303" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
@@ -9792,19 +9803,19 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="C304" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="D304" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
       <c r="E304" t="s">
         <v>10</v>
       </c>
       <c r="G304" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.4">
@@ -9812,19 +9823,19 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="C305" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="D305" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
       <c r="E305" t="s">
         <v>10</v>
       </c>
       <c r="G305" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.4">
@@ -9832,19 +9843,19 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="C306" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="D306" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="E306" t="s">
         <v>10</v>
       </c>
       <c r="G306" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.4">
@@ -9852,19 +9863,19 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="C307" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="D307" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="E307" t="s">
         <v>10</v>
       </c>
       <c r="G307" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.4">
@@ -9872,19 +9883,19 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="C308" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="D308" t="s">
-        <v>1086</v>
+        <v>1067</v>
       </c>
       <c r="E308" t="s">
         <v>10</v>
       </c>
       <c r="G308" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.4">
@@ -9892,19 +9903,19 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="C309" t="s">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="D309" t="s">
-        <v>1089</v>
+        <v>1070</v>
       </c>
       <c r="E309" t="s">
         <v>10</v>
       </c>
       <c r="G309" t="s">
-        <v>1090</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.4">
@@ -9912,19 +9923,19 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>1091</v>
+        <v>1072</v>
       </c>
       <c r="C310" t="s">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="D310" t="s">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="E310" t="s">
         <v>10</v>
       </c>
       <c r="G310" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.4">
@@ -9932,19 +9943,19 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="C311" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="D311" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="E311" t="s">
         <v>10</v>
       </c>
       <c r="G311" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.4">
@@ -9952,19 +9963,19 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="C312" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="D312" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="E312" t="s">
         <v>10</v>
       </c>
       <c r="G312" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.4">
@@ -9972,19 +9983,19 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="C313" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="D313" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="E313" t="s">
         <v>10</v>
       </c>
       <c r="G313" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.4">
@@ -9992,19 +10003,19 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="C314" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="D314" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="E314" t="s">
         <v>10</v>
       </c>
       <c r="G314" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.4">
@@ -10012,13 +10023,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="C315" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="D315" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
     </row>
   </sheetData>

--- a/geography/basins_searchterms_tracking.xlsx
+++ b/geography/basins_searchterms_tracking.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shared Waters Lab\geography\geography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552930C-3A5A-4090-BC51-178CDF2E94F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B5EE68-C25D-4C63-9A1C-2AB430F7F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23820" yWindow="960" windowWidth="21030" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$315</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1112">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1999,12 +2002,6 @@
     <t>Nahr El Kebir</t>
   </si>
   <si>
-    <t>"Nahr El Kebir" OR Gökpınar OR "نهر القش" OR "Kureyşi Çayı" OR "نهر سللور" OR "Yayladağı Barajı" OR "سد بلّوران"</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>"Syrian Arab Republic" OR Turkey</t>
   </si>
   <si>
@@ -3359,6 +3356,9 @@
   </si>
   <si>
     <t>Volga OR Oka OR Kama OR Moksha OR Vetluga OR Unzha OR Klyaz'ma OR Sura OR Kerzhenets OR Tyosha OR Samara OR Ufa OR Tsna OR Vyatka OR "Bol'shoy Irgiz" OR Pronya OR Chusovaya OR Sviyaga OR Akhtuba OR Kostroma OR Yeruslan OR Sok OR Moskva OR "Bol'shoy Cheremshan" OR Tok OR Belaya OR Ik OR Para OR Alatyr' OR P'yana OR Tereshka OR "Bol'shaya Kokshaga" OR Cheptsa OR Ushna OR Zusha OR Ugra OR Gus' OR Vad OR Nerl' OR Chagra OR Vishera OR Atmis OR "Bol'shoy Kinel'" OR Kolp' OR Seryozha OR Kos'va OR Lukh OR Chapayevka OR Sundovik OR Teza OR Upa OR "Malaya Kokshaga" OR Chyornaya OR Protva OR Rutka OR Pra OR Usta OR Myosha OR Syzranka OR "Malyy Irgiz" OR Torgun OR Kondurcha OR Kosa OR Uvod' OR Vokhma OR Kadada OR Kema OR Kishma OR Nyomda OR Obva OR Kotorosl' OR Solonitsa OR Issa OR Kud'ma OR Yayva OR "Bol'shoy Karaman" OR Buzha OR Izh OR Ilet' OR Kazanka OR Mera OR Uzola OR Sheshma OR Pyot OR Verda OR Osyotr OR Buzuluk OR Koloksha OR Shuya OR Barysh OR Borovka OR Buy OR Velet'ma OR Vorya OR Lopasnya OR Medveditsa OR Pozhva OR Suvoroshch' OR Uza OR Sheksna OR Siva OR Lomovka OR Nara OR Sivin' OR Tulva OR Surgut OR Tyrnitsa OR Usa OR "Bol'shoy Kundysh" OR Vatoma OR Ist'ya OR Kamelik OR Linda OR "Malyy Tsivil'" OR "Malyy Cheremshan" OR Neruch' OR Ranova OR Zay OR Timshor OR Chardym OR Lapshanga OR Sudogda OR Urolka OR "Bol'shaya Sul'cha" OR Zhizdra OR In'va OR Shanya OR Lup'ya OR Lyunda OR Mayna OR Osuga OR Ressa OR Tarusa OR Shuksha OR Yermish' OR Kubnya OR Neploža OR Peksha OR Resseta OR Sestra OR Bezdna OR Dubna OR Yenotayevka OR "Lesnoy Tambov" OR Narma OR Nugr' OR Pil'va OR Tvertsa OR Chernava OR Vozha OR Vol OR Dobritsa OR Korozhechna OR Loza OR Ozyorka OR Sarma OR Ust'ye OR Yushut OR Azyasy OR "Bol'shaya Kutra" OR Zhukopa OR Nerekhta OR "Solonaya Kuba" OR Typyl OR Utka OR Yug OR Velva OR Gzhat' OR Kolych OR "Lesnaya Sheshma" OR Ochyor OR Polya OR Porysh OR Seyma OR Sunzha OR Syuz'va OR Yolnat' OR Bakhtemir OR Zhelvata OR Inza OR Kad' OR Kirya OR Kishnya OR Luzha OR Mecha OR Penza OR Pyshchug OR Tashenka OR Urkat OR Shacha OR Yuronga OR Beryozovka OR "Bol'shaya Kaksha" OR Veslyana OR "Mokraya Mechetka" OR Moshna OR Neya OR Pesochnya OR Severka OR "Stepnoy Zay" OR Talovaya OR Tudovka OR Yunga OR Alay OR Besputa OR Bula OR Vashana OR Vorsha OR Voch' OR Vyla OR Zheleznitsa OR Izver' OR "Malyy Kundysh" OR Nakhoy OR Nor-Lomovka OR Raka OR Ruza OR Sumych OR Sukhodrev OR Shoksha OR Borovaya OR Zhizhala OR Karalyk OR Kasley-Kadada OR Las'va OR "Malaya Sviyaga" OR Nytva OR Poksha OR Saygatka OR "Severnyy Kozlenets" OR Skniga OR Snoved' OR Sutka OR Talaya OR Turgannik OR Bersut OR "Bol'shaya Shanga" OR "Bol'shoy Tsivil'" OR Vezloma OR Visha OR Gushcha OR Istra OR Kanadeyка OR Kondas OR Lamsha OR Styozhera OR S"yezzhanaya OR Techa OR Tomyshevka OR Truyov OR Tys'ya OR Ulema OR Unkor OR Chermoz OR Chern' OR Chus OR Shizhegda OR Aktay OR Aksha OR Ashit OR Bezenchuk OR Bizyuk OR "Bol'shaya Vyazovka" OR Verditsa OR Volosnitsa OR Dyorzha OR Zigannеk OR Ilevna OR Irovka OR Ista OR It' OR Karabulak OR Krushma OR "Malyy Atmis" OR Menya OR Solotcha OR "Sukhaya Ulema" OR Toyma OR Cheka OR Sheldais OR Shosha OR Yukhot' OR Yachmenka OR Aleshnya OR Bekshanka OR "Bol'shaya Glushitsa" OR "Bol'shaya Kosha" OR "Bol'shaya Oshla" OR "Bol'shoye Smedovo" OR Volosta OR Dorogucha OR Yelshanka OR Imza OR Irdom OR Itomlya OR Kamenka OR Karmala OR Kashinka OR Kis'mes' OR Koldais OR Ksegzha OR Kuzhva OR Los'minka OR Maza OR Ryabka OR Satis OR Smedva OR Sulitsa OR Susha OR Syntulka OR Terengul'ka OR Tersa OR T'ma OR Upyorta OR Urga OR Usolka OR Tsivil' OR Chyormoz OR "Yuzhnyy Kozlenets" OR Ayva OR Bezmenets OR Belbazh OR "Bol'shaya Vorona" OR "Bol'shoy Avral'" OR Vyazdya OR Demina OR Karla</t>
+  </si>
+  <si>
+    <t>"Nahr El Kebir" OR Gökpınar OR "Nahr al-Qash" OR "Kureyşi Çayı" OR "Nahr Sallur" OR "Yayladağı Barajı" OR "Sadd Ballūrān"</t>
   </si>
 </sst>
 </file>
@@ -3726,8 +3726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3809,7 +3809,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -3978,7 +3978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="102" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="262.3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>230</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -5069,7 +5069,7 @@
         <v>245</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -5149,7 +5149,7 @@
         <v>259</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -5529,7 +5529,7 @@
         <v>323</v>
       </c>
       <c r="D90" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -6029,7 +6029,7 @@
         <v>413</v>
       </c>
       <c r="D115" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
@@ -6069,7 +6069,7 @@
         <v>420</v>
       </c>
       <c r="D117" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
@@ -6109,7 +6109,7 @@
         <v>426</v>
       </c>
       <c r="D119" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
@@ -6189,7 +6189,7 @@
         <v>441</v>
       </c>
       <c r="D123" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
@@ -6349,7 +6349,7 @@
         <v>468</v>
       </c>
       <c r="D131" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
@@ -7309,7 +7309,7 @@
         <v>631</v>
       </c>
       <c r="D179" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E179" t="s">
         <v>10</v>
@@ -7469,13 +7469,13 @@
         <v>658</v>
       </c>
       <c r="D187" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
         <v>659</v>
-      </c>
-      <c r="E187" t="s">
-        <v>660</v>
-      </c>
-      <c r="G187" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
@@ -7483,19 +7483,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
+        <v>660</v>
+      </c>
+      <c r="C188" t="s">
+        <v>661</v>
+      </c>
+      <c r="D188" t="s">
         <v>662</v>
       </c>
-      <c r="C188" t="s">
+      <c r="E188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
         <v>663</v>
-      </c>
-      <c r="D188" t="s">
-        <v>664</v>
-      </c>
-      <c r="E188" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
@@ -7503,19 +7503,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
+        <v>664</v>
+      </c>
+      <c r="C189" t="s">
+        <v>665</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
         <v>666</v>
-      </c>
-      <c r="C189" t="s">
-        <v>667</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E189" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
@@ -7523,13 +7523,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
+        <v>667</v>
+      </c>
+      <c r="C190" t="s">
+        <v>668</v>
+      </c>
+      <c r="D190" t="s">
         <v>669</v>
-      </c>
-      <c r="C190" t="s">
-        <v>670</v>
-      </c>
-      <c r="D190" t="s">
-        <v>671</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
@@ -7543,19 +7543,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
+        <v>670</v>
+      </c>
+      <c r="C191" t="s">
+        <v>671</v>
+      </c>
+      <c r="D191" t="s">
         <v>672</v>
       </c>
-      <c r="C191" t="s">
+      <c r="E191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
         <v>673</v>
-      </c>
-      <c r="D191" t="s">
-        <v>674</v>
-      </c>
-      <c r="E191" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.4">
@@ -7563,19 +7563,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
+        <v>674</v>
+      </c>
+      <c r="C192" t="s">
+        <v>675</v>
+      </c>
+      <c r="D192" t="s">
         <v>676</v>
       </c>
-      <c r="C192" t="s">
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
         <v>677</v>
-      </c>
-      <c r="D192" t="s">
-        <v>678</v>
-      </c>
-      <c r="E192" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.4">
@@ -7583,19 +7583,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
+        <v>678</v>
+      </c>
+      <c r="C193" t="s">
+        <v>679</v>
+      </c>
+      <c r="D193" t="s">
         <v>680</v>
       </c>
-      <c r="C193" t="s">
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
         <v>681</v>
-      </c>
-      <c r="D193" t="s">
-        <v>682</v>
-      </c>
-      <c r="E193" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.4">
@@ -7603,19 +7603,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
+        <v>682</v>
+      </c>
+      <c r="C194" t="s">
+        <v>683</v>
+      </c>
+      <c r="D194" t="s">
         <v>684</v>
       </c>
-      <c r="C194" t="s">
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
         <v>685</v>
-      </c>
-      <c r="D194" t="s">
-        <v>686</v>
-      </c>
-      <c r="E194" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
@@ -7623,19 +7623,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
+        <v>686</v>
+      </c>
+      <c r="C195" t="s">
+        <v>687</v>
+      </c>
+      <c r="D195" t="s">
         <v>688</v>
       </c>
-      <c r="C195" t="s">
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
         <v>689</v>
-      </c>
-      <c r="D195" t="s">
-        <v>690</v>
-      </c>
-      <c r="E195" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
@@ -7643,13 +7643,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
+        <v>690</v>
+      </c>
+      <c r="C196" t="s">
+        <v>691</v>
+      </c>
+      <c r="D196" t="s">
         <v>692</v>
-      </c>
-      <c r="C196" t="s">
-        <v>693</v>
-      </c>
-      <c r="D196" t="s">
-        <v>694</v>
       </c>
       <c r="E196" t="s">
         <v>10</v>
@@ -7663,19 +7663,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
+        <v>693</v>
+      </c>
+      <c r="C197" t="s">
+        <v>694</v>
+      </c>
+      <c r="D197" t="s">
         <v>695</v>
       </c>
-      <c r="C197" t="s">
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
         <v>696</v>
-      </c>
-      <c r="D197" t="s">
-        <v>697</v>
-      </c>
-      <c r="E197" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
@@ -7683,19 +7683,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
+        <v>697</v>
+      </c>
+      <c r="C198" t="s">
+        <v>698</v>
+      </c>
+      <c r="D198" t="s">
         <v>699</v>
       </c>
-      <c r="C198" t="s">
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" t="s">
         <v>700</v>
-      </c>
-      <c r="D198" t="s">
-        <v>701</v>
-      </c>
-      <c r="E198" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
@@ -7703,19 +7703,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
+        <v>701</v>
+      </c>
+      <c r="C199" t="s">
+        <v>702</v>
+      </c>
+      <c r="D199" t="s">
         <v>703</v>
       </c>
-      <c r="C199" t="s">
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
         <v>704</v>
-      </c>
-      <c r="D199" t="s">
-        <v>705</v>
-      </c>
-      <c r="E199" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
@@ -7723,13 +7723,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
+        <v>705</v>
+      </c>
+      <c r="C200" t="s">
+        <v>706</v>
+      </c>
+      <c r="D200" t="s">
         <v>707</v>
-      </c>
-      <c r="C200" t="s">
-        <v>708</v>
-      </c>
-      <c r="D200" t="s">
-        <v>709</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
@@ -7743,19 +7743,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
+        <v>708</v>
+      </c>
+      <c r="C201" t="s">
+        <v>709</v>
+      </c>
+      <c r="D201" t="s">
         <v>710</v>
       </c>
-      <c r="C201" t="s">
-        <v>711</v>
-      </c>
-      <c r="D201" t="s">
-        <v>712</v>
-      </c>
       <c r="E201" t="s">
         <v>10</v>
       </c>
       <c r="G201" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
@@ -7763,19 +7763,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
+        <v>711</v>
+      </c>
+      <c r="C202" t="s">
+        <v>712</v>
+      </c>
+      <c r="D202" t="s">
         <v>713</v>
       </c>
-      <c r="C202" t="s">
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
         <v>714</v>
-      </c>
-      <c r="D202" t="s">
-        <v>715</v>
-      </c>
-      <c r="E202" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
@@ -7783,19 +7783,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
+        <v>715</v>
+      </c>
+      <c r="C203" t="s">
+        <v>716</v>
+      </c>
+      <c r="D203" t="s">
         <v>717</v>
       </c>
-      <c r="C203" t="s">
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
         <v>718</v>
-      </c>
-      <c r="D203" t="s">
-        <v>719</v>
-      </c>
-      <c r="E203" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
@@ -7803,19 +7803,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
+        <v>719</v>
+      </c>
+      <c r="C204" t="s">
+        <v>720</v>
+      </c>
+      <c r="D204" t="s">
         <v>721</v>
       </c>
-      <c r="C204" t="s">
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" t="s">
         <v>722</v>
-      </c>
-      <c r="D204" t="s">
-        <v>723</v>
-      </c>
-      <c r="E204" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
@@ -7823,13 +7823,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C205" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D205" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
@@ -7843,19 +7843,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
+        <v>725</v>
+      </c>
+      <c r="C206" t="s">
+        <v>726</v>
+      </c>
+      <c r="D206" t="s">
         <v>727</v>
       </c>
-      <c r="C206" t="s">
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
         <v>728</v>
-      </c>
-      <c r="D206" t="s">
-        <v>729</v>
-      </c>
-      <c r="E206" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
@@ -7863,13 +7863,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
+        <v>729</v>
+      </c>
+      <c r="C207" t="s">
+        <v>730</v>
+      </c>
+      <c r="D207" t="s">
         <v>731</v>
-      </c>
-      <c r="C207" t="s">
-        <v>732</v>
-      </c>
-      <c r="D207" t="s">
-        <v>733</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
@@ -7883,19 +7883,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
+        <v>732</v>
+      </c>
+      <c r="C208" t="s">
+        <v>733</v>
+      </c>
+      <c r="D208" t="s">
         <v>734</v>
       </c>
-      <c r="C208" t="s">
+      <c r="E208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
         <v>735</v>
-      </c>
-      <c r="D208" t="s">
-        <v>736</v>
-      </c>
-      <c r="E208" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.4">
@@ -7903,13 +7903,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
+        <v>736</v>
+      </c>
+      <c r="C209" t="s">
+        <v>737</v>
+      </c>
+      <c r="D209" t="s">
         <v>738</v>
-      </c>
-      <c r="C209" t="s">
-        <v>739</v>
-      </c>
-      <c r="D209" t="s">
-        <v>740</v>
       </c>
       <c r="E209" t="s">
         <v>10</v>
@@ -7923,13 +7923,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
+        <v>739</v>
+      </c>
+      <c r="C210" t="s">
+        <v>740</v>
+      </c>
+      <c r="D210" t="s">
         <v>741</v>
-      </c>
-      <c r="C210" t="s">
-        <v>742</v>
-      </c>
-      <c r="D210" t="s">
-        <v>743</v>
       </c>
       <c r="E210" t="s">
         <v>10</v>
@@ -7943,19 +7943,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
+        <v>742</v>
+      </c>
+      <c r="C211" t="s">
+        <v>743</v>
+      </c>
+      <c r="D211" t="s">
         <v>744</v>
       </c>
-      <c r="C211" t="s">
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
         <v>745</v>
-      </c>
-      <c r="D211" t="s">
-        <v>746</v>
-      </c>
-      <c r="E211" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.4">
@@ -7963,19 +7963,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
+        <v>746</v>
+      </c>
+      <c r="C212" t="s">
+        <v>747</v>
+      </c>
+      <c r="D212" t="s">
         <v>748</v>
       </c>
-      <c r="C212" t="s">
-        <v>749</v>
-      </c>
-      <c r="D212" t="s">
-        <v>750</v>
-      </c>
       <c r="E212" t="s">
         <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.4">
@@ -7983,13 +7983,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
+        <v>749</v>
+      </c>
+      <c r="C213" t="s">
+        <v>750</v>
+      </c>
+      <c r="D213" t="s">
         <v>751</v>
-      </c>
-      <c r="C213" t="s">
-        <v>752</v>
-      </c>
-      <c r="D213" t="s">
-        <v>753</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
@@ -8003,13 +8003,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
+        <v>752</v>
+      </c>
+      <c r="C214" t="s">
+        <v>753</v>
+      </c>
+      <c r="D214" t="s">
         <v>754</v>
-      </c>
-      <c r="C214" t="s">
-        <v>755</v>
-      </c>
-      <c r="D214" t="s">
-        <v>756</v>
       </c>
       <c r="E214" t="s">
         <v>10</v>
@@ -8023,19 +8023,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
+        <v>755</v>
+      </c>
+      <c r="C215" t="s">
+        <v>756</v>
+      </c>
+      <c r="D215" t="s">
         <v>757</v>
       </c>
-      <c r="C215" t="s">
+      <c r="E215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
         <v>758</v>
-      </c>
-      <c r="D215" t="s">
-        <v>759</v>
-      </c>
-      <c r="E215" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.4">
@@ -8043,19 +8043,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
+        <v>759</v>
+      </c>
+      <c r="C216" t="s">
+        <v>760</v>
+      </c>
+      <c r="D216" t="s">
         <v>761</v>
       </c>
-      <c r="C216" t="s">
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" t="s">
         <v>762</v>
-      </c>
-      <c r="D216" t="s">
-        <v>763</v>
-      </c>
-      <c r="E216" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.4">
@@ -8063,13 +8063,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
+        <v>763</v>
+      </c>
+      <c r="C217" t="s">
+        <v>764</v>
+      </c>
+      <c r="D217" t="s">
         <v>765</v>
-      </c>
-      <c r="C217" t="s">
-        <v>766</v>
-      </c>
-      <c r="D217" t="s">
-        <v>767</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
@@ -8083,13 +8083,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
+        <v>766</v>
+      </c>
+      <c r="C218" t="s">
+        <v>767</v>
+      </c>
+      <c r="D218" t="s">
         <v>768</v>
-      </c>
-      <c r="C218" t="s">
-        <v>769</v>
-      </c>
-      <c r="D218" t="s">
-        <v>770</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
@@ -8103,19 +8103,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
+        <v>769</v>
+      </c>
+      <c r="C219" t="s">
+        <v>770</v>
+      </c>
+      <c r="D219" t="s">
         <v>771</v>
       </c>
-      <c r="C219" t="s">
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
         <v>772</v>
-      </c>
-      <c r="D219" t="s">
-        <v>773</v>
-      </c>
-      <c r="E219" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.4">
@@ -8123,19 +8123,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
+        <v>773</v>
+      </c>
+      <c r="C220" t="s">
+        <v>774</v>
+      </c>
+      <c r="D220" t="s">
         <v>775</v>
       </c>
-      <c r="C220" t="s">
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" t="s">
         <v>776</v>
-      </c>
-      <c r="D220" t="s">
-        <v>777</v>
-      </c>
-      <c r="E220" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.4">
@@ -8143,13 +8143,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
+        <v>777</v>
+      </c>
+      <c r="C221" t="s">
+        <v>778</v>
+      </c>
+      <c r="D221" t="s">
         <v>779</v>
-      </c>
-      <c r="C221" t="s">
-        <v>780</v>
-      </c>
-      <c r="D221" t="s">
-        <v>781</v>
       </c>
       <c r="E221" t="s">
         <v>10</v>
@@ -8163,13 +8163,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
+        <v>780</v>
+      </c>
+      <c r="C222" t="s">
+        <v>781</v>
+      </c>
+      <c r="D222" t="s">
         <v>782</v>
-      </c>
-      <c r="C222" t="s">
-        <v>783</v>
-      </c>
-      <c r="D222" t="s">
-        <v>784</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
@@ -8183,19 +8183,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
+        <v>783</v>
+      </c>
+      <c r="C223" t="s">
+        <v>784</v>
+      </c>
+      <c r="D223" t="s">
         <v>785</v>
       </c>
-      <c r="C223" t="s">
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
         <v>786</v>
-      </c>
-      <c r="D223" t="s">
-        <v>787</v>
-      </c>
-      <c r="E223" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.4">
@@ -8203,13 +8203,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
+        <v>787</v>
+      </c>
+      <c r="C224" t="s">
+        <v>788</v>
+      </c>
+      <c r="D224" t="s">
         <v>789</v>
-      </c>
-      <c r="C224" t="s">
-        <v>790</v>
-      </c>
-      <c r="D224" t="s">
-        <v>791</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
@@ -8223,19 +8223,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
+        <v>790</v>
+      </c>
+      <c r="C225" t="s">
+        <v>791</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
         <v>792</v>
-      </c>
-      <c r="C225" t="s">
-        <v>793</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E225" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.4">
@@ -8243,19 +8243,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
+        <v>793</v>
+      </c>
+      <c r="C226" t="s">
+        <v>794</v>
+      </c>
+      <c r="D226" t="s">
         <v>795</v>
       </c>
-      <c r="C226" t="s">
+      <c r="E226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
         <v>796</v>
-      </c>
-      <c r="D226" t="s">
-        <v>797</v>
-      </c>
-      <c r="E226" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.4">
@@ -8263,19 +8263,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
+        <v>797</v>
+      </c>
+      <c r="C227" t="s">
+        <v>798</v>
+      </c>
+      <c r="D227" t="s">
         <v>799</v>
       </c>
-      <c r="C227" t="s">
+      <c r="E227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
         <v>800</v>
-      </c>
-      <c r="D227" t="s">
-        <v>801</v>
-      </c>
-      <c r="E227" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.4">
@@ -8283,13 +8283,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
+        <v>801</v>
+      </c>
+      <c r="C228" t="s">
+        <v>802</v>
+      </c>
+      <c r="D228" t="s">
         <v>803</v>
-      </c>
-      <c r="C228" t="s">
-        <v>804</v>
-      </c>
-      <c r="D228" t="s">
-        <v>805</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
@@ -8303,13 +8303,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
+        <v>804</v>
+      </c>
+      <c r="C229" t="s">
+        <v>805</v>
+      </c>
+      <c r="D229" t="s">
         <v>806</v>
-      </c>
-      <c r="C229" t="s">
-        <v>807</v>
-      </c>
-      <c r="D229" t="s">
-        <v>808</v>
       </c>
       <c r="E229" t="s">
         <v>10</v>
@@ -8323,19 +8323,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
+        <v>807</v>
+      </c>
+      <c r="C230" t="s">
+        <v>808</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" t="s">
         <v>809</v>
-      </c>
-      <c r="C230" t="s">
-        <v>810</v>
-      </c>
-      <c r="D230" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E230" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.4">
@@ -8343,19 +8343,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
+        <v>810</v>
+      </c>
+      <c r="C231" t="s">
+        <v>811</v>
+      </c>
+      <c r="D231" t="s">
         <v>812</v>
       </c>
-      <c r="C231" t="s">
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" t="s">
         <v>813</v>
-      </c>
-      <c r="D231" t="s">
-        <v>814</v>
-      </c>
-      <c r="E231" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.4">
@@ -8363,19 +8363,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
+        <v>814</v>
+      </c>
+      <c r="C232" t="s">
+        <v>815</v>
+      </c>
+      <c r="D232" t="s">
         <v>816</v>
       </c>
-      <c r="C232" t="s">
+      <c r="E232" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" t="s">
         <v>817</v>
-      </c>
-      <c r="D232" t="s">
-        <v>818</v>
-      </c>
-      <c r="E232" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.4">
@@ -8383,19 +8383,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
+        <v>818</v>
+      </c>
+      <c r="C233" t="s">
+        <v>819</v>
+      </c>
+      <c r="D233" t="s">
         <v>820</v>
       </c>
-      <c r="C233" t="s">
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
         <v>821</v>
-      </c>
-      <c r="D233" t="s">
-        <v>822</v>
-      </c>
-      <c r="E233" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.4">
@@ -8403,19 +8403,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
+        <v>822</v>
+      </c>
+      <c r="C234" t="s">
+        <v>823</v>
+      </c>
+      <c r="D234" t="s">
         <v>824</v>
       </c>
-      <c r="C234" t="s">
+      <c r="E234" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" t="s">
         <v>825</v>
-      </c>
-      <c r="D234" t="s">
-        <v>826</v>
-      </c>
-      <c r="E234" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.4">
@@ -8423,13 +8423,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
+        <v>826</v>
+      </c>
+      <c r="C235" t="s">
+        <v>827</v>
+      </c>
+      <c r="D235" t="s">
         <v>828</v>
-      </c>
-      <c r="C235" t="s">
-        <v>829</v>
-      </c>
-      <c r="D235" t="s">
-        <v>830</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
@@ -8443,13 +8443,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C236" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D236" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
@@ -8463,19 +8463,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
+        <v>831</v>
+      </c>
+      <c r="C237" t="s">
+        <v>832</v>
+      </c>
+      <c r="D237" t="s">
         <v>833</v>
       </c>
-      <c r="C237" t="s">
-        <v>834</v>
-      </c>
-      <c r="D237" t="s">
-        <v>835</v>
-      </c>
       <c r="E237" t="s">
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.4">
@@ -8483,13 +8483,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
+        <v>834</v>
+      </c>
+      <c r="C238" t="s">
+        <v>835</v>
+      </c>
+      <c r="D238" t="s">
         <v>836</v>
-      </c>
-      <c r="C238" t="s">
-        <v>837</v>
-      </c>
-      <c r="D238" t="s">
-        <v>838</v>
       </c>
       <c r="E238" t="s">
         <v>10</v>
@@ -8503,19 +8503,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
+        <v>837</v>
+      </c>
+      <c r="C239" t="s">
+        <v>838</v>
+      </c>
+      <c r="D239" t="s">
         <v>839</v>
       </c>
-      <c r="C239" t="s">
+      <c r="E239" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" t="s">
         <v>840</v>
-      </c>
-      <c r="D239" t="s">
-        <v>841</v>
-      </c>
-      <c r="E239" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.4">
@@ -8523,19 +8523,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
+        <v>841</v>
+      </c>
+      <c r="C240" t="s">
+        <v>842</v>
+      </c>
+      <c r="D240" t="s">
         <v>843</v>
       </c>
-      <c r="C240" t="s">
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" t="s">
         <v>844</v>
-      </c>
-      <c r="D240" t="s">
-        <v>845</v>
-      </c>
-      <c r="E240" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.4">
@@ -8543,19 +8543,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
+        <v>845</v>
+      </c>
+      <c r="C241" t="s">
+        <v>846</v>
+      </c>
+      <c r="D241" t="s">
         <v>847</v>
       </c>
-      <c r="C241" t="s">
+      <c r="E241" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" t="s">
         <v>848</v>
-      </c>
-      <c r="D241" t="s">
-        <v>849</v>
-      </c>
-      <c r="E241" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.4">
@@ -8563,19 +8563,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
+        <v>849</v>
+      </c>
+      <c r="C242" t="s">
+        <v>850</v>
+      </c>
+      <c r="D242" t="s">
         <v>851</v>
       </c>
-      <c r="C242" t="s">
+      <c r="E242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" t="s">
         <v>852</v>
-      </c>
-      <c r="D242" t="s">
-        <v>853</v>
-      </c>
-      <c r="E242" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.4">
@@ -8583,19 +8583,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
+        <v>853</v>
+      </c>
+      <c r="C243" t="s">
+        <v>854</v>
+      </c>
+      <c r="D243" t="s">
         <v>855</v>
       </c>
-      <c r="C243" t="s">
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
         <v>856</v>
-      </c>
-      <c r="D243" t="s">
-        <v>857</v>
-      </c>
-      <c r="E243" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.4">
@@ -8603,13 +8603,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
+        <v>857</v>
+      </c>
+      <c r="C244" t="s">
+        <v>858</v>
+      </c>
+      <c r="D244" t="s">
         <v>859</v>
-      </c>
-      <c r="C244" t="s">
-        <v>860</v>
-      </c>
-      <c r="D244" t="s">
-        <v>861</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
@@ -8623,19 +8623,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
+        <v>860</v>
+      </c>
+      <c r="C245" t="s">
+        <v>861</v>
+      </c>
+      <c r="D245" t="s">
         <v>862</v>
       </c>
-      <c r="C245" t="s">
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" t="s">
         <v>863</v>
-      </c>
-      <c r="D245" t="s">
-        <v>864</v>
-      </c>
-      <c r="E245" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.4">
@@ -8643,19 +8643,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
+        <v>864</v>
+      </c>
+      <c r="C246" t="s">
+        <v>865</v>
+      </c>
+      <c r="D246" t="s">
         <v>866</v>
       </c>
-      <c r="C246" t="s">
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" t="s">
         <v>867</v>
-      </c>
-      <c r="D246" t="s">
-        <v>868</v>
-      </c>
-      <c r="E246" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.4">
@@ -8663,13 +8663,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
+        <v>868</v>
+      </c>
+      <c r="C247" t="s">
+        <v>869</v>
+      </c>
+      <c r="D247" t="s">
         <v>870</v>
-      </c>
-      <c r="C247" t="s">
-        <v>871</v>
-      </c>
-      <c r="D247" t="s">
-        <v>872</v>
       </c>
       <c r="E247" t="s">
         <v>10</v>
@@ -8683,13 +8683,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
+        <v>871</v>
+      </c>
+      <c r="C248" t="s">
+        <v>872</v>
+      </c>
+      <c r="D248" t="s">
         <v>873</v>
-      </c>
-      <c r="C248" t="s">
-        <v>874</v>
-      </c>
-      <c r="D248" t="s">
-        <v>875</v>
       </c>
       <c r="E248" t="s">
         <v>10</v>
@@ -8703,13 +8703,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
+        <v>874</v>
+      </c>
+      <c r="C249" t="s">
+        <v>875</v>
+      </c>
+      <c r="D249" t="s">
         <v>876</v>
-      </c>
-      <c r="C249" t="s">
-        <v>877</v>
-      </c>
-      <c r="D249" t="s">
-        <v>878</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
@@ -8723,19 +8723,19 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
+        <v>877</v>
+      </c>
+      <c r="C250" t="s">
+        <v>878</v>
+      </c>
+      <c r="D250" t="s">
         <v>879</v>
       </c>
-      <c r="C250" t="s">
+      <c r="E250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" t="s">
         <v>880</v>
-      </c>
-      <c r="D250" t="s">
-        <v>881</v>
-      </c>
-      <c r="E250" t="s">
-        <v>10</v>
-      </c>
-      <c r="G250" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.4">
@@ -8743,19 +8743,19 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
+        <v>881</v>
+      </c>
+      <c r="C251" t="s">
+        <v>882</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" t="s">
         <v>883</v>
-      </c>
-      <c r="C251" t="s">
-        <v>884</v>
-      </c>
-      <c r="D251" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E251" t="s">
-        <v>10</v>
-      </c>
-      <c r="G251" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.4">
@@ -8763,13 +8763,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
+        <v>884</v>
+      </c>
+      <c r="C252" t="s">
+        <v>885</v>
+      </c>
+      <c r="D252" t="s">
         <v>886</v>
-      </c>
-      <c r="C252" t="s">
-        <v>887</v>
-      </c>
-      <c r="D252" t="s">
-        <v>888</v>
       </c>
       <c r="E252" t="s">
         <v>10</v>
@@ -8783,13 +8783,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
+        <v>887</v>
+      </c>
+      <c r="C253" t="s">
+        <v>888</v>
+      </c>
+      <c r="D253" t="s">
         <v>889</v>
-      </c>
-      <c r="C253" t="s">
-        <v>890</v>
-      </c>
-      <c r="D253" t="s">
-        <v>891</v>
       </c>
       <c r="E253" t="s">
         <v>10</v>
@@ -8803,13 +8803,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
+        <v>890</v>
+      </c>
+      <c r="C254" t="s">
+        <v>891</v>
+      </c>
+      <c r="D254" t="s">
         <v>892</v>
-      </c>
-      <c r="C254" t="s">
-        <v>893</v>
-      </c>
-      <c r="D254" t="s">
-        <v>894</v>
       </c>
       <c r="E254" t="s">
         <v>10</v>
@@ -8823,19 +8823,19 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
+        <v>893</v>
+      </c>
+      <c r="C255" t="s">
+        <v>894</v>
+      </c>
+      <c r="D255" t="s">
         <v>895</v>
       </c>
-      <c r="C255" t="s">
+      <c r="E255" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" t="s">
         <v>896</v>
-      </c>
-      <c r="D255" t="s">
-        <v>897</v>
-      </c>
-      <c r="E255" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.4">
@@ -8843,13 +8843,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
+        <v>897</v>
+      </c>
+      <c r="C256" t="s">
+        <v>898</v>
+      </c>
+      <c r="D256" t="s">
         <v>899</v>
-      </c>
-      <c r="C256" t="s">
-        <v>900</v>
-      </c>
-      <c r="D256" t="s">
-        <v>901</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
@@ -8863,13 +8863,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
+        <v>900</v>
+      </c>
+      <c r="C257" t="s">
+        <v>901</v>
+      </c>
+      <c r="D257" t="s">
         <v>902</v>
-      </c>
-      <c r="C257" t="s">
-        <v>903</v>
-      </c>
-      <c r="D257" t="s">
-        <v>904</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
@@ -8883,13 +8883,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
+        <v>903</v>
+      </c>
+      <c r="C258" t="s">
+        <v>904</v>
+      </c>
+      <c r="D258" t="s">
         <v>905</v>
-      </c>
-      <c r="C258" t="s">
-        <v>906</v>
-      </c>
-      <c r="D258" t="s">
-        <v>907</v>
       </c>
       <c r="E258" t="s">
         <v>10</v>
@@ -8903,19 +8903,19 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
+        <v>906</v>
+      </c>
+      <c r="C259" t="s">
+        <v>907</v>
+      </c>
+      <c r="D259" t="s">
         <v>908</v>
       </c>
-      <c r="C259" t="s">
-        <v>909</v>
-      </c>
-      <c r="D259" t="s">
-        <v>910</v>
-      </c>
       <c r="E259" t="s">
         <v>10</v>
       </c>
       <c r="G259" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.4">
@@ -8923,13 +8923,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
+        <v>909</v>
+      </c>
+      <c r="C260" t="s">
+        <v>910</v>
+      </c>
+      <c r="D260" t="s">
         <v>911</v>
-      </c>
-      <c r="C260" t="s">
-        <v>912</v>
-      </c>
-      <c r="D260" t="s">
-        <v>913</v>
       </c>
       <c r="E260" t="s">
         <v>10</v>
@@ -8943,13 +8943,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
+        <v>912</v>
+      </c>
+      <c r="C261" t="s">
+        <v>913</v>
+      </c>
+      <c r="D261" t="s">
         <v>914</v>
-      </c>
-      <c r="C261" t="s">
-        <v>915</v>
-      </c>
-      <c r="D261" t="s">
-        <v>916</v>
       </c>
       <c r="E261" t="s">
         <v>10</v>
@@ -8963,13 +8963,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
+        <v>915</v>
+      </c>
+      <c r="C262" t="s">
+        <v>916</v>
+      </c>
+      <c r="D262" t="s">
         <v>917</v>
-      </c>
-      <c r="C262" t="s">
-        <v>918</v>
-      </c>
-      <c r="D262" t="s">
-        <v>919</v>
       </c>
       <c r="E262" t="s">
         <v>10</v>
@@ -8983,13 +8983,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
+        <v>918</v>
+      </c>
+      <c r="C263" t="s">
+        <v>919</v>
+      </c>
+      <c r="D263" t="s">
         <v>920</v>
-      </c>
-      <c r="C263" t="s">
-        <v>921</v>
-      </c>
-      <c r="D263" t="s">
-        <v>922</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
@@ -9003,19 +9003,19 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
+        <v>921</v>
+      </c>
+      <c r="C264" t="s">
+        <v>922</v>
+      </c>
+      <c r="D264" t="s">
         <v>923</v>
       </c>
-      <c r="C264" t="s">
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" t="s">
         <v>924</v>
-      </c>
-      <c r="D264" t="s">
-        <v>925</v>
-      </c>
-      <c r="E264" t="s">
-        <v>10</v>
-      </c>
-      <c r="G264" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.4">
@@ -9023,13 +9023,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
+        <v>925</v>
+      </c>
+      <c r="C265" t="s">
+        <v>926</v>
+      </c>
+      <c r="D265" t="s">
         <v>927</v>
-      </c>
-      <c r="C265" t="s">
-        <v>928</v>
-      </c>
-      <c r="D265" t="s">
-        <v>929</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
@@ -9043,19 +9043,19 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
+        <v>928</v>
+      </c>
+      <c r="C266" t="s">
+        <v>929</v>
+      </c>
+      <c r="D266" t="s">
         <v>930</v>
       </c>
-      <c r="C266" t="s">
+      <c r="E266" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" t="s">
         <v>931</v>
-      </c>
-      <c r="D266" t="s">
-        <v>932</v>
-      </c>
-      <c r="E266" t="s">
-        <v>10</v>
-      </c>
-      <c r="G266" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.4">
@@ -9063,19 +9063,19 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
+        <v>932</v>
+      </c>
+      <c r="C267" t="s">
+        <v>933</v>
+      </c>
+      <c r="D267" t="s">
         <v>934</v>
       </c>
-      <c r="C267" t="s">
-        <v>935</v>
-      </c>
-      <c r="D267" t="s">
-        <v>936</v>
-      </c>
       <c r="E267" t="s">
         <v>10</v>
       </c>
       <c r="G267" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.4">
@@ -9083,13 +9083,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
+        <v>935</v>
+      </c>
+      <c r="C268" t="s">
+        <v>936</v>
+      </c>
+      <c r="D268" t="s">
         <v>937</v>
-      </c>
-      <c r="C268" t="s">
-        <v>938</v>
-      </c>
-      <c r="D268" t="s">
-        <v>939</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
@@ -9103,13 +9103,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
+        <v>938</v>
+      </c>
+      <c r="C269" t="s">
+        <v>939</v>
+      </c>
+      <c r="D269" t="s">
         <v>940</v>
-      </c>
-      <c r="C269" t="s">
-        <v>941</v>
-      </c>
-      <c r="D269" t="s">
-        <v>942</v>
       </c>
       <c r="E269" t="s">
         <v>10</v>
@@ -9123,13 +9123,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
+        <v>941</v>
+      </c>
+      <c r="C270" t="s">
+        <v>942</v>
+      </c>
+      <c r="D270" t="s">
         <v>943</v>
-      </c>
-      <c r="C270" t="s">
-        <v>944</v>
-      </c>
-      <c r="D270" t="s">
-        <v>945</v>
       </c>
       <c r="E270" t="s">
         <v>10</v>
@@ -9143,19 +9143,19 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
+        <v>944</v>
+      </c>
+      <c r="C271" t="s">
+        <v>945</v>
+      </c>
+      <c r="D271" t="s">
         <v>946</v>
       </c>
-      <c r="C271" t="s">
-        <v>947</v>
-      </c>
-      <c r="D271" t="s">
-        <v>948</v>
-      </c>
       <c r="E271" t="s">
         <v>10</v>
       </c>
       <c r="G271" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.4">
@@ -9163,13 +9163,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
+        <v>947</v>
+      </c>
+      <c r="C272" t="s">
+        <v>948</v>
+      </c>
+      <c r="D272" t="s">
         <v>949</v>
-      </c>
-      <c r="C272" t="s">
-        <v>950</v>
-      </c>
-      <c r="D272" t="s">
-        <v>951</v>
       </c>
       <c r="E272" t="s">
         <v>10</v>
@@ -9183,13 +9183,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
+        <v>950</v>
+      </c>
+      <c r="C273" t="s">
+        <v>951</v>
+      </c>
+      <c r="D273" t="s">
         <v>952</v>
-      </c>
-      <c r="C273" t="s">
-        <v>953</v>
-      </c>
-      <c r="D273" t="s">
-        <v>954</v>
       </c>
       <c r="E273" t="s">
         <v>10</v>
@@ -9203,13 +9203,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
+        <v>953</v>
+      </c>
+      <c r="C274" t="s">
+        <v>954</v>
+      </c>
+      <c r="D274" t="s">
         <v>955</v>
-      </c>
-      <c r="C274" t="s">
-        <v>956</v>
-      </c>
-      <c r="D274" t="s">
-        <v>957</v>
       </c>
       <c r="E274" t="s">
         <v>10</v>
@@ -9223,13 +9223,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
+        <v>956</v>
+      </c>
+      <c r="C275" t="s">
+        <v>957</v>
+      </c>
+      <c r="D275" t="s">
         <v>958</v>
-      </c>
-      <c r="C275" t="s">
-        <v>959</v>
-      </c>
-      <c r="D275" t="s">
-        <v>960</v>
       </c>
       <c r="E275" t="s">
         <v>10</v>
@@ -9243,19 +9243,19 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
+        <v>959</v>
+      </c>
+      <c r="C276" t="s">
+        <v>960</v>
+      </c>
+      <c r="D276" t="s">
         <v>961</v>
       </c>
-      <c r="C276" t="s">
-        <v>962</v>
-      </c>
-      <c r="D276" t="s">
-        <v>963</v>
-      </c>
       <c r="E276" t="s">
         <v>10</v>
       </c>
       <c r="G276" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.4">
@@ -9263,19 +9263,19 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
+        <v>962</v>
+      </c>
+      <c r="C277" t="s">
+        <v>963</v>
+      </c>
+      <c r="D277" t="s">
         <v>964</v>
       </c>
-      <c r="C277" t="s">
+      <c r="E277" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" t="s">
         <v>965</v>
-      </c>
-      <c r="D277" t="s">
-        <v>966</v>
-      </c>
-      <c r="E277" t="s">
-        <v>10</v>
-      </c>
-      <c r="G277" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.4">
@@ -9283,13 +9283,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
+        <v>966</v>
+      </c>
+      <c r="C278" t="s">
+        <v>967</v>
+      </c>
+      <c r="D278" t="s">
         <v>968</v>
-      </c>
-      <c r="C278" t="s">
-        <v>969</v>
-      </c>
-      <c r="D278" t="s">
-        <v>970</v>
       </c>
       <c r="E278" t="s">
         <v>10</v>
@@ -9303,13 +9303,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C279" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D279" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E279" t="s">
         <v>10</v>
@@ -9323,19 +9323,19 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
+        <v>971</v>
+      </c>
+      <c r="C280" t="s">
+        <v>972</v>
+      </c>
+      <c r="D280" t="s">
         <v>973</v>
       </c>
-      <c r="C280" t="s">
+      <c r="E280" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" t="s">
         <v>974</v>
-      </c>
-      <c r="D280" t="s">
-        <v>975</v>
-      </c>
-      <c r="E280" t="s">
-        <v>10</v>
-      </c>
-      <c r="G280" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.4">
@@ -9343,19 +9343,19 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
+        <v>975</v>
+      </c>
+      <c r="C281" t="s">
+        <v>976</v>
+      </c>
+      <c r="D281" t="s">
         <v>977</v>
       </c>
-      <c r="C281" t="s">
+      <c r="E281" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" t="s">
         <v>978</v>
-      </c>
-      <c r="D281" t="s">
-        <v>979</v>
-      </c>
-      <c r="E281" t="s">
-        <v>10</v>
-      </c>
-      <c r="G281" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.4">
@@ -9363,13 +9363,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
+        <v>979</v>
+      </c>
+      <c r="C282" t="s">
+        <v>980</v>
+      </c>
+      <c r="D282" t="s">
         <v>981</v>
-      </c>
-      <c r="C282" t="s">
-        <v>982</v>
-      </c>
-      <c r="D282" t="s">
-        <v>983</v>
       </c>
       <c r="E282" t="s">
         <v>10</v>
@@ -9383,13 +9383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
+        <v>982</v>
+      </c>
+      <c r="C283" t="s">
+        <v>983</v>
+      </c>
+      <c r="D283" t="s">
         <v>984</v>
-      </c>
-      <c r="C283" t="s">
-        <v>985</v>
-      </c>
-      <c r="D283" t="s">
-        <v>986</v>
       </c>
       <c r="E283" t="s">
         <v>10</v>
@@ -9403,19 +9403,19 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
+        <v>985</v>
+      </c>
+      <c r="C284" t="s">
+        <v>986</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
         <v>987</v>
-      </c>
-      <c r="C284" t="s">
-        <v>988</v>
-      </c>
-      <c r="D284" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E284" t="s">
-        <v>10</v>
-      </c>
-      <c r="G284" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.4">
@@ -9423,13 +9423,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
+        <v>988</v>
+      </c>
+      <c r="C285" t="s">
+        <v>989</v>
+      </c>
+      <c r="D285" t="s">
         <v>990</v>
-      </c>
-      <c r="C285" t="s">
-        <v>991</v>
-      </c>
-      <c r="D285" t="s">
-        <v>992</v>
       </c>
       <c r="E285" t="s">
         <v>10</v>
@@ -9443,13 +9443,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
+        <v>991</v>
+      </c>
+      <c r="C286" t="s">
+        <v>992</v>
+      </c>
+      <c r="D286" t="s">
         <v>993</v>
-      </c>
-      <c r="C286" t="s">
-        <v>994</v>
-      </c>
-      <c r="D286" t="s">
-        <v>995</v>
       </c>
       <c r="E286" t="s">
         <v>10</v>
@@ -9463,13 +9463,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
+        <v>994</v>
+      </c>
+      <c r="C287" t="s">
+        <v>995</v>
+      </c>
+      <c r="D287" t="s">
         <v>996</v>
-      </c>
-      <c r="C287" t="s">
-        <v>997</v>
-      </c>
-      <c r="D287" t="s">
-        <v>998</v>
       </c>
       <c r="E287" t="s">
         <v>10</v>
@@ -9483,13 +9483,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
+        <v>997</v>
+      </c>
+      <c r="C288" t="s">
+        <v>998</v>
+      </c>
+      <c r="D288" t="s">
         <v>999</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D288" t="s">
-        <v>1001</v>
       </c>
       <c r="E288" t="s">
         <v>10</v>
@@ -9503,13 +9503,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D289" t="s">
         <v>1002</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D289" t="s">
-        <v>1004</v>
       </c>
       <c r="E289" t="s">
         <v>10</v>
@@ -9523,19 +9523,19 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D290" t="s">
         <v>1005</v>
       </c>
-      <c r="C290" t="s">
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" t="s">
         <v>1006</v>
-      </c>
-      <c r="D290" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E290" t="s">
-        <v>10</v>
-      </c>
-      <c r="G290" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.4">
@@ -9543,13 +9543,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D291" t="s">
         <v>1009</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D291" t="s">
-        <v>1011</v>
       </c>
       <c r="E291" t="s">
         <v>10</v>
@@ -9563,13 +9563,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C292" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D292" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E292" t="s">
         <v>10</v>
@@ -9583,13 +9583,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D293" t="s">
         <v>1014</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D293" t="s">
-        <v>1016</v>
       </c>
       <c r="E293" t="s">
         <v>10</v>
@@ -9603,19 +9603,19 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D294" t="s">
         <v>1017</v>
       </c>
-      <c r="C294" t="s">
+      <c r="E294" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" t="s">
         <v>1018</v>
-      </c>
-      <c r="D294" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E294" t="s">
-        <v>10</v>
-      </c>
-      <c r="G294" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
@@ -9623,19 +9623,19 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D295" t="s">
         <v>1021</v>
       </c>
-      <c r="C295" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D295" t="s">
-        <v>1023</v>
-      </c>
       <c r="E295" t="s">
         <v>10</v>
       </c>
       <c r="G295" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
@@ -9643,19 +9643,19 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C296" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D296" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E296" t="s">
-        <v>660</v>
+        <v>10</v>
       </c>
       <c r="G296" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
@@ -9663,19 +9663,19 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D297" t="s">
         <v>1026</v>
       </c>
-      <c r="C297" t="s">
+      <c r="E297" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" t="s">
         <v>1027</v>
-      </c>
-      <c r="D297" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E297" t="s">
-        <v>10</v>
-      </c>
-      <c r="G297" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
@@ -9683,19 +9683,19 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D298" t="s">
         <v>1030</v>
       </c>
-      <c r="C298" t="s">
+      <c r="E298" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" t="s">
         <v>1031</v>
-      </c>
-      <c r="D298" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E298" t="s">
-        <v>10</v>
-      </c>
-      <c r="G298" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
@@ -9703,19 +9703,19 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D299" t="s">
         <v>1034</v>
       </c>
-      <c r="C299" t="s">
+      <c r="E299" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" t="s">
         <v>1035</v>
-      </c>
-      <c r="D299" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E299" t="s">
-        <v>10</v>
-      </c>
-      <c r="G299" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
@@ -9723,19 +9723,19 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D300" t="s">
         <v>1038</v>
       </c>
-      <c r="C300" t="s">
+      <c r="E300" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" t="s">
         <v>1039</v>
-      </c>
-      <c r="D300" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E300" t="s">
-        <v>10</v>
-      </c>
-      <c r="G300" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
@@ -9743,13 +9743,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D301" t="s">
         <v>1042</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1044</v>
       </c>
       <c r="E301" t="s">
         <v>10</v>
@@ -9763,19 +9763,19 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D302" t="s">
         <v>1045</v>
       </c>
-      <c r="C302" t="s">
+      <c r="E302" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" t="s">
         <v>1046</v>
-      </c>
-      <c r="D302" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E302" t="s">
-        <v>10</v>
-      </c>
-      <c r="G302" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
@@ -9783,19 +9783,19 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D303" t="s">
         <v>1049</v>
       </c>
-      <c r="C303" t="s">
+      <c r="E303" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" t="s">
         <v>1050</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E303" t="s">
-        <v>10</v>
-      </c>
-      <c r="G303" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
@@ -9803,13 +9803,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D304" t="s">
         <v>1053</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D304" t="s">
-        <v>1055</v>
       </c>
       <c r="E304" t="s">
         <v>10</v>
@@ -9823,13 +9823,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D305" t="s">
         <v>1056</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D305" t="s">
-        <v>1058</v>
       </c>
       <c r="E305" t="s">
         <v>10</v>
@@ -9843,13 +9843,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D306" t="s">
         <v>1059</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D306" t="s">
-        <v>1061</v>
       </c>
       <c r="E306" t="s">
         <v>10</v>
@@ -9863,19 +9863,19 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D307" t="s">
         <v>1062</v>
       </c>
-      <c r="C307" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D307" t="s">
-        <v>1064</v>
-      </c>
       <c r="E307" t="s">
         <v>10</v>
       </c>
       <c r="G307" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.4">
@@ -9883,13 +9883,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D308" t="s">
         <v>1065</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1067</v>
       </c>
       <c r="E308" t="s">
         <v>10</v>
@@ -9903,19 +9903,19 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D309" t="s">
         <v>1068</v>
       </c>
-      <c r="C309" t="s">
+      <c r="E309" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" t="s">
         <v>1069</v>
-      </c>
-      <c r="D309" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E309" t="s">
-        <v>10</v>
-      </c>
-      <c r="G309" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.4">
@@ -9923,19 +9923,19 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D310" t="s">
         <v>1072</v>
       </c>
-      <c r="C310" t="s">
+      <c r="E310" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" t="s">
         <v>1073</v>
-      </c>
-      <c r="D310" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E310" t="s">
-        <v>10</v>
-      </c>
-      <c r="G310" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.4">
@@ -9943,13 +9943,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D311" t="s">
         <v>1076</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D311" t="s">
-        <v>1078</v>
       </c>
       <c r="E311" t="s">
         <v>10</v>
@@ -9963,19 +9963,19 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D312" t="s">
         <v>1079</v>
       </c>
-      <c r="C312" t="s">
+      <c r="E312" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" t="s">
         <v>1080</v>
-      </c>
-      <c r="D312" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E312" t="s">
-        <v>10</v>
-      </c>
-      <c r="G312" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.4">
@@ -9983,19 +9983,19 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D313" t="s">
         <v>1083</v>
       </c>
-      <c r="C313" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1085</v>
-      </c>
       <c r="E313" t="s">
         <v>10</v>
       </c>
       <c r="G313" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.4">
@@ -10003,19 +10003,19 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D314" t="s">
         <v>1086</v>
       </c>
-      <c r="C314" t="s">
+      <c r="E314" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" t="s">
         <v>1087</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E314" t="s">
-        <v>10</v>
-      </c>
-      <c r="G314" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.4">
@@ -10023,13 +10023,16 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D315" t="s">
         <v>1090</v>
       </c>
-      <c r="C315" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D315" t="s">
-        <v>1092</v>
+      <c r="E315" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
